--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2160077.MAETEL\Desktop\スピックー馬鹿ー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2160327\Desktop\isida\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20670" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20676" windowHeight="7896" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="8" r:id="rId1"/>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="d"/>
@@ -987,7 +987,7 @@
     <numFmt numFmtId="180" formatCode="#0.0&quot;日&quot;"/>
     <numFmt numFmtId="181" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2252,78 +2252,6 @@
     <xf numFmtId="9" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2411,7 +2339,13 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2423,16 +2357,70 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2458,6 +2446,18 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2898,7 +2898,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB43EAA-780C-4669-9C3C-1E52E6F399DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DB43EAA-780C-4669-9C3C-1E52E6F399DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3045,7 @@
         <xdr:cNvPr id="20" name="進捗1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0EE450-A789-4766-8A03-1EE18E76D43C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB0EE450-A789-4766-8A03-1EE18E76D43C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3119,7 @@
         <xdr:cNvPr id="21" name="進捗実績1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9402DE-6327-488E-BF79-A606158E3D79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA9402DE-6327-488E-BF79-A606158E3D79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3193,7 @@
         <xdr:cNvPr id="22" name="進捗2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A23603-563A-4A3A-80DB-2E60C07E3A62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4A23603-563A-4A3A-80DB-2E60C07E3A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3267,7 @@
         <xdr:cNvPr id="23" name="進捗実績2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC759EA-9740-43BE-A349-0D37B3AB5C98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EC759EA-9740-43BE-A349-0D37B3AB5C98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3341,7 @@
         <xdr:cNvPr id="24" name="進捗3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEEF54B-78F6-4EE8-B170-E1A9C9173C2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1EEEF54B-78F6-4EE8-B170-E1A9C9173C2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3415,7 +3415,7 @@
         <xdr:cNvPr id="25" name="進捗実績3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66EA63C-3A07-4D47-AA4C-7D905F3F04CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A66EA63C-3A07-4D47-AA4C-7D905F3F04CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3489,7 +3489,7 @@
         <xdr:cNvPr id="26" name="進捗4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75794B0-9C6E-460C-BCFE-90F859308554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E75794B0-9C6E-460C-BCFE-90F859308554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3563,7 +3563,7 @@
         <xdr:cNvPr id="27" name="進捗実績4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C56122-0127-4634-86B3-6C436A3BD6FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9C56122-0127-4634-86B3-6C436A3BD6FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3637,7 +3637,7 @@
         <xdr:cNvPr id="28" name="進捗7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6B297D-939F-42DA-99DD-4686EADBBFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A6B297D-939F-42DA-99DD-4686EADBBFDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3711,7 +3711,7 @@
         <xdr:cNvPr id="29" name="進捗実績7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99ECEC0-FB04-4E2B-A9EF-00CAB642FC1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E99ECEC0-FB04-4E2B-A9EF-00CAB642FC1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3785,7 +3785,7 @@
         <xdr:cNvPr id="30" name="進捗8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D83C21D-C145-4CDA-8815-92642ED5A68C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D83C21D-C145-4CDA-8815-92642ED5A68C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3859,7 @@
         <xdr:cNvPr id="31" name="進捗実績8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8623CA3-5694-4A75-BA79-003343B7C0CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8623CA3-5694-4A75-BA79-003343B7C0CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3933,7 +3933,7 @@
         <xdr:cNvPr id="32" name="進捗9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7166CB4-6CC7-4FE7-9E1B-7FBE3FA27CDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7166CB4-6CC7-4FE7-9E1B-7FBE3FA27CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4007,7 +4007,7 @@
         <xdr:cNvPr id="33" name="進捗10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2764C8-9894-4251-A5DF-13CE1D258B98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD2764C8-9894-4251-A5DF-13CE1D258B98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4081,7 +4081,7 @@
         <xdr:cNvPr id="34" name="進捗11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A6CF70-4DCF-433B-BD7B-50B05ACD6809}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47A6CF70-4DCF-433B-BD7B-50B05ACD6809}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4155,7 +4155,7 @@
         <xdr:cNvPr id="35" name="進捗12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E535693D-EF8C-41BF-829B-242476263EF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E535693D-EF8C-41BF-829B-242476263EF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4229,7 +4229,7 @@
         <xdr:cNvPr id="36" name="進捗19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3C9E65-A9CF-4E1D-A45B-E52F6AC32B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E3C9E65-A9CF-4E1D-A45B-E52F6AC32B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,7 +4303,7 @@
         <xdr:cNvPr id="37" name="進捗20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75F3AB9-B82A-47F0-9CD9-2E3016A094F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F75F3AB9-B82A-47F0-9CD9-2E3016A094F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4377,7 +4377,7 @@
         <xdr:cNvPr id="38" name="進捗21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EECF84-57F0-42DD-8181-7FDBF364F68F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57EECF84-57F0-42DD-8181-7FDBF364F68F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4451,7 +4451,7 @@
         <xdr:cNvPr id="39" name="進捗22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF77900-A5A7-45F3-BEAB-3CCB9F7DB956}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF77900-A5A7-45F3-BEAB-3CCB9F7DB956}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,7 +4525,7 @@
         <xdr:cNvPr id="40" name="進捗23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1D26B9-CABC-4255-8897-7B68A212C1CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A1D26B9-CABC-4255-8897-7B68A212C1CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4599,7 +4599,7 @@
         <xdr:cNvPr id="18" name="イナズマ線0221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C206B7-2082-4CAC-9E16-A384CC0B2433}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3C206B7-2082-4CAC-9E16-A384CC0B2433}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6307,7 +6307,7 @@
         <xdr:cNvPr id="19" name="イナズマ線0222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD96E31F-293A-47F3-836D-91A9E61A9C1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD96E31F-293A-47F3-836D-91A9E61A9C1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7561,7 +7561,7 @@
         <xdr:cNvPr id="3" name="進捗1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06806C2B-8CD8-4AF4-A4D7-4CE19279E4DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06806C2B-8CD8-4AF4-A4D7-4CE19279E4DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7635,7 +7635,7 @@
         <xdr:cNvPr id="4" name="進捗2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31534CCD-E45C-42B4-B5E9-2A20896E59E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31534CCD-E45C-42B4-B5E9-2A20896E59E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7709,7 +7709,7 @@
         <xdr:cNvPr id="5" name="進捗3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA57F002-7564-4E32-A7C0-9AD2D304AFA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA57F002-7564-4E32-A7C0-9AD2D304AFA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7783,7 +7783,7 @@
         <xdr:cNvPr id="6" name="進捗4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CA7DB9-9DAE-4295-991C-1512931B724E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27CA7DB9-9DAE-4295-991C-1512931B724E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7857,7 +7857,7 @@
         <xdr:cNvPr id="7" name="進捗5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC29A4A-7E47-4458-85AB-1105391F86E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAC29A4A-7E47-4458-85AB-1105391F86E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7931,7 +7931,7 @@
         <xdr:cNvPr id="8" name="進捗10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F64664-0806-463D-A0E5-A8E814307FEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8F64664-0806-463D-A0E5-A8E814307FEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8005,7 +8005,7 @@
         <xdr:cNvPr id="9" name="進捗11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749C1006-1DBE-42A2-B149-9D42F0A11C82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{749C1006-1DBE-42A2-B149-9D42F0A11C82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8079,7 +8079,7 @@
         <xdr:cNvPr id="10" name="進捗12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE160E4-B229-4822-A233-47C4A77644C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCE160E4-B229-4822-A233-47C4A77644C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8153,7 +8153,7 @@
         <xdr:cNvPr id="11" name="進捗13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BB8013-1150-4974-AE63-E00FEFE6B0E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2BB8013-1150-4974-AE63-E00FEFE6B0E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8227,7 +8227,7 @@
         <xdr:cNvPr id="12" name="進捗14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84BC2C30-E6D9-43A6-8FA1-AB50528DA15C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84BC2C30-E6D9-43A6-8FA1-AB50528DA15C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8301,7 +8301,7 @@
         <xdr:cNvPr id="13" name="進捗15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570C7447-BFC6-4BF0-9514-C76BD496396E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{570C7447-BFC6-4BF0-9514-C76BD496396E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8375,7 +8375,7 @@
         <xdr:cNvPr id="14" name="進捗16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3F1178-24E3-4070-9D0C-7BED623725AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D3F1178-24E3-4070-9D0C-7BED623725AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8449,7 +8449,7 @@
         <xdr:cNvPr id="15" name="進捗17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D53C83F-404C-4491-A4A7-CE439484AE94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D53C83F-404C-4491-A4A7-CE439484AE94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8523,7 +8523,7 @@
         <xdr:cNvPr id="16" name="進捗18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DF9683-2B9A-4C64-9272-C4EEAF42ED82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5DF9683-2B9A-4C64-9272-C4EEAF42ED82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8597,7 +8597,7 @@
         <xdr:cNvPr id="17" name="進捗19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C5D3D8-B0D6-4456-B207-86131F380B62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45C5D3D8-B0D6-4456-B207-86131F380B62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8671,7 +8671,7 @@
         <xdr:cNvPr id="18" name="進捗20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776D9656-625E-48D6-9E09-BFE715B65A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{776D9656-625E-48D6-9E09-BFE715B65A47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8745,7 +8745,7 @@
         <xdr:cNvPr id="19" name="進捗21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23F1184-1600-44A3-A237-72A2F433B721}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C23F1184-1600-44A3-A237-72A2F433B721}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8819,7 +8819,7 @@
         <xdr:cNvPr id="20" name="進捗22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6DEFBC-068D-4B4D-A965-7ACD2FEBD7F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB6DEFBC-068D-4B4D-A965-7ACD2FEBD7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8893,7 +8893,7 @@
         <xdr:cNvPr id="21" name="進捗23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89388F2-C0F4-4C37-8251-23172B24EFFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C89388F2-C0F4-4C37-8251-23172B24EFFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8967,7 +8967,7 @@
         <xdr:cNvPr id="22" name="進捗24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13601080-DC86-4218-92EA-03090DDBDAD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13601080-DC86-4218-92EA-03090DDBDAD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9041,7 +9041,7 @@
         <xdr:cNvPr id="23" name="進捗25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E5E6B5-3C29-440C-B68C-D2A534825C4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78E5E6B5-3C29-440C-B68C-D2A534825C4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9115,7 +9115,7 @@
         <xdr:cNvPr id="24" name="進捗26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B979541-798D-426B-8031-C54D43DC1EB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B979541-798D-426B-8031-C54D43DC1EB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9189,7 +9189,7 @@
         <xdr:cNvPr id="25" name="進捗27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4485B1-7434-46BB-94A2-30A9E645D73B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C4485B1-7434-46BB-94A2-30A9E645D73B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9263,7 +9263,7 @@
         <xdr:cNvPr id="26" name="進捗28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A318F3-B9CB-4273-8707-A04D9156133A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21A318F3-B9CB-4273-8707-A04D9156133A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9337,7 +9337,7 @@
         <xdr:cNvPr id="27" name="進捗29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FE1384-7073-41FF-A0DE-90F24167B87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1FE1384-7073-41FF-A0DE-90F24167B87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9411,7 +9411,7 @@
         <xdr:cNvPr id="28" name="進捗30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359EB126-4980-49E5-BA39-562FE4A668B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{359EB126-4980-49E5-BA39-562FE4A668B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9485,7 +9485,7 @@
         <xdr:cNvPr id="2" name="イナズマ線0222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{511A4EF4-A5DF-4D96-B8FF-5CB76242C2CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{511A4EF4-A5DF-4D96-B8FF-5CB76242C2CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12741,7 +12741,7 @@
         <xdr:cNvPr id="2" name="矢印: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A81AA8-C0BB-4BAB-9B6C-842BFC39E9D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45A81AA8-C0BB-4BAB-9B6C-842BFC39E9D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12812,7 +12812,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D328098E-1896-488D-BE10-ED5ED20AE089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D328098E-1896-488D-BE10-ED5ED20AE089}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12901,7 +12901,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5053558-C59A-4686-9385-995C54E612FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5053558-C59A-4686-9385-995C54E612FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12990,7 +12990,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A04485A-A3E3-4FB9-AC2E-0434D622E1AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A04485A-A3E3-4FB9-AC2E-0434D622E1AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13079,7 +13079,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9AE511-90D4-4946-8582-69E33FA47055}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA9AE511-90D4-4946-8582-69E33FA47055}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13168,7 +13168,7 @@
         <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85717B9-B447-421D-95BA-B8D93ED9BC4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B85717B9-B447-421D-95BA-B8D93ED9BC4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13219,7 +13219,7 @@
         <xdr:cNvPr id="11" name="直線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550FEE76-3054-4C03-9B64-3014EB7A9E19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{550FEE76-3054-4C03-9B64-3014EB7A9E19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13270,7 +13270,7 @@
         <xdr:cNvPr id="13" name="直線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD460AB8-411A-47CE-A6CC-82F5E96309AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD460AB8-411A-47CE-A6CC-82F5E96309AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13321,7 +13321,7 @@
         <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3E0F50-476A-464F-B5B7-8F3CE29868AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A3E0F50-476A-464F-B5B7-8F3CE29868AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13372,7 +13372,7 @@
         <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B4084C-B889-4B50-9B83-6D4A7A17A8FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72B4084C-B889-4B50-9B83-6D4A7A17A8FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13463,7 +13463,7 @@
         <xdr:cNvPr id="25" name="正方形/長方形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68DE904-5F51-4538-9009-BAE91D2F863A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E68DE904-5F51-4538-9009-BAE91D2F863A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13552,7 +13552,7 @@
         <xdr:cNvPr id="26" name="直線コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419CB253-846C-4124-9238-C763DD02D51A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{419CB253-846C-4124-9238-C763DD02D51A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13603,7 +13603,7 @@
         <xdr:cNvPr id="29" name="直線コネクタ 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E84B2C-8584-44C7-9DF0-66718ABFF2E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42E84B2C-8584-44C7-9DF0-66718ABFF2E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13658,7 +13658,7 @@
         <xdr:cNvPr id="28" name="正方形/長方形 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470AD4BA-4FAD-42F1-A5D6-0A51AB52FDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{470AD4BA-4FAD-42F1-A5D6-0A51AB52FDB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13739,7 +13739,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD47093-8807-41D9-8A63-ED5C57D4E227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDD47093-8807-41D9-8A63-ED5C57D4E227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13820,7 +13820,7 @@
         <xdr:cNvPr id="31" name="直線コネクタ 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{821B1412-7054-4942-802D-0BA39710AD43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{821B1412-7054-4942-802D-0BA39710AD43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13875,7 +13875,7 @@
         <xdr:cNvPr id="32" name="矢印: 左右 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8874003-1AF1-4B0C-9980-A453F5A417CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8874003-1AF1-4B0C-9980-A453F5A417CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13949,7 +13949,7 @@
         <xdr:cNvPr id="35" name="図 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F8F5F5-66C0-4473-A34F-BF1CACA852B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F8F5F5-66C0-4473-A34F-BF1CACA852B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13973,6 +13973,50 @@
         <a:xfrm>
           <a:off x="2324101" y="1790267"/>
           <a:ext cx="742950" cy="844261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784860" y="2964180"/>
+          <a:ext cx="2019300" cy="1262063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14307,590 +14351,590 @@
       <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="30"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="37" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="72" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="26" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="109" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="83" customWidth="1"/>
-    <col min="11" max="20" width="15.5" style="28" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="72" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="109" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="83" customWidth="1"/>
+    <col min="11" max="20" width="15.44140625" style="28" customWidth="1"/>
     <col min="21" max="254" width="9" style="4"/>
-    <col min="255" max="255" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="256" max="258" width="2.625" style="4" customWidth="1"/>
-    <col min="259" max="260" width="23.125" style="4" customWidth="1"/>
-    <col min="261" max="262" width="7.125" style="4" customWidth="1"/>
-    <col min="263" max="264" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="7.625" style="4" customWidth="1"/>
-    <col min="267" max="268" width="3.375" style="4" customWidth="1"/>
+    <col min="255" max="255" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="256" max="258" width="2.6640625" style="4" customWidth="1"/>
+    <col min="259" max="260" width="23.109375" style="4" customWidth="1"/>
+    <col min="261" max="262" width="7.109375" style="4" customWidth="1"/>
+    <col min="263" max="264" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="7.6640625" style="4" customWidth="1"/>
+    <col min="267" max="268" width="3.33203125" style="4" customWidth="1"/>
     <col min="269" max="510" width="9" style="4"/>
-    <col min="511" max="511" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="512" max="514" width="2.625" style="4" customWidth="1"/>
-    <col min="515" max="516" width="23.125" style="4" customWidth="1"/>
-    <col min="517" max="518" width="7.125" style="4" customWidth="1"/>
-    <col min="519" max="520" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="7.625" style="4" customWidth="1"/>
-    <col min="523" max="524" width="3.375" style="4" customWidth="1"/>
+    <col min="511" max="511" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="512" max="514" width="2.6640625" style="4" customWidth="1"/>
+    <col min="515" max="516" width="23.109375" style="4" customWidth="1"/>
+    <col min="517" max="518" width="7.109375" style="4" customWidth="1"/>
+    <col min="519" max="520" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="7.6640625" style="4" customWidth="1"/>
+    <col min="523" max="524" width="3.33203125" style="4" customWidth="1"/>
     <col min="525" max="766" width="9" style="4"/>
-    <col min="767" max="767" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="768" max="770" width="2.625" style="4" customWidth="1"/>
-    <col min="771" max="772" width="23.125" style="4" customWidth="1"/>
-    <col min="773" max="774" width="7.125" style="4" customWidth="1"/>
-    <col min="775" max="776" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="7.625" style="4" customWidth="1"/>
-    <col min="779" max="780" width="3.375" style="4" customWidth="1"/>
+    <col min="767" max="767" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="768" max="770" width="2.6640625" style="4" customWidth="1"/>
+    <col min="771" max="772" width="23.109375" style="4" customWidth="1"/>
+    <col min="773" max="774" width="7.109375" style="4" customWidth="1"/>
+    <col min="775" max="776" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="7.6640625" style="4" customWidth="1"/>
+    <col min="779" max="780" width="3.33203125" style="4" customWidth="1"/>
     <col min="781" max="1022" width="9" style="4"/>
-    <col min="1023" max="1023" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1026" width="2.625" style="4" customWidth="1"/>
-    <col min="1027" max="1028" width="23.125" style="4" customWidth="1"/>
-    <col min="1029" max="1030" width="7.125" style="4" customWidth="1"/>
-    <col min="1031" max="1032" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="7.625" style="4" customWidth="1"/>
-    <col min="1035" max="1036" width="3.375" style="4" customWidth="1"/>
+    <col min="1023" max="1023" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1026" width="2.6640625" style="4" customWidth="1"/>
+    <col min="1027" max="1028" width="23.109375" style="4" customWidth="1"/>
+    <col min="1029" max="1030" width="7.109375" style="4" customWidth="1"/>
+    <col min="1031" max="1032" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="7.6640625" style="4" customWidth="1"/>
+    <col min="1035" max="1036" width="3.33203125" style="4" customWidth="1"/>
     <col min="1037" max="1278" width="9" style="4"/>
-    <col min="1279" max="1279" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1282" width="2.625" style="4" customWidth="1"/>
-    <col min="1283" max="1284" width="23.125" style="4" customWidth="1"/>
-    <col min="1285" max="1286" width="7.125" style="4" customWidth="1"/>
-    <col min="1287" max="1288" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="7.625" style="4" customWidth="1"/>
-    <col min="1291" max="1292" width="3.375" style="4" customWidth="1"/>
+    <col min="1279" max="1279" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1282" width="2.6640625" style="4" customWidth="1"/>
+    <col min="1283" max="1284" width="23.109375" style="4" customWidth="1"/>
+    <col min="1285" max="1286" width="7.109375" style="4" customWidth="1"/>
+    <col min="1287" max="1288" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="7.6640625" style="4" customWidth="1"/>
+    <col min="1291" max="1292" width="3.33203125" style="4" customWidth="1"/>
     <col min="1293" max="1534" width="9" style="4"/>
-    <col min="1535" max="1535" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1538" width="2.625" style="4" customWidth="1"/>
-    <col min="1539" max="1540" width="23.125" style="4" customWidth="1"/>
-    <col min="1541" max="1542" width="7.125" style="4" customWidth="1"/>
-    <col min="1543" max="1544" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="7.625" style="4" customWidth="1"/>
-    <col min="1547" max="1548" width="3.375" style="4" customWidth="1"/>
+    <col min="1535" max="1535" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1538" width="2.6640625" style="4" customWidth="1"/>
+    <col min="1539" max="1540" width="23.109375" style="4" customWidth="1"/>
+    <col min="1541" max="1542" width="7.109375" style="4" customWidth="1"/>
+    <col min="1543" max="1544" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="7.6640625" style="4" customWidth="1"/>
+    <col min="1547" max="1548" width="3.33203125" style="4" customWidth="1"/>
     <col min="1549" max="1790" width="9" style="4"/>
-    <col min="1791" max="1791" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1794" width="2.625" style="4" customWidth="1"/>
-    <col min="1795" max="1796" width="23.125" style="4" customWidth="1"/>
-    <col min="1797" max="1798" width="7.125" style="4" customWidth="1"/>
-    <col min="1799" max="1800" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="7.625" style="4" customWidth="1"/>
-    <col min="1803" max="1804" width="3.375" style="4" customWidth="1"/>
+    <col min="1791" max="1791" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1794" width="2.6640625" style="4" customWidth="1"/>
+    <col min="1795" max="1796" width="23.109375" style="4" customWidth="1"/>
+    <col min="1797" max="1798" width="7.109375" style="4" customWidth="1"/>
+    <col min="1799" max="1800" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="7.6640625" style="4" customWidth="1"/>
+    <col min="1803" max="1804" width="3.33203125" style="4" customWidth="1"/>
     <col min="1805" max="2046" width="9" style="4"/>
-    <col min="2047" max="2047" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2050" width="2.625" style="4" customWidth="1"/>
-    <col min="2051" max="2052" width="23.125" style="4" customWidth="1"/>
-    <col min="2053" max="2054" width="7.125" style="4" customWidth="1"/>
-    <col min="2055" max="2056" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="7.625" style="4" customWidth="1"/>
-    <col min="2059" max="2060" width="3.375" style="4" customWidth="1"/>
+    <col min="2047" max="2047" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2050" width="2.6640625" style="4" customWidth="1"/>
+    <col min="2051" max="2052" width="23.109375" style="4" customWidth="1"/>
+    <col min="2053" max="2054" width="7.109375" style="4" customWidth="1"/>
+    <col min="2055" max="2056" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="7.6640625" style="4" customWidth="1"/>
+    <col min="2059" max="2060" width="3.33203125" style="4" customWidth="1"/>
     <col min="2061" max="2302" width="9" style="4"/>
-    <col min="2303" max="2303" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2306" width="2.625" style="4" customWidth="1"/>
-    <col min="2307" max="2308" width="23.125" style="4" customWidth="1"/>
-    <col min="2309" max="2310" width="7.125" style="4" customWidth="1"/>
-    <col min="2311" max="2312" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="7.625" style="4" customWidth="1"/>
-    <col min="2315" max="2316" width="3.375" style="4" customWidth="1"/>
+    <col min="2303" max="2303" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2306" width="2.6640625" style="4" customWidth="1"/>
+    <col min="2307" max="2308" width="23.109375" style="4" customWidth="1"/>
+    <col min="2309" max="2310" width="7.109375" style="4" customWidth="1"/>
+    <col min="2311" max="2312" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="7.6640625" style="4" customWidth="1"/>
+    <col min="2315" max="2316" width="3.33203125" style="4" customWidth="1"/>
     <col min="2317" max="2558" width="9" style="4"/>
-    <col min="2559" max="2559" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2562" width="2.625" style="4" customWidth="1"/>
-    <col min="2563" max="2564" width="23.125" style="4" customWidth="1"/>
-    <col min="2565" max="2566" width="7.125" style="4" customWidth="1"/>
-    <col min="2567" max="2568" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="7.625" style="4" customWidth="1"/>
-    <col min="2571" max="2572" width="3.375" style="4" customWidth="1"/>
+    <col min="2559" max="2559" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2562" width="2.6640625" style="4" customWidth="1"/>
+    <col min="2563" max="2564" width="23.109375" style="4" customWidth="1"/>
+    <col min="2565" max="2566" width="7.109375" style="4" customWidth="1"/>
+    <col min="2567" max="2568" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="7.6640625" style="4" customWidth="1"/>
+    <col min="2571" max="2572" width="3.33203125" style="4" customWidth="1"/>
     <col min="2573" max="2814" width="9" style="4"/>
-    <col min="2815" max="2815" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2818" width="2.625" style="4" customWidth="1"/>
-    <col min="2819" max="2820" width="23.125" style="4" customWidth="1"/>
-    <col min="2821" max="2822" width="7.125" style="4" customWidth="1"/>
-    <col min="2823" max="2824" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="7.625" style="4" customWidth="1"/>
-    <col min="2827" max="2828" width="3.375" style="4" customWidth="1"/>
+    <col min="2815" max="2815" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2818" width="2.6640625" style="4" customWidth="1"/>
+    <col min="2819" max="2820" width="23.109375" style="4" customWidth="1"/>
+    <col min="2821" max="2822" width="7.109375" style="4" customWidth="1"/>
+    <col min="2823" max="2824" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="7.6640625" style="4" customWidth="1"/>
+    <col min="2827" max="2828" width="3.33203125" style="4" customWidth="1"/>
     <col min="2829" max="3070" width="9" style="4"/>
-    <col min="3071" max="3071" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3074" width="2.625" style="4" customWidth="1"/>
-    <col min="3075" max="3076" width="23.125" style="4" customWidth="1"/>
-    <col min="3077" max="3078" width="7.125" style="4" customWidth="1"/>
-    <col min="3079" max="3080" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="7.625" style="4" customWidth="1"/>
-    <col min="3083" max="3084" width="3.375" style="4" customWidth="1"/>
+    <col min="3071" max="3071" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3074" width="2.6640625" style="4" customWidth="1"/>
+    <col min="3075" max="3076" width="23.109375" style="4" customWidth="1"/>
+    <col min="3077" max="3078" width="7.109375" style="4" customWidth="1"/>
+    <col min="3079" max="3080" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="7.6640625" style="4" customWidth="1"/>
+    <col min="3083" max="3084" width="3.33203125" style="4" customWidth="1"/>
     <col min="3085" max="3326" width="9" style="4"/>
-    <col min="3327" max="3327" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3330" width="2.625" style="4" customWidth="1"/>
-    <col min="3331" max="3332" width="23.125" style="4" customWidth="1"/>
-    <col min="3333" max="3334" width="7.125" style="4" customWidth="1"/>
-    <col min="3335" max="3336" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="7.625" style="4" customWidth="1"/>
-    <col min="3339" max="3340" width="3.375" style="4" customWidth="1"/>
+    <col min="3327" max="3327" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3330" width="2.6640625" style="4" customWidth="1"/>
+    <col min="3331" max="3332" width="23.109375" style="4" customWidth="1"/>
+    <col min="3333" max="3334" width="7.109375" style="4" customWidth="1"/>
+    <col min="3335" max="3336" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="7.6640625" style="4" customWidth="1"/>
+    <col min="3339" max="3340" width="3.33203125" style="4" customWidth="1"/>
     <col min="3341" max="3582" width="9" style="4"/>
-    <col min="3583" max="3583" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3586" width="2.625" style="4" customWidth="1"/>
-    <col min="3587" max="3588" width="23.125" style="4" customWidth="1"/>
-    <col min="3589" max="3590" width="7.125" style="4" customWidth="1"/>
-    <col min="3591" max="3592" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="7.625" style="4" customWidth="1"/>
-    <col min="3595" max="3596" width="3.375" style="4" customWidth="1"/>
+    <col min="3583" max="3583" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3586" width="2.6640625" style="4" customWidth="1"/>
+    <col min="3587" max="3588" width="23.109375" style="4" customWidth="1"/>
+    <col min="3589" max="3590" width="7.109375" style="4" customWidth="1"/>
+    <col min="3591" max="3592" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="7.6640625" style="4" customWidth="1"/>
+    <col min="3595" max="3596" width="3.33203125" style="4" customWidth="1"/>
     <col min="3597" max="3838" width="9" style="4"/>
-    <col min="3839" max="3839" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3842" width="2.625" style="4" customWidth="1"/>
-    <col min="3843" max="3844" width="23.125" style="4" customWidth="1"/>
-    <col min="3845" max="3846" width="7.125" style="4" customWidth="1"/>
-    <col min="3847" max="3848" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="7.625" style="4" customWidth="1"/>
-    <col min="3851" max="3852" width="3.375" style="4" customWidth="1"/>
+    <col min="3839" max="3839" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3842" width="2.6640625" style="4" customWidth="1"/>
+    <col min="3843" max="3844" width="23.109375" style="4" customWidth="1"/>
+    <col min="3845" max="3846" width="7.109375" style="4" customWidth="1"/>
+    <col min="3847" max="3848" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="7.6640625" style="4" customWidth="1"/>
+    <col min="3851" max="3852" width="3.33203125" style="4" customWidth="1"/>
     <col min="3853" max="4094" width="9" style="4"/>
-    <col min="4095" max="4095" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4098" width="2.625" style="4" customWidth="1"/>
-    <col min="4099" max="4100" width="23.125" style="4" customWidth="1"/>
-    <col min="4101" max="4102" width="7.125" style="4" customWidth="1"/>
-    <col min="4103" max="4104" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="7.625" style="4" customWidth="1"/>
-    <col min="4107" max="4108" width="3.375" style="4" customWidth="1"/>
+    <col min="4095" max="4095" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4098" width="2.6640625" style="4" customWidth="1"/>
+    <col min="4099" max="4100" width="23.109375" style="4" customWidth="1"/>
+    <col min="4101" max="4102" width="7.109375" style="4" customWidth="1"/>
+    <col min="4103" max="4104" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="7.6640625" style="4" customWidth="1"/>
+    <col min="4107" max="4108" width="3.33203125" style="4" customWidth="1"/>
     <col min="4109" max="4350" width="9" style="4"/>
-    <col min="4351" max="4351" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4354" width="2.625" style="4" customWidth="1"/>
-    <col min="4355" max="4356" width="23.125" style="4" customWidth="1"/>
-    <col min="4357" max="4358" width="7.125" style="4" customWidth="1"/>
-    <col min="4359" max="4360" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="7.625" style="4" customWidth="1"/>
-    <col min="4363" max="4364" width="3.375" style="4" customWidth="1"/>
+    <col min="4351" max="4351" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4354" width="2.6640625" style="4" customWidth="1"/>
+    <col min="4355" max="4356" width="23.109375" style="4" customWidth="1"/>
+    <col min="4357" max="4358" width="7.109375" style="4" customWidth="1"/>
+    <col min="4359" max="4360" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="7.6640625" style="4" customWidth="1"/>
+    <col min="4363" max="4364" width="3.33203125" style="4" customWidth="1"/>
     <col min="4365" max="4606" width="9" style="4"/>
-    <col min="4607" max="4607" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4610" width="2.625" style="4" customWidth="1"/>
-    <col min="4611" max="4612" width="23.125" style="4" customWidth="1"/>
-    <col min="4613" max="4614" width="7.125" style="4" customWidth="1"/>
-    <col min="4615" max="4616" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="7.625" style="4" customWidth="1"/>
-    <col min="4619" max="4620" width="3.375" style="4" customWidth="1"/>
+    <col min="4607" max="4607" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4610" width="2.6640625" style="4" customWidth="1"/>
+    <col min="4611" max="4612" width="23.109375" style="4" customWidth="1"/>
+    <col min="4613" max="4614" width="7.109375" style="4" customWidth="1"/>
+    <col min="4615" max="4616" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="7.6640625" style="4" customWidth="1"/>
+    <col min="4619" max="4620" width="3.33203125" style="4" customWidth="1"/>
     <col min="4621" max="4862" width="9" style="4"/>
-    <col min="4863" max="4863" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4866" width="2.625" style="4" customWidth="1"/>
-    <col min="4867" max="4868" width="23.125" style="4" customWidth="1"/>
-    <col min="4869" max="4870" width="7.125" style="4" customWidth="1"/>
-    <col min="4871" max="4872" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="7.625" style="4" customWidth="1"/>
-    <col min="4875" max="4876" width="3.375" style="4" customWidth="1"/>
+    <col min="4863" max="4863" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4866" width="2.6640625" style="4" customWidth="1"/>
+    <col min="4867" max="4868" width="23.109375" style="4" customWidth="1"/>
+    <col min="4869" max="4870" width="7.109375" style="4" customWidth="1"/>
+    <col min="4871" max="4872" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="7.6640625" style="4" customWidth="1"/>
+    <col min="4875" max="4876" width="3.33203125" style="4" customWidth="1"/>
     <col min="4877" max="5118" width="9" style="4"/>
-    <col min="5119" max="5119" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5122" width="2.625" style="4" customWidth="1"/>
-    <col min="5123" max="5124" width="23.125" style="4" customWidth="1"/>
-    <col min="5125" max="5126" width="7.125" style="4" customWidth="1"/>
-    <col min="5127" max="5128" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="7.625" style="4" customWidth="1"/>
-    <col min="5131" max="5132" width="3.375" style="4" customWidth="1"/>
+    <col min="5119" max="5119" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5122" width="2.6640625" style="4" customWidth="1"/>
+    <col min="5123" max="5124" width="23.109375" style="4" customWidth="1"/>
+    <col min="5125" max="5126" width="7.109375" style="4" customWidth="1"/>
+    <col min="5127" max="5128" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="7.6640625" style="4" customWidth="1"/>
+    <col min="5131" max="5132" width="3.33203125" style="4" customWidth="1"/>
     <col min="5133" max="5374" width="9" style="4"/>
-    <col min="5375" max="5375" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5378" width="2.625" style="4" customWidth="1"/>
-    <col min="5379" max="5380" width="23.125" style="4" customWidth="1"/>
-    <col min="5381" max="5382" width="7.125" style="4" customWidth="1"/>
-    <col min="5383" max="5384" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="7.625" style="4" customWidth="1"/>
-    <col min="5387" max="5388" width="3.375" style="4" customWidth="1"/>
+    <col min="5375" max="5375" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5378" width="2.6640625" style="4" customWidth="1"/>
+    <col min="5379" max="5380" width="23.109375" style="4" customWidth="1"/>
+    <col min="5381" max="5382" width="7.109375" style="4" customWidth="1"/>
+    <col min="5383" max="5384" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="7.6640625" style="4" customWidth="1"/>
+    <col min="5387" max="5388" width="3.33203125" style="4" customWidth="1"/>
     <col min="5389" max="5630" width="9" style="4"/>
-    <col min="5631" max="5631" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5634" width="2.625" style="4" customWidth="1"/>
-    <col min="5635" max="5636" width="23.125" style="4" customWidth="1"/>
-    <col min="5637" max="5638" width="7.125" style="4" customWidth="1"/>
-    <col min="5639" max="5640" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="7.625" style="4" customWidth="1"/>
-    <col min="5643" max="5644" width="3.375" style="4" customWidth="1"/>
+    <col min="5631" max="5631" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5634" width="2.6640625" style="4" customWidth="1"/>
+    <col min="5635" max="5636" width="23.109375" style="4" customWidth="1"/>
+    <col min="5637" max="5638" width="7.109375" style="4" customWidth="1"/>
+    <col min="5639" max="5640" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="7.6640625" style="4" customWidth="1"/>
+    <col min="5643" max="5644" width="3.33203125" style="4" customWidth="1"/>
     <col min="5645" max="5886" width="9" style="4"/>
-    <col min="5887" max="5887" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5890" width="2.625" style="4" customWidth="1"/>
-    <col min="5891" max="5892" width="23.125" style="4" customWidth="1"/>
-    <col min="5893" max="5894" width="7.125" style="4" customWidth="1"/>
-    <col min="5895" max="5896" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="7.625" style="4" customWidth="1"/>
-    <col min="5899" max="5900" width="3.375" style="4" customWidth="1"/>
+    <col min="5887" max="5887" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5890" width="2.6640625" style="4" customWidth="1"/>
+    <col min="5891" max="5892" width="23.109375" style="4" customWidth="1"/>
+    <col min="5893" max="5894" width="7.109375" style="4" customWidth="1"/>
+    <col min="5895" max="5896" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="7.6640625" style="4" customWidth="1"/>
+    <col min="5899" max="5900" width="3.33203125" style="4" customWidth="1"/>
     <col min="5901" max="6142" width="9" style="4"/>
-    <col min="6143" max="6143" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6146" width="2.625" style="4" customWidth="1"/>
-    <col min="6147" max="6148" width="23.125" style="4" customWidth="1"/>
-    <col min="6149" max="6150" width="7.125" style="4" customWidth="1"/>
-    <col min="6151" max="6152" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="7.625" style="4" customWidth="1"/>
-    <col min="6155" max="6156" width="3.375" style="4" customWidth="1"/>
+    <col min="6143" max="6143" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6146" width="2.6640625" style="4" customWidth="1"/>
+    <col min="6147" max="6148" width="23.109375" style="4" customWidth="1"/>
+    <col min="6149" max="6150" width="7.109375" style="4" customWidth="1"/>
+    <col min="6151" max="6152" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="7.6640625" style="4" customWidth="1"/>
+    <col min="6155" max="6156" width="3.33203125" style="4" customWidth="1"/>
     <col min="6157" max="6398" width="9" style="4"/>
-    <col min="6399" max="6399" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6402" width="2.625" style="4" customWidth="1"/>
-    <col min="6403" max="6404" width="23.125" style="4" customWidth="1"/>
-    <col min="6405" max="6406" width="7.125" style="4" customWidth="1"/>
-    <col min="6407" max="6408" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="7.625" style="4" customWidth="1"/>
-    <col min="6411" max="6412" width="3.375" style="4" customWidth="1"/>
+    <col min="6399" max="6399" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6402" width="2.6640625" style="4" customWidth="1"/>
+    <col min="6403" max="6404" width="23.109375" style="4" customWidth="1"/>
+    <col min="6405" max="6406" width="7.109375" style="4" customWidth="1"/>
+    <col min="6407" max="6408" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="7.6640625" style="4" customWidth="1"/>
+    <col min="6411" max="6412" width="3.33203125" style="4" customWidth="1"/>
     <col min="6413" max="6654" width="9" style="4"/>
-    <col min="6655" max="6655" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6658" width="2.625" style="4" customWidth="1"/>
-    <col min="6659" max="6660" width="23.125" style="4" customWidth="1"/>
-    <col min="6661" max="6662" width="7.125" style="4" customWidth="1"/>
-    <col min="6663" max="6664" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="7.625" style="4" customWidth="1"/>
-    <col min="6667" max="6668" width="3.375" style="4" customWidth="1"/>
+    <col min="6655" max="6655" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6658" width="2.6640625" style="4" customWidth="1"/>
+    <col min="6659" max="6660" width="23.109375" style="4" customWidth="1"/>
+    <col min="6661" max="6662" width="7.109375" style="4" customWidth="1"/>
+    <col min="6663" max="6664" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="7.6640625" style="4" customWidth="1"/>
+    <col min="6667" max="6668" width="3.33203125" style="4" customWidth="1"/>
     <col min="6669" max="6910" width="9" style="4"/>
-    <col min="6911" max="6911" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6914" width="2.625" style="4" customWidth="1"/>
-    <col min="6915" max="6916" width="23.125" style="4" customWidth="1"/>
-    <col min="6917" max="6918" width="7.125" style="4" customWidth="1"/>
-    <col min="6919" max="6920" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="7.625" style="4" customWidth="1"/>
-    <col min="6923" max="6924" width="3.375" style="4" customWidth="1"/>
+    <col min="6911" max="6911" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6914" width="2.6640625" style="4" customWidth="1"/>
+    <col min="6915" max="6916" width="23.109375" style="4" customWidth="1"/>
+    <col min="6917" max="6918" width="7.109375" style="4" customWidth="1"/>
+    <col min="6919" max="6920" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="7.6640625" style="4" customWidth="1"/>
+    <col min="6923" max="6924" width="3.33203125" style="4" customWidth="1"/>
     <col min="6925" max="7166" width="9" style="4"/>
-    <col min="7167" max="7167" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7170" width="2.625" style="4" customWidth="1"/>
-    <col min="7171" max="7172" width="23.125" style="4" customWidth="1"/>
-    <col min="7173" max="7174" width="7.125" style="4" customWidth="1"/>
-    <col min="7175" max="7176" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="7.625" style="4" customWidth="1"/>
-    <col min="7179" max="7180" width="3.375" style="4" customWidth="1"/>
+    <col min="7167" max="7167" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7170" width="2.6640625" style="4" customWidth="1"/>
+    <col min="7171" max="7172" width="23.109375" style="4" customWidth="1"/>
+    <col min="7173" max="7174" width="7.109375" style="4" customWidth="1"/>
+    <col min="7175" max="7176" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="7.6640625" style="4" customWidth="1"/>
+    <col min="7179" max="7180" width="3.33203125" style="4" customWidth="1"/>
     <col min="7181" max="7422" width="9" style="4"/>
-    <col min="7423" max="7423" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7426" width="2.625" style="4" customWidth="1"/>
-    <col min="7427" max="7428" width="23.125" style="4" customWidth="1"/>
-    <col min="7429" max="7430" width="7.125" style="4" customWidth="1"/>
-    <col min="7431" max="7432" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="7.625" style="4" customWidth="1"/>
-    <col min="7435" max="7436" width="3.375" style="4" customWidth="1"/>
+    <col min="7423" max="7423" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7426" width="2.6640625" style="4" customWidth="1"/>
+    <col min="7427" max="7428" width="23.109375" style="4" customWidth="1"/>
+    <col min="7429" max="7430" width="7.109375" style="4" customWidth="1"/>
+    <col min="7431" max="7432" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="7.6640625" style="4" customWidth="1"/>
+    <col min="7435" max="7436" width="3.33203125" style="4" customWidth="1"/>
     <col min="7437" max="7678" width="9" style="4"/>
-    <col min="7679" max="7679" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7682" width="2.625" style="4" customWidth="1"/>
-    <col min="7683" max="7684" width="23.125" style="4" customWidth="1"/>
-    <col min="7685" max="7686" width="7.125" style="4" customWidth="1"/>
-    <col min="7687" max="7688" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="7.625" style="4" customWidth="1"/>
-    <col min="7691" max="7692" width="3.375" style="4" customWidth="1"/>
+    <col min="7679" max="7679" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7682" width="2.6640625" style="4" customWidth="1"/>
+    <col min="7683" max="7684" width="23.109375" style="4" customWidth="1"/>
+    <col min="7685" max="7686" width="7.109375" style="4" customWidth="1"/>
+    <col min="7687" max="7688" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="7.6640625" style="4" customWidth="1"/>
+    <col min="7691" max="7692" width="3.33203125" style="4" customWidth="1"/>
     <col min="7693" max="7934" width="9" style="4"/>
-    <col min="7935" max="7935" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7938" width="2.625" style="4" customWidth="1"/>
-    <col min="7939" max="7940" width="23.125" style="4" customWidth="1"/>
-    <col min="7941" max="7942" width="7.125" style="4" customWidth="1"/>
-    <col min="7943" max="7944" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="7.625" style="4" customWidth="1"/>
-    <col min="7947" max="7948" width="3.375" style="4" customWidth="1"/>
+    <col min="7935" max="7935" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7938" width="2.6640625" style="4" customWidth="1"/>
+    <col min="7939" max="7940" width="23.109375" style="4" customWidth="1"/>
+    <col min="7941" max="7942" width="7.109375" style="4" customWidth="1"/>
+    <col min="7943" max="7944" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="7.6640625" style="4" customWidth="1"/>
+    <col min="7947" max="7948" width="3.33203125" style="4" customWidth="1"/>
     <col min="7949" max="8190" width="9" style="4"/>
-    <col min="8191" max="8191" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8194" width="2.625" style="4" customWidth="1"/>
-    <col min="8195" max="8196" width="23.125" style="4" customWidth="1"/>
-    <col min="8197" max="8198" width="7.125" style="4" customWidth="1"/>
-    <col min="8199" max="8200" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="7.625" style="4" customWidth="1"/>
-    <col min="8203" max="8204" width="3.375" style="4" customWidth="1"/>
+    <col min="8191" max="8191" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8194" width="2.6640625" style="4" customWidth="1"/>
+    <col min="8195" max="8196" width="23.109375" style="4" customWidth="1"/>
+    <col min="8197" max="8198" width="7.109375" style="4" customWidth="1"/>
+    <col min="8199" max="8200" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="7.6640625" style="4" customWidth="1"/>
+    <col min="8203" max="8204" width="3.33203125" style="4" customWidth="1"/>
     <col min="8205" max="8446" width="9" style="4"/>
-    <col min="8447" max="8447" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8450" width="2.625" style="4" customWidth="1"/>
-    <col min="8451" max="8452" width="23.125" style="4" customWidth="1"/>
-    <col min="8453" max="8454" width="7.125" style="4" customWidth="1"/>
-    <col min="8455" max="8456" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="7.625" style="4" customWidth="1"/>
-    <col min="8459" max="8460" width="3.375" style="4" customWidth="1"/>
+    <col min="8447" max="8447" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8450" width="2.6640625" style="4" customWidth="1"/>
+    <col min="8451" max="8452" width="23.109375" style="4" customWidth="1"/>
+    <col min="8453" max="8454" width="7.109375" style="4" customWidth="1"/>
+    <col min="8455" max="8456" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="7.6640625" style="4" customWidth="1"/>
+    <col min="8459" max="8460" width="3.33203125" style="4" customWidth="1"/>
     <col min="8461" max="8702" width="9" style="4"/>
-    <col min="8703" max="8703" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8706" width="2.625" style="4" customWidth="1"/>
-    <col min="8707" max="8708" width="23.125" style="4" customWidth="1"/>
-    <col min="8709" max="8710" width="7.125" style="4" customWidth="1"/>
-    <col min="8711" max="8712" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="7.625" style="4" customWidth="1"/>
-    <col min="8715" max="8716" width="3.375" style="4" customWidth="1"/>
+    <col min="8703" max="8703" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8706" width="2.6640625" style="4" customWidth="1"/>
+    <col min="8707" max="8708" width="23.109375" style="4" customWidth="1"/>
+    <col min="8709" max="8710" width="7.109375" style="4" customWidth="1"/>
+    <col min="8711" max="8712" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="7.6640625" style="4" customWidth="1"/>
+    <col min="8715" max="8716" width="3.33203125" style="4" customWidth="1"/>
     <col min="8717" max="8958" width="9" style="4"/>
-    <col min="8959" max="8959" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8962" width="2.625" style="4" customWidth="1"/>
-    <col min="8963" max="8964" width="23.125" style="4" customWidth="1"/>
-    <col min="8965" max="8966" width="7.125" style="4" customWidth="1"/>
-    <col min="8967" max="8968" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="7.625" style="4" customWidth="1"/>
-    <col min="8971" max="8972" width="3.375" style="4" customWidth="1"/>
+    <col min="8959" max="8959" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8962" width="2.6640625" style="4" customWidth="1"/>
+    <col min="8963" max="8964" width="23.109375" style="4" customWidth="1"/>
+    <col min="8965" max="8966" width="7.109375" style="4" customWidth="1"/>
+    <col min="8967" max="8968" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="7.6640625" style="4" customWidth="1"/>
+    <col min="8971" max="8972" width="3.33203125" style="4" customWidth="1"/>
     <col min="8973" max="9214" width="9" style="4"/>
-    <col min="9215" max="9215" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9218" width="2.625" style="4" customWidth="1"/>
-    <col min="9219" max="9220" width="23.125" style="4" customWidth="1"/>
-    <col min="9221" max="9222" width="7.125" style="4" customWidth="1"/>
-    <col min="9223" max="9224" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="7.625" style="4" customWidth="1"/>
-    <col min="9227" max="9228" width="3.375" style="4" customWidth="1"/>
+    <col min="9215" max="9215" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9218" width="2.6640625" style="4" customWidth="1"/>
+    <col min="9219" max="9220" width="23.109375" style="4" customWidth="1"/>
+    <col min="9221" max="9222" width="7.109375" style="4" customWidth="1"/>
+    <col min="9223" max="9224" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="7.6640625" style="4" customWidth="1"/>
+    <col min="9227" max="9228" width="3.33203125" style="4" customWidth="1"/>
     <col min="9229" max="9470" width="9" style="4"/>
-    <col min="9471" max="9471" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9474" width="2.625" style="4" customWidth="1"/>
-    <col min="9475" max="9476" width="23.125" style="4" customWidth="1"/>
-    <col min="9477" max="9478" width="7.125" style="4" customWidth="1"/>
-    <col min="9479" max="9480" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="7.625" style="4" customWidth="1"/>
-    <col min="9483" max="9484" width="3.375" style="4" customWidth="1"/>
+    <col min="9471" max="9471" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9474" width="2.6640625" style="4" customWidth="1"/>
+    <col min="9475" max="9476" width="23.109375" style="4" customWidth="1"/>
+    <col min="9477" max="9478" width="7.109375" style="4" customWidth="1"/>
+    <col min="9479" max="9480" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="7.6640625" style="4" customWidth="1"/>
+    <col min="9483" max="9484" width="3.33203125" style="4" customWidth="1"/>
     <col min="9485" max="9726" width="9" style="4"/>
-    <col min="9727" max="9727" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9730" width="2.625" style="4" customWidth="1"/>
-    <col min="9731" max="9732" width="23.125" style="4" customWidth="1"/>
-    <col min="9733" max="9734" width="7.125" style="4" customWidth="1"/>
-    <col min="9735" max="9736" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="7.625" style="4" customWidth="1"/>
-    <col min="9739" max="9740" width="3.375" style="4" customWidth="1"/>
+    <col min="9727" max="9727" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9730" width="2.6640625" style="4" customWidth="1"/>
+    <col min="9731" max="9732" width="23.109375" style="4" customWidth="1"/>
+    <col min="9733" max="9734" width="7.109375" style="4" customWidth="1"/>
+    <col min="9735" max="9736" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="7.6640625" style="4" customWidth="1"/>
+    <col min="9739" max="9740" width="3.33203125" style="4" customWidth="1"/>
     <col min="9741" max="9982" width="9" style="4"/>
-    <col min="9983" max="9983" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9986" width="2.625" style="4" customWidth="1"/>
-    <col min="9987" max="9988" width="23.125" style="4" customWidth="1"/>
-    <col min="9989" max="9990" width="7.125" style="4" customWidth="1"/>
-    <col min="9991" max="9992" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="7.625" style="4" customWidth="1"/>
-    <col min="9995" max="9996" width="3.375" style="4" customWidth="1"/>
+    <col min="9983" max="9983" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9986" width="2.6640625" style="4" customWidth="1"/>
+    <col min="9987" max="9988" width="23.109375" style="4" customWidth="1"/>
+    <col min="9989" max="9990" width="7.109375" style="4" customWidth="1"/>
+    <col min="9991" max="9992" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="7.6640625" style="4" customWidth="1"/>
+    <col min="9995" max="9996" width="3.33203125" style="4" customWidth="1"/>
     <col min="9997" max="10238" width="9" style="4"/>
-    <col min="10239" max="10239" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10242" width="2.625" style="4" customWidth="1"/>
-    <col min="10243" max="10244" width="23.125" style="4" customWidth="1"/>
-    <col min="10245" max="10246" width="7.125" style="4" customWidth="1"/>
-    <col min="10247" max="10248" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="7.625" style="4" customWidth="1"/>
-    <col min="10251" max="10252" width="3.375" style="4" customWidth="1"/>
+    <col min="10239" max="10239" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10242" width="2.6640625" style="4" customWidth="1"/>
+    <col min="10243" max="10244" width="23.109375" style="4" customWidth="1"/>
+    <col min="10245" max="10246" width="7.109375" style="4" customWidth="1"/>
+    <col min="10247" max="10248" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="7.6640625" style="4" customWidth="1"/>
+    <col min="10251" max="10252" width="3.33203125" style="4" customWidth="1"/>
     <col min="10253" max="10494" width="9" style="4"/>
-    <col min="10495" max="10495" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10498" width="2.625" style="4" customWidth="1"/>
-    <col min="10499" max="10500" width="23.125" style="4" customWidth="1"/>
-    <col min="10501" max="10502" width="7.125" style="4" customWidth="1"/>
-    <col min="10503" max="10504" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="7.625" style="4" customWidth="1"/>
-    <col min="10507" max="10508" width="3.375" style="4" customWidth="1"/>
+    <col min="10495" max="10495" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10498" width="2.6640625" style="4" customWidth="1"/>
+    <col min="10499" max="10500" width="23.109375" style="4" customWidth="1"/>
+    <col min="10501" max="10502" width="7.109375" style="4" customWidth="1"/>
+    <col min="10503" max="10504" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="7.6640625" style="4" customWidth="1"/>
+    <col min="10507" max="10508" width="3.33203125" style="4" customWidth="1"/>
     <col min="10509" max="10750" width="9" style="4"/>
-    <col min="10751" max="10751" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10754" width="2.625" style="4" customWidth="1"/>
-    <col min="10755" max="10756" width="23.125" style="4" customWidth="1"/>
-    <col min="10757" max="10758" width="7.125" style="4" customWidth="1"/>
-    <col min="10759" max="10760" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="7.625" style="4" customWidth="1"/>
-    <col min="10763" max="10764" width="3.375" style="4" customWidth="1"/>
+    <col min="10751" max="10751" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10754" width="2.6640625" style="4" customWidth="1"/>
+    <col min="10755" max="10756" width="23.109375" style="4" customWidth="1"/>
+    <col min="10757" max="10758" width="7.109375" style="4" customWidth="1"/>
+    <col min="10759" max="10760" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="7.6640625" style="4" customWidth="1"/>
+    <col min="10763" max="10764" width="3.33203125" style="4" customWidth="1"/>
     <col min="10765" max="11006" width="9" style="4"/>
-    <col min="11007" max="11007" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11010" width="2.625" style="4" customWidth="1"/>
-    <col min="11011" max="11012" width="23.125" style="4" customWidth="1"/>
-    <col min="11013" max="11014" width="7.125" style="4" customWidth="1"/>
-    <col min="11015" max="11016" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="7.625" style="4" customWidth="1"/>
-    <col min="11019" max="11020" width="3.375" style="4" customWidth="1"/>
+    <col min="11007" max="11007" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11010" width="2.6640625" style="4" customWidth="1"/>
+    <col min="11011" max="11012" width="23.109375" style="4" customWidth="1"/>
+    <col min="11013" max="11014" width="7.109375" style="4" customWidth="1"/>
+    <col min="11015" max="11016" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="7.6640625" style="4" customWidth="1"/>
+    <col min="11019" max="11020" width="3.33203125" style="4" customWidth="1"/>
     <col min="11021" max="11262" width="9" style="4"/>
-    <col min="11263" max="11263" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11266" width="2.625" style="4" customWidth="1"/>
-    <col min="11267" max="11268" width="23.125" style="4" customWidth="1"/>
-    <col min="11269" max="11270" width="7.125" style="4" customWidth="1"/>
-    <col min="11271" max="11272" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="7.625" style="4" customWidth="1"/>
-    <col min="11275" max="11276" width="3.375" style="4" customWidth="1"/>
+    <col min="11263" max="11263" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11266" width="2.6640625" style="4" customWidth="1"/>
+    <col min="11267" max="11268" width="23.109375" style="4" customWidth="1"/>
+    <col min="11269" max="11270" width="7.109375" style="4" customWidth="1"/>
+    <col min="11271" max="11272" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="7.6640625" style="4" customWidth="1"/>
+    <col min="11275" max="11276" width="3.33203125" style="4" customWidth="1"/>
     <col min="11277" max="11518" width="9" style="4"/>
-    <col min="11519" max="11519" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11522" width="2.625" style="4" customWidth="1"/>
-    <col min="11523" max="11524" width="23.125" style="4" customWidth="1"/>
-    <col min="11525" max="11526" width="7.125" style="4" customWidth="1"/>
-    <col min="11527" max="11528" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="7.625" style="4" customWidth="1"/>
-    <col min="11531" max="11532" width="3.375" style="4" customWidth="1"/>
+    <col min="11519" max="11519" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11522" width="2.6640625" style="4" customWidth="1"/>
+    <col min="11523" max="11524" width="23.109375" style="4" customWidth="1"/>
+    <col min="11525" max="11526" width="7.109375" style="4" customWidth="1"/>
+    <col min="11527" max="11528" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="7.6640625" style="4" customWidth="1"/>
+    <col min="11531" max="11532" width="3.33203125" style="4" customWidth="1"/>
     <col min="11533" max="11774" width="9" style="4"/>
-    <col min="11775" max="11775" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11778" width="2.625" style="4" customWidth="1"/>
-    <col min="11779" max="11780" width="23.125" style="4" customWidth="1"/>
-    <col min="11781" max="11782" width="7.125" style="4" customWidth="1"/>
-    <col min="11783" max="11784" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="7.625" style="4" customWidth="1"/>
-    <col min="11787" max="11788" width="3.375" style="4" customWidth="1"/>
+    <col min="11775" max="11775" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11778" width="2.6640625" style="4" customWidth="1"/>
+    <col min="11779" max="11780" width="23.109375" style="4" customWidth="1"/>
+    <col min="11781" max="11782" width="7.109375" style="4" customWidth="1"/>
+    <col min="11783" max="11784" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="7.6640625" style="4" customWidth="1"/>
+    <col min="11787" max="11788" width="3.33203125" style="4" customWidth="1"/>
     <col min="11789" max="12030" width="9" style="4"/>
-    <col min="12031" max="12031" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12034" width="2.625" style="4" customWidth="1"/>
-    <col min="12035" max="12036" width="23.125" style="4" customWidth="1"/>
-    <col min="12037" max="12038" width="7.125" style="4" customWidth="1"/>
-    <col min="12039" max="12040" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="7.625" style="4" customWidth="1"/>
-    <col min="12043" max="12044" width="3.375" style="4" customWidth="1"/>
+    <col min="12031" max="12031" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12034" width="2.6640625" style="4" customWidth="1"/>
+    <col min="12035" max="12036" width="23.109375" style="4" customWidth="1"/>
+    <col min="12037" max="12038" width="7.109375" style="4" customWidth="1"/>
+    <col min="12039" max="12040" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="7.6640625" style="4" customWidth="1"/>
+    <col min="12043" max="12044" width="3.33203125" style="4" customWidth="1"/>
     <col min="12045" max="12286" width="9" style="4"/>
-    <col min="12287" max="12287" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12290" width="2.625" style="4" customWidth="1"/>
-    <col min="12291" max="12292" width="23.125" style="4" customWidth="1"/>
-    <col min="12293" max="12294" width="7.125" style="4" customWidth="1"/>
-    <col min="12295" max="12296" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="7.625" style="4" customWidth="1"/>
-    <col min="12299" max="12300" width="3.375" style="4" customWidth="1"/>
+    <col min="12287" max="12287" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12290" width="2.6640625" style="4" customWidth="1"/>
+    <col min="12291" max="12292" width="23.109375" style="4" customWidth="1"/>
+    <col min="12293" max="12294" width="7.109375" style="4" customWidth="1"/>
+    <col min="12295" max="12296" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="7.6640625" style="4" customWidth="1"/>
+    <col min="12299" max="12300" width="3.33203125" style="4" customWidth="1"/>
     <col min="12301" max="12542" width="9" style="4"/>
-    <col min="12543" max="12543" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12546" width="2.625" style="4" customWidth="1"/>
-    <col min="12547" max="12548" width="23.125" style="4" customWidth="1"/>
-    <col min="12549" max="12550" width="7.125" style="4" customWidth="1"/>
-    <col min="12551" max="12552" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="7.625" style="4" customWidth="1"/>
-    <col min="12555" max="12556" width="3.375" style="4" customWidth="1"/>
+    <col min="12543" max="12543" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12546" width="2.6640625" style="4" customWidth="1"/>
+    <col min="12547" max="12548" width="23.109375" style="4" customWidth="1"/>
+    <col min="12549" max="12550" width="7.109375" style="4" customWidth="1"/>
+    <col min="12551" max="12552" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="7.6640625" style="4" customWidth="1"/>
+    <col min="12555" max="12556" width="3.33203125" style="4" customWidth="1"/>
     <col min="12557" max="12798" width="9" style="4"/>
-    <col min="12799" max="12799" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12802" width="2.625" style="4" customWidth="1"/>
-    <col min="12803" max="12804" width="23.125" style="4" customWidth="1"/>
-    <col min="12805" max="12806" width="7.125" style="4" customWidth="1"/>
-    <col min="12807" max="12808" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="7.625" style="4" customWidth="1"/>
-    <col min="12811" max="12812" width="3.375" style="4" customWidth="1"/>
+    <col min="12799" max="12799" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12802" width="2.6640625" style="4" customWidth="1"/>
+    <col min="12803" max="12804" width="23.109375" style="4" customWidth="1"/>
+    <col min="12805" max="12806" width="7.109375" style="4" customWidth="1"/>
+    <col min="12807" max="12808" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="7.6640625" style="4" customWidth="1"/>
+    <col min="12811" max="12812" width="3.33203125" style="4" customWidth="1"/>
     <col min="12813" max="13054" width="9" style="4"/>
-    <col min="13055" max="13055" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13058" width="2.625" style="4" customWidth="1"/>
-    <col min="13059" max="13060" width="23.125" style="4" customWidth="1"/>
-    <col min="13061" max="13062" width="7.125" style="4" customWidth="1"/>
-    <col min="13063" max="13064" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="7.625" style="4" customWidth="1"/>
-    <col min="13067" max="13068" width="3.375" style="4" customWidth="1"/>
+    <col min="13055" max="13055" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13058" width="2.6640625" style="4" customWidth="1"/>
+    <col min="13059" max="13060" width="23.109375" style="4" customWidth="1"/>
+    <col min="13061" max="13062" width="7.109375" style="4" customWidth="1"/>
+    <col min="13063" max="13064" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="7.6640625" style="4" customWidth="1"/>
+    <col min="13067" max="13068" width="3.33203125" style="4" customWidth="1"/>
     <col min="13069" max="13310" width="9" style="4"/>
-    <col min="13311" max="13311" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13314" width="2.625" style="4" customWidth="1"/>
-    <col min="13315" max="13316" width="23.125" style="4" customWidth="1"/>
-    <col min="13317" max="13318" width="7.125" style="4" customWidth="1"/>
-    <col min="13319" max="13320" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="7.625" style="4" customWidth="1"/>
-    <col min="13323" max="13324" width="3.375" style="4" customWidth="1"/>
+    <col min="13311" max="13311" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13314" width="2.6640625" style="4" customWidth="1"/>
+    <col min="13315" max="13316" width="23.109375" style="4" customWidth="1"/>
+    <col min="13317" max="13318" width="7.109375" style="4" customWidth="1"/>
+    <col min="13319" max="13320" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="7.6640625" style="4" customWidth="1"/>
+    <col min="13323" max="13324" width="3.33203125" style="4" customWidth="1"/>
     <col min="13325" max="13566" width="9" style="4"/>
-    <col min="13567" max="13567" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13570" width="2.625" style="4" customWidth="1"/>
-    <col min="13571" max="13572" width="23.125" style="4" customWidth="1"/>
-    <col min="13573" max="13574" width="7.125" style="4" customWidth="1"/>
-    <col min="13575" max="13576" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="7.625" style="4" customWidth="1"/>
-    <col min="13579" max="13580" width="3.375" style="4" customWidth="1"/>
+    <col min="13567" max="13567" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13570" width="2.6640625" style="4" customWidth="1"/>
+    <col min="13571" max="13572" width="23.109375" style="4" customWidth="1"/>
+    <col min="13573" max="13574" width="7.109375" style="4" customWidth="1"/>
+    <col min="13575" max="13576" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="7.6640625" style="4" customWidth="1"/>
+    <col min="13579" max="13580" width="3.33203125" style="4" customWidth="1"/>
     <col min="13581" max="13822" width="9" style="4"/>
-    <col min="13823" max="13823" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13826" width="2.625" style="4" customWidth="1"/>
-    <col min="13827" max="13828" width="23.125" style="4" customWidth="1"/>
-    <col min="13829" max="13830" width="7.125" style="4" customWidth="1"/>
-    <col min="13831" max="13832" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="7.625" style="4" customWidth="1"/>
-    <col min="13835" max="13836" width="3.375" style="4" customWidth="1"/>
+    <col min="13823" max="13823" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13826" width="2.6640625" style="4" customWidth="1"/>
+    <col min="13827" max="13828" width="23.109375" style="4" customWidth="1"/>
+    <col min="13829" max="13830" width="7.109375" style="4" customWidth="1"/>
+    <col min="13831" max="13832" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="7.6640625" style="4" customWidth="1"/>
+    <col min="13835" max="13836" width="3.33203125" style="4" customWidth="1"/>
     <col min="13837" max="14078" width="9" style="4"/>
-    <col min="14079" max="14079" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14082" width="2.625" style="4" customWidth="1"/>
-    <col min="14083" max="14084" width="23.125" style="4" customWidth="1"/>
-    <col min="14085" max="14086" width="7.125" style="4" customWidth="1"/>
-    <col min="14087" max="14088" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="7.625" style="4" customWidth="1"/>
-    <col min="14091" max="14092" width="3.375" style="4" customWidth="1"/>
+    <col min="14079" max="14079" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14082" width="2.6640625" style="4" customWidth="1"/>
+    <col min="14083" max="14084" width="23.109375" style="4" customWidth="1"/>
+    <col min="14085" max="14086" width="7.109375" style="4" customWidth="1"/>
+    <col min="14087" max="14088" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="7.6640625" style="4" customWidth="1"/>
+    <col min="14091" max="14092" width="3.33203125" style="4" customWidth="1"/>
     <col min="14093" max="14334" width="9" style="4"/>
-    <col min="14335" max="14335" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14338" width="2.625" style="4" customWidth="1"/>
-    <col min="14339" max="14340" width="23.125" style="4" customWidth="1"/>
-    <col min="14341" max="14342" width="7.125" style="4" customWidth="1"/>
-    <col min="14343" max="14344" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="7.625" style="4" customWidth="1"/>
-    <col min="14347" max="14348" width="3.375" style="4" customWidth="1"/>
+    <col min="14335" max="14335" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14338" width="2.6640625" style="4" customWidth="1"/>
+    <col min="14339" max="14340" width="23.109375" style="4" customWidth="1"/>
+    <col min="14341" max="14342" width="7.109375" style="4" customWidth="1"/>
+    <col min="14343" max="14344" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="7.6640625" style="4" customWidth="1"/>
+    <col min="14347" max="14348" width="3.33203125" style="4" customWidth="1"/>
     <col min="14349" max="14590" width="9" style="4"/>
-    <col min="14591" max="14591" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14594" width="2.625" style="4" customWidth="1"/>
-    <col min="14595" max="14596" width="23.125" style="4" customWidth="1"/>
-    <col min="14597" max="14598" width="7.125" style="4" customWidth="1"/>
-    <col min="14599" max="14600" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="7.625" style="4" customWidth="1"/>
-    <col min="14603" max="14604" width="3.375" style="4" customWidth="1"/>
+    <col min="14591" max="14591" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14594" width="2.6640625" style="4" customWidth="1"/>
+    <col min="14595" max="14596" width="23.109375" style="4" customWidth="1"/>
+    <col min="14597" max="14598" width="7.109375" style="4" customWidth="1"/>
+    <col min="14599" max="14600" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="7.6640625" style="4" customWidth="1"/>
+    <col min="14603" max="14604" width="3.33203125" style="4" customWidth="1"/>
     <col min="14605" max="14846" width="9" style="4"/>
-    <col min="14847" max="14847" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14850" width="2.625" style="4" customWidth="1"/>
-    <col min="14851" max="14852" width="23.125" style="4" customWidth="1"/>
-    <col min="14853" max="14854" width="7.125" style="4" customWidth="1"/>
-    <col min="14855" max="14856" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="7.625" style="4" customWidth="1"/>
-    <col min="14859" max="14860" width="3.375" style="4" customWidth="1"/>
+    <col min="14847" max="14847" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14850" width="2.6640625" style="4" customWidth="1"/>
+    <col min="14851" max="14852" width="23.109375" style="4" customWidth="1"/>
+    <col min="14853" max="14854" width="7.109375" style="4" customWidth="1"/>
+    <col min="14855" max="14856" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="7.6640625" style="4" customWidth="1"/>
+    <col min="14859" max="14860" width="3.33203125" style="4" customWidth="1"/>
     <col min="14861" max="15102" width="9" style="4"/>
-    <col min="15103" max="15103" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15106" width="2.625" style="4" customWidth="1"/>
-    <col min="15107" max="15108" width="23.125" style="4" customWidth="1"/>
-    <col min="15109" max="15110" width="7.125" style="4" customWidth="1"/>
-    <col min="15111" max="15112" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="7.625" style="4" customWidth="1"/>
-    <col min="15115" max="15116" width="3.375" style="4" customWidth="1"/>
+    <col min="15103" max="15103" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15106" width="2.6640625" style="4" customWidth="1"/>
+    <col min="15107" max="15108" width="23.109375" style="4" customWidth="1"/>
+    <col min="15109" max="15110" width="7.109375" style="4" customWidth="1"/>
+    <col min="15111" max="15112" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="7.6640625" style="4" customWidth="1"/>
+    <col min="15115" max="15116" width="3.33203125" style="4" customWidth="1"/>
     <col min="15117" max="15358" width="9" style="4"/>
-    <col min="15359" max="15359" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15362" width="2.625" style="4" customWidth="1"/>
-    <col min="15363" max="15364" width="23.125" style="4" customWidth="1"/>
-    <col min="15365" max="15366" width="7.125" style="4" customWidth="1"/>
-    <col min="15367" max="15368" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="7.625" style="4" customWidth="1"/>
-    <col min="15371" max="15372" width="3.375" style="4" customWidth="1"/>
+    <col min="15359" max="15359" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15362" width="2.6640625" style="4" customWidth="1"/>
+    <col min="15363" max="15364" width="23.109375" style="4" customWidth="1"/>
+    <col min="15365" max="15366" width="7.109375" style="4" customWidth="1"/>
+    <col min="15367" max="15368" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="7.6640625" style="4" customWidth="1"/>
+    <col min="15371" max="15372" width="3.33203125" style="4" customWidth="1"/>
     <col min="15373" max="15614" width="9" style="4"/>
-    <col min="15615" max="15615" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15618" width="2.625" style="4" customWidth="1"/>
-    <col min="15619" max="15620" width="23.125" style="4" customWidth="1"/>
-    <col min="15621" max="15622" width="7.125" style="4" customWidth="1"/>
-    <col min="15623" max="15624" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="7.625" style="4" customWidth="1"/>
-    <col min="15627" max="15628" width="3.375" style="4" customWidth="1"/>
+    <col min="15615" max="15615" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15618" width="2.6640625" style="4" customWidth="1"/>
+    <col min="15619" max="15620" width="23.109375" style="4" customWidth="1"/>
+    <col min="15621" max="15622" width="7.109375" style="4" customWidth="1"/>
+    <col min="15623" max="15624" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="7.6640625" style="4" customWidth="1"/>
+    <col min="15627" max="15628" width="3.33203125" style="4" customWidth="1"/>
     <col min="15629" max="15870" width="9" style="4"/>
-    <col min="15871" max="15871" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15874" width="2.625" style="4" customWidth="1"/>
-    <col min="15875" max="15876" width="23.125" style="4" customWidth="1"/>
-    <col min="15877" max="15878" width="7.125" style="4" customWidth="1"/>
-    <col min="15879" max="15880" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="7.625" style="4" customWidth="1"/>
-    <col min="15883" max="15884" width="3.375" style="4" customWidth="1"/>
+    <col min="15871" max="15871" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15874" width="2.6640625" style="4" customWidth="1"/>
+    <col min="15875" max="15876" width="23.109375" style="4" customWidth="1"/>
+    <col min="15877" max="15878" width="7.109375" style="4" customWidth="1"/>
+    <col min="15879" max="15880" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="7.6640625" style="4" customWidth="1"/>
+    <col min="15883" max="15884" width="3.33203125" style="4" customWidth="1"/>
     <col min="15885" max="16126" width="9" style="4"/>
-    <col min="16127" max="16127" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16130" width="2.625" style="4" customWidth="1"/>
-    <col min="16131" max="16132" width="23.125" style="4" customWidth="1"/>
-    <col min="16133" max="16134" width="7.125" style="4" customWidth="1"/>
-    <col min="16135" max="16136" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="7.625" style="4" customWidth="1"/>
-    <col min="16139" max="16140" width="3.375" style="4" customWidth="1"/>
+    <col min="16127" max="16127" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16130" width="2.6640625" style="4" customWidth="1"/>
+    <col min="16131" max="16132" width="23.109375" style="4" customWidth="1"/>
+    <col min="16133" max="16134" width="7.109375" style="4" customWidth="1"/>
+    <col min="16135" max="16136" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="7.6640625" style="4" customWidth="1"/>
+    <col min="16139" max="16140" width="3.33203125" style="4" customWidth="1"/>
     <col min="16141" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -14899,11 +14943,11 @@
       <c r="G1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="110">
+      <c r="H1" s="154">
         <v>43153</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
       <c r="K1" s="3">
         <f>IF(K3&lt;&gt;DATE(YEAR(K3),MONTH(K3)+1,1)-1,MONTH(K3),"")</f>
         <v>2</v>
@@ -14945,7 +14989,7 @@
         <v>月</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" ht="13.8" thickBot="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -14956,11 +15000,11 @@
       <c r="G2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="112">
+      <c r="H2" s="156">
         <v>43153.452349537038</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -14976,35 +15020,35 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="126" t="s">
+    <row r="3" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A3" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="118" t="s">
+      <c r="G3" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="120" t="s">
+      <c r="I3" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="166" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="41">
@@ -15047,17 +15091,17 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="127"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
+    <row r="4" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="149"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="166"/>
       <c r="K4" s="44">
         <f>K3</f>
         <v>43152</v>
@@ -15099,13 +15143,13 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="146" t="s">
+    <row r="5" spans="1:20" ht="39" customHeight="1">
+      <c r="B5" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="143" t="s">
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="119" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="7"/>
@@ -15115,7 +15159,7 @@
       <c r="J5" s="75"/>
       <c r="K5" s="10"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="123" t="s">
+      <c r="M5" s="145" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="11"/>
@@ -15126,11 +15170,11 @@
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="149"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="144"/>
+    <row r="6" spans="1:20" ht="39" customHeight="1">
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="120"/>
       <c r="F6" s="14"/>
       <c r="G6" s="67"/>
       <c r="H6" s="15"/>
@@ -15138,7 +15182,7 @@
       <c r="J6" s="76"/>
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="124"/>
+      <c r="M6" s="146"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
@@ -15147,11 +15191,11 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="149"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="144"/>
+    <row r="7" spans="1:20" ht="39" customHeight="1">
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="14"/>
       <c r="G7" s="67"/>
       <c r="H7" s="15"/>
@@ -15159,7 +15203,7 @@
       <c r="J7" s="76"/>
       <c r="K7" s="17"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="124"/>
+      <c r="M7" s="146"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
@@ -15168,11 +15212,11 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="152"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="145"/>
+    <row r="8" spans="1:20" ht="39" customHeight="1">
+      <c r="B8" s="128"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="35"/>
       <c r="G8" s="69"/>
       <c r="H8" s="36"/>
@@ -15180,7 +15224,7 @@
       <c r="J8" s="77"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="125"/>
+      <c r="M8" s="147"/>
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -15189,7 +15233,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -15210,11 +15254,11 @@
       <c r="S9" s="34"/>
       <c r="T9" s="40"/>
     </row>
-    <row r="10" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="160" t="s">
+    <row r="10" spans="1:20" ht="47.25" customHeight="1">
+      <c r="A10" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="48" t="s">
@@ -15252,9 +15296,9 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="1:20" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="161"/>
-      <c r="B11" s="129"/>
+    <row r="11" spans="1:20" ht="54.75" customHeight="1" thickBot="1">
+      <c r="A11" s="137"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="49" t="s">
         <v>5</v>
       </c>
@@ -15290,9 +15334,9 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="161"/>
-      <c r="B12" s="130" t="s">
+    <row r="12" spans="1:20" ht="53.25" customHeight="1">
+      <c r="A12" s="137"/>
+      <c r="B12" s="139" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="48" t="s">
@@ -15330,9 +15374,9 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="1:20" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="161"/>
-      <c r="B13" s="131"/>
+    <row r="13" spans="1:20" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A13" s="137"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="55" t="s">
         <v>33</v>
       </c>
@@ -15368,9 +15412,9 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="1:20" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="161"/>
-      <c r="B14" s="155" t="s">
+    <row r="14" spans="1:20" ht="55.5" customHeight="1">
+      <c r="A14" s="137"/>
+      <c r="B14" s="131" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -15396,9 +15440,9 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="161"/>
-      <c r="B15" s="156"/>
+    <row r="15" spans="1:20" ht="57.75" customHeight="1">
+      <c r="A15" s="137"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="94" t="s">
         <v>38</v>
       </c>
@@ -15422,9 +15466,9 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:20" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="161"/>
-      <c r="B16" s="157"/>
+    <row r="16" spans="1:20" ht="57" customHeight="1" thickBot="1">
+      <c r="A16" s="137"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="55" t="s">
         <v>39</v>
       </c>
@@ -15460,9 +15504,9 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="1:20" ht="84" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="161"/>
-      <c r="B17" s="158" t="s">
+    <row r="17" spans="1:20" ht="84" customHeight="1">
+      <c r="A17" s="137"/>
+      <c r="B17" s="134" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -15500,9 +15544,9 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="1:20" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="162"/>
-      <c r="B18" s="159"/>
+    <row r="18" spans="1:20" ht="139.5" customHeight="1" thickBot="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="55" t="s">
         <v>45</v>
       </c>
@@ -15538,11 +15582,11 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="137" t="s">
+    <row r="19" spans="1:20" ht="87" customHeight="1">
+      <c r="A19" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="110" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -15580,9 +15624,9 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="1:20" ht="120" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="138"/>
-      <c r="B20" s="135"/>
+    <row r="20" spans="1:20" ht="120" customHeight="1">
+      <c r="A20" s="114"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="94" t="s">
         <v>6</v>
       </c>
@@ -15618,9 +15662,9 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="1:20" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="139"/>
-      <c r="B21" s="136"/>
+    <row r="21" spans="1:20" ht="60" customHeight="1" thickBot="1">
+      <c r="A21" s="115"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="59" t="s">
         <v>50</v>
       </c>
@@ -15656,11 +15700,11 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="164" t="s">
+    <row r="22" spans="1:20" ht="72" customHeight="1">
+      <c r="A22" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="139" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="98" t="s">
@@ -15686,9 +15730,9 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="165"/>
-      <c r="B23" s="163"/>
+    <row r="23" spans="1:20" ht="50.25" customHeight="1">
+      <c r="A23" s="143"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="99" t="s">
         <v>96</v>
       </c>
@@ -15712,9 +15756,9 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="165"/>
-      <c r="B24" s="163"/>
+    <row r="24" spans="1:20" ht="50.25" customHeight="1">
+      <c r="A24" s="143"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="99"/>
       <c r="D24" s="101"/>
       <c r="E24" s="13"/>
@@ -15734,9 +15778,9 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="165"/>
-      <c r="B25" s="163"/>
+    <row r="25" spans="1:20" ht="50.25" customHeight="1">
+      <c r="A25" s="143"/>
+      <c r="B25" s="140"/>
       <c r="C25" s="99"/>
       <c r="D25" s="101"/>
       <c r="E25" s="13"/>
@@ -15756,9 +15800,9 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="165"/>
-      <c r="B26" s="163"/>
+    <row r="26" spans="1:20" ht="50.25" customHeight="1">
+      <c r="A26" s="143"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="99"/>
       <c r="D26" s="101"/>
       <c r="E26" s="13"/>
@@ -15778,9 +15822,9 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="166"/>
-      <c r="B27" s="131"/>
+    <row r="27" spans="1:20" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A27" s="144"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="55"/>
       <c r="D27" s="102"/>
       <c r="E27" s="13"/>
@@ -15800,11 +15844,11 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="140" t="s">
+    <row r="28" spans="1:20" ht="38.25" customHeight="1">
+      <c r="A28" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="54" t="s">
@@ -15842,9 +15886,9 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="141"/>
-      <c r="B29" s="135"/>
+    <row r="29" spans="1:20" ht="38.25" customHeight="1">
+      <c r="A29" s="117"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="94" t="s">
         <v>54</v>
       </c>
@@ -15878,9 +15922,9 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="141"/>
-      <c r="B30" s="135"/>
+    <row r="30" spans="1:20" ht="38.25" customHeight="1">
+      <c r="A30" s="117"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="94" t="s">
         <v>55</v>
       </c>
@@ -15914,9 +15958,9 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="141"/>
-      <c r="B31" s="135"/>
+    <row r="31" spans="1:20" ht="53.25" customHeight="1">
+      <c r="A31" s="117"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="94" t="s">
         <v>56</v>
       </c>
@@ -15952,9 +15996,9 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="142"/>
-      <c r="B32" s="136"/>
+    <row r="32" spans="1:20" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A32" s="118"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="94" t="s">
         <v>57</v>
       </c>
@@ -15990,7 +16034,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" ht="27" customHeight="1">
       <c r="B33" s="62"/>
       <c r="C33" s="47"/>
       <c r="D33" s="63"/>
@@ -16011,7 +16055,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20" ht="27" customHeight="1">
       <c r="B34" s="60"/>
       <c r="C34" s="46"/>
       <c r="D34" s="61"/>
@@ -16032,7 +16076,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20" ht="27" customHeight="1">
       <c r="B35" s="60"/>
       <c r="C35" s="46"/>
       <c r="D35" s="61"/>
@@ -16053,7 +16097,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" ht="27" customHeight="1">
       <c r="B36" s="60"/>
       <c r="C36" s="46"/>
       <c r="D36" s="61"/>
@@ -16074,7 +16118,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" ht="27" customHeight="1">
       <c r="B37" s="60"/>
       <c r="C37" s="46"/>
       <c r="D37" s="61"/>
@@ -16095,7 +16139,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20" ht="27" customHeight="1">
       <c r="B38" s="60"/>
       <c r="C38" s="46"/>
       <c r="D38" s="61"/>
@@ -16116,7 +16160,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
     </row>
-    <row r="39" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:20" ht="27" customHeight="1">
       <c r="B39" s="60"/>
       <c r="C39" s="46"/>
       <c r="D39" s="61"/>
@@ -16137,7 +16181,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
     </row>
-    <row r="40" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:20" ht="27" customHeight="1">
       <c r="B40" s="60"/>
       <c r="C40" s="46"/>
       <c r="D40" s="61"/>
@@ -16158,7 +16202,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
     </row>
-    <row r="41" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:20" ht="27" customHeight="1">
       <c r="B41" s="60"/>
       <c r="C41" s="46"/>
       <c r="D41" s="61"/>
@@ -16179,7 +16223,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
     </row>
-    <row r="42" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:20" ht="27" customHeight="1">
       <c r="B42" s="60"/>
       <c r="C42" s="46"/>
       <c r="D42" s="61"/>
@@ -16200,7 +16244,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
     </row>
-    <row r="43" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:20" ht="27" customHeight="1">
       <c r="B43" s="60"/>
       <c r="C43" s="46"/>
       <c r="D43" s="61"/>
@@ -16221,7 +16265,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
     </row>
-    <row r="44" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:20" ht="27" customHeight="1">
       <c r="B44" s="60"/>
       <c r="C44" s="46"/>
       <c r="D44" s="61"/>
@@ -16242,7 +16286,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
     </row>
-    <row r="45" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:20" ht="27" customHeight="1">
       <c r="B45" s="60"/>
       <c r="C45" s="46"/>
       <c r="D45" s="61"/>
@@ -16263,7 +16307,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:20" ht="27" customHeight="1">
       <c r="B46" s="12"/>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
@@ -16284,7 +16328,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
     </row>
-    <row r="47" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:20" ht="27" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="61"/>
       <c r="D47" s="61"/>
@@ -16305,7 +16349,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="18"/>
     </row>
-    <row r="48" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:20" ht="27" customHeight="1">
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
       <c r="D48" s="61"/>
@@ -16326,7 +16370,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="18"/>
     </row>
-    <row r="49" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:20" ht="27" customHeight="1">
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -16347,7 +16391,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="18"/>
     </row>
-    <row r="50" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:20" ht="27" customHeight="1">
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -16368,7 +16412,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="18"/>
     </row>
-    <row r="51" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:20" ht="27" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -16389,7 +16433,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="18"/>
     </row>
-    <row r="52" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:20" ht="27" customHeight="1">
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -16410,7 +16454,7 @@
       <c r="S52" s="18"/>
       <c r="T52" s="18"/>
     </row>
-    <row r="53" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:20" ht="27" customHeight="1">
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -16431,7 +16475,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
     </row>
-    <row r="54" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:20" ht="27" customHeight="1">
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -16452,7 +16496,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="18"/>
     </row>
-    <row r="55" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:20" ht="27" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -16473,7 +16517,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="18"/>
     </row>
-    <row r="56" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:20" ht="27" customHeight="1">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -16494,7 +16538,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
     </row>
-    <row r="57" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:20" ht="27" customHeight="1">
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -16515,7 +16559,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="18"/>
     </row>
-    <row r="58" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:20" ht="27" customHeight="1">
       <c r="B58" s="12">
         <f>ROW()-ROW(№列)</f>
         <v>49</v>
@@ -16539,7 +16583,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="18"/>
     </row>
-    <row r="59" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:20" ht="27" customHeight="1">
       <c r="B59" s="19">
         <f>ROW()-ROW(№列)</f>
         <v>50</v>
@@ -16570,6 +16614,21 @@
     </sortState>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A28:A32"/>
@@ -16581,21 +16640,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K5:L8 K10:L11">
@@ -16753,597 +16797,597 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="10" ySplit="9" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane xSplit="10" ySplit="9" topLeftCell="K40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="4" customWidth="1"/>
     <col min="3" max="3" width="37" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="72" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="26" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="27" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="83" customWidth="1"/>
-    <col min="11" max="20" width="15.5" style="28" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="72" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="83" customWidth="1"/>
+    <col min="11" max="20" width="15.44140625" style="28" customWidth="1"/>
     <col min="21" max="254" width="9" style="4"/>
-    <col min="255" max="255" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="256" max="258" width="2.5" style="4" customWidth="1"/>
-    <col min="259" max="260" width="23.125" style="4" customWidth="1"/>
-    <col min="261" max="262" width="7.125" style="4" customWidth="1"/>
-    <col min="263" max="264" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="7.5" style="4" customWidth="1"/>
-    <col min="267" max="268" width="3.5" style="4" customWidth="1"/>
+    <col min="255" max="255" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="256" max="258" width="2.44140625" style="4" customWidth="1"/>
+    <col min="259" max="260" width="23.109375" style="4" customWidth="1"/>
+    <col min="261" max="262" width="7.109375" style="4" customWidth="1"/>
+    <col min="263" max="264" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="7.44140625" style="4" customWidth="1"/>
+    <col min="267" max="268" width="3.44140625" style="4" customWidth="1"/>
     <col min="269" max="510" width="9" style="4"/>
-    <col min="511" max="511" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="512" max="514" width="2.5" style="4" customWidth="1"/>
-    <col min="515" max="516" width="23.125" style="4" customWidth="1"/>
-    <col min="517" max="518" width="7.125" style="4" customWidth="1"/>
-    <col min="519" max="520" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="7.5" style="4" customWidth="1"/>
-    <col min="523" max="524" width="3.5" style="4" customWidth="1"/>
+    <col min="511" max="511" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="512" max="514" width="2.44140625" style="4" customWidth="1"/>
+    <col min="515" max="516" width="23.109375" style="4" customWidth="1"/>
+    <col min="517" max="518" width="7.109375" style="4" customWidth="1"/>
+    <col min="519" max="520" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="7.44140625" style="4" customWidth="1"/>
+    <col min="523" max="524" width="3.44140625" style="4" customWidth="1"/>
     <col min="525" max="766" width="9" style="4"/>
-    <col min="767" max="767" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="768" max="770" width="2.5" style="4" customWidth="1"/>
-    <col min="771" max="772" width="23.125" style="4" customWidth="1"/>
-    <col min="773" max="774" width="7.125" style="4" customWidth="1"/>
-    <col min="775" max="776" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="7.5" style="4" customWidth="1"/>
-    <col min="779" max="780" width="3.5" style="4" customWidth="1"/>
+    <col min="767" max="767" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="768" max="770" width="2.44140625" style="4" customWidth="1"/>
+    <col min="771" max="772" width="23.109375" style="4" customWidth="1"/>
+    <col min="773" max="774" width="7.109375" style="4" customWidth="1"/>
+    <col min="775" max="776" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="7.44140625" style="4" customWidth="1"/>
+    <col min="779" max="780" width="3.44140625" style="4" customWidth="1"/>
     <col min="781" max="1022" width="9" style="4"/>
-    <col min="1023" max="1023" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1026" width="2.5" style="4" customWidth="1"/>
-    <col min="1027" max="1028" width="23.125" style="4" customWidth="1"/>
-    <col min="1029" max="1030" width="7.125" style="4" customWidth="1"/>
-    <col min="1031" max="1032" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="7.5" style="4" customWidth="1"/>
-    <col min="1035" max="1036" width="3.5" style="4" customWidth="1"/>
+    <col min="1023" max="1023" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1026" width="2.44140625" style="4" customWidth="1"/>
+    <col min="1027" max="1028" width="23.109375" style="4" customWidth="1"/>
+    <col min="1029" max="1030" width="7.109375" style="4" customWidth="1"/>
+    <col min="1031" max="1032" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="7.44140625" style="4" customWidth="1"/>
+    <col min="1035" max="1036" width="3.44140625" style="4" customWidth="1"/>
     <col min="1037" max="1278" width="9" style="4"/>
-    <col min="1279" max="1279" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1282" width="2.5" style="4" customWidth="1"/>
-    <col min="1283" max="1284" width="23.125" style="4" customWidth="1"/>
-    <col min="1285" max="1286" width="7.125" style="4" customWidth="1"/>
-    <col min="1287" max="1288" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="7.5" style="4" customWidth="1"/>
-    <col min="1291" max="1292" width="3.5" style="4" customWidth="1"/>
+    <col min="1279" max="1279" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1282" width="2.44140625" style="4" customWidth="1"/>
+    <col min="1283" max="1284" width="23.109375" style="4" customWidth="1"/>
+    <col min="1285" max="1286" width="7.109375" style="4" customWidth="1"/>
+    <col min="1287" max="1288" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="7.44140625" style="4" customWidth="1"/>
+    <col min="1291" max="1292" width="3.44140625" style="4" customWidth="1"/>
     <col min="1293" max="1534" width="9" style="4"/>
-    <col min="1535" max="1535" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1538" width="2.5" style="4" customWidth="1"/>
-    <col min="1539" max="1540" width="23.125" style="4" customWidth="1"/>
-    <col min="1541" max="1542" width="7.125" style="4" customWidth="1"/>
-    <col min="1543" max="1544" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="7.5" style="4" customWidth="1"/>
-    <col min="1547" max="1548" width="3.5" style="4" customWidth="1"/>
+    <col min="1535" max="1535" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1538" width="2.44140625" style="4" customWidth="1"/>
+    <col min="1539" max="1540" width="23.109375" style="4" customWidth="1"/>
+    <col min="1541" max="1542" width="7.109375" style="4" customWidth="1"/>
+    <col min="1543" max="1544" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="7.44140625" style="4" customWidth="1"/>
+    <col min="1547" max="1548" width="3.44140625" style="4" customWidth="1"/>
     <col min="1549" max="1790" width="9" style="4"/>
-    <col min="1791" max="1791" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1794" width="2.5" style="4" customWidth="1"/>
-    <col min="1795" max="1796" width="23.125" style="4" customWidth="1"/>
-    <col min="1797" max="1798" width="7.125" style="4" customWidth="1"/>
-    <col min="1799" max="1800" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="7.5" style="4" customWidth="1"/>
-    <col min="1803" max="1804" width="3.5" style="4" customWidth="1"/>
+    <col min="1791" max="1791" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1794" width="2.44140625" style="4" customWidth="1"/>
+    <col min="1795" max="1796" width="23.109375" style="4" customWidth="1"/>
+    <col min="1797" max="1798" width="7.109375" style="4" customWidth="1"/>
+    <col min="1799" max="1800" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="7.44140625" style="4" customWidth="1"/>
+    <col min="1803" max="1804" width="3.44140625" style="4" customWidth="1"/>
     <col min="1805" max="2046" width="9" style="4"/>
-    <col min="2047" max="2047" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2050" width="2.5" style="4" customWidth="1"/>
-    <col min="2051" max="2052" width="23.125" style="4" customWidth="1"/>
-    <col min="2053" max="2054" width="7.125" style="4" customWidth="1"/>
-    <col min="2055" max="2056" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="7.5" style="4" customWidth="1"/>
-    <col min="2059" max="2060" width="3.5" style="4" customWidth="1"/>
+    <col min="2047" max="2047" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2050" width="2.44140625" style="4" customWidth="1"/>
+    <col min="2051" max="2052" width="23.109375" style="4" customWidth="1"/>
+    <col min="2053" max="2054" width="7.109375" style="4" customWidth="1"/>
+    <col min="2055" max="2056" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="7.44140625" style="4" customWidth="1"/>
+    <col min="2059" max="2060" width="3.44140625" style="4" customWidth="1"/>
     <col min="2061" max="2302" width="9" style="4"/>
-    <col min="2303" max="2303" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2306" width="2.5" style="4" customWidth="1"/>
-    <col min="2307" max="2308" width="23.125" style="4" customWidth="1"/>
-    <col min="2309" max="2310" width="7.125" style="4" customWidth="1"/>
-    <col min="2311" max="2312" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="7.5" style="4" customWidth="1"/>
-    <col min="2315" max="2316" width="3.5" style="4" customWidth="1"/>
+    <col min="2303" max="2303" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2306" width="2.44140625" style="4" customWidth="1"/>
+    <col min="2307" max="2308" width="23.109375" style="4" customWidth="1"/>
+    <col min="2309" max="2310" width="7.109375" style="4" customWidth="1"/>
+    <col min="2311" max="2312" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="7.44140625" style="4" customWidth="1"/>
+    <col min="2315" max="2316" width="3.44140625" style="4" customWidth="1"/>
     <col min="2317" max="2558" width="9" style="4"/>
-    <col min="2559" max="2559" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2562" width="2.5" style="4" customWidth="1"/>
-    <col min="2563" max="2564" width="23.125" style="4" customWidth="1"/>
-    <col min="2565" max="2566" width="7.125" style="4" customWidth="1"/>
-    <col min="2567" max="2568" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="7.5" style="4" customWidth="1"/>
-    <col min="2571" max="2572" width="3.5" style="4" customWidth="1"/>
+    <col min="2559" max="2559" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2562" width="2.44140625" style="4" customWidth="1"/>
+    <col min="2563" max="2564" width="23.109375" style="4" customWidth="1"/>
+    <col min="2565" max="2566" width="7.109375" style="4" customWidth="1"/>
+    <col min="2567" max="2568" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="7.44140625" style="4" customWidth="1"/>
+    <col min="2571" max="2572" width="3.44140625" style="4" customWidth="1"/>
     <col min="2573" max="2814" width="9" style="4"/>
-    <col min="2815" max="2815" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2818" width="2.5" style="4" customWidth="1"/>
-    <col min="2819" max="2820" width="23.125" style="4" customWidth="1"/>
-    <col min="2821" max="2822" width="7.125" style="4" customWidth="1"/>
-    <col min="2823" max="2824" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="7.5" style="4" customWidth="1"/>
-    <col min="2827" max="2828" width="3.5" style="4" customWidth="1"/>
+    <col min="2815" max="2815" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2818" width="2.44140625" style="4" customWidth="1"/>
+    <col min="2819" max="2820" width="23.109375" style="4" customWidth="1"/>
+    <col min="2821" max="2822" width="7.109375" style="4" customWidth="1"/>
+    <col min="2823" max="2824" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="7.44140625" style="4" customWidth="1"/>
+    <col min="2827" max="2828" width="3.44140625" style="4" customWidth="1"/>
     <col min="2829" max="3070" width="9" style="4"/>
-    <col min="3071" max="3071" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3074" width="2.5" style="4" customWidth="1"/>
-    <col min="3075" max="3076" width="23.125" style="4" customWidth="1"/>
-    <col min="3077" max="3078" width="7.125" style="4" customWidth="1"/>
-    <col min="3079" max="3080" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="7.5" style="4" customWidth="1"/>
-    <col min="3083" max="3084" width="3.5" style="4" customWidth="1"/>
+    <col min="3071" max="3071" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3074" width="2.44140625" style="4" customWidth="1"/>
+    <col min="3075" max="3076" width="23.109375" style="4" customWidth="1"/>
+    <col min="3077" max="3078" width="7.109375" style="4" customWidth="1"/>
+    <col min="3079" max="3080" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="7.44140625" style="4" customWidth="1"/>
+    <col min="3083" max="3084" width="3.44140625" style="4" customWidth="1"/>
     <col min="3085" max="3326" width="9" style="4"/>
-    <col min="3327" max="3327" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3330" width="2.5" style="4" customWidth="1"/>
-    <col min="3331" max="3332" width="23.125" style="4" customWidth="1"/>
-    <col min="3333" max="3334" width="7.125" style="4" customWidth="1"/>
-    <col min="3335" max="3336" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="7.5" style="4" customWidth="1"/>
-    <col min="3339" max="3340" width="3.5" style="4" customWidth="1"/>
+    <col min="3327" max="3327" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3330" width="2.44140625" style="4" customWidth="1"/>
+    <col min="3331" max="3332" width="23.109375" style="4" customWidth="1"/>
+    <col min="3333" max="3334" width="7.109375" style="4" customWidth="1"/>
+    <col min="3335" max="3336" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="7.44140625" style="4" customWidth="1"/>
+    <col min="3339" max="3340" width="3.44140625" style="4" customWidth="1"/>
     <col min="3341" max="3582" width="9" style="4"/>
-    <col min="3583" max="3583" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3586" width="2.5" style="4" customWidth="1"/>
-    <col min="3587" max="3588" width="23.125" style="4" customWidth="1"/>
-    <col min="3589" max="3590" width="7.125" style="4" customWidth="1"/>
-    <col min="3591" max="3592" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="7.5" style="4" customWidth="1"/>
-    <col min="3595" max="3596" width="3.5" style="4" customWidth="1"/>
+    <col min="3583" max="3583" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3586" width="2.44140625" style="4" customWidth="1"/>
+    <col min="3587" max="3588" width="23.109375" style="4" customWidth="1"/>
+    <col min="3589" max="3590" width="7.109375" style="4" customWidth="1"/>
+    <col min="3591" max="3592" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="7.44140625" style="4" customWidth="1"/>
+    <col min="3595" max="3596" width="3.44140625" style="4" customWidth="1"/>
     <col min="3597" max="3838" width="9" style="4"/>
-    <col min="3839" max="3839" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3842" width="2.5" style="4" customWidth="1"/>
-    <col min="3843" max="3844" width="23.125" style="4" customWidth="1"/>
-    <col min="3845" max="3846" width="7.125" style="4" customWidth="1"/>
-    <col min="3847" max="3848" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="7.5" style="4" customWidth="1"/>
-    <col min="3851" max="3852" width="3.5" style="4" customWidth="1"/>
+    <col min="3839" max="3839" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3842" width="2.44140625" style="4" customWidth="1"/>
+    <col min="3843" max="3844" width="23.109375" style="4" customWidth="1"/>
+    <col min="3845" max="3846" width="7.109375" style="4" customWidth="1"/>
+    <col min="3847" max="3848" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="7.44140625" style="4" customWidth="1"/>
+    <col min="3851" max="3852" width="3.44140625" style="4" customWidth="1"/>
     <col min="3853" max="4094" width="9" style="4"/>
-    <col min="4095" max="4095" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4098" width="2.5" style="4" customWidth="1"/>
-    <col min="4099" max="4100" width="23.125" style="4" customWidth="1"/>
-    <col min="4101" max="4102" width="7.125" style="4" customWidth="1"/>
-    <col min="4103" max="4104" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="7.5" style="4" customWidth="1"/>
-    <col min="4107" max="4108" width="3.5" style="4" customWidth="1"/>
+    <col min="4095" max="4095" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4098" width="2.44140625" style="4" customWidth="1"/>
+    <col min="4099" max="4100" width="23.109375" style="4" customWidth="1"/>
+    <col min="4101" max="4102" width="7.109375" style="4" customWidth="1"/>
+    <col min="4103" max="4104" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="7.44140625" style="4" customWidth="1"/>
+    <col min="4107" max="4108" width="3.44140625" style="4" customWidth="1"/>
     <col min="4109" max="4350" width="9" style="4"/>
-    <col min="4351" max="4351" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4354" width="2.5" style="4" customWidth="1"/>
-    <col min="4355" max="4356" width="23.125" style="4" customWidth="1"/>
-    <col min="4357" max="4358" width="7.125" style="4" customWidth="1"/>
-    <col min="4359" max="4360" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="7.5" style="4" customWidth="1"/>
-    <col min="4363" max="4364" width="3.5" style="4" customWidth="1"/>
+    <col min="4351" max="4351" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4354" width="2.44140625" style="4" customWidth="1"/>
+    <col min="4355" max="4356" width="23.109375" style="4" customWidth="1"/>
+    <col min="4357" max="4358" width="7.109375" style="4" customWidth="1"/>
+    <col min="4359" max="4360" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="7.44140625" style="4" customWidth="1"/>
+    <col min="4363" max="4364" width="3.44140625" style="4" customWidth="1"/>
     <col min="4365" max="4606" width="9" style="4"/>
-    <col min="4607" max="4607" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4610" width="2.5" style="4" customWidth="1"/>
-    <col min="4611" max="4612" width="23.125" style="4" customWidth="1"/>
-    <col min="4613" max="4614" width="7.125" style="4" customWidth="1"/>
-    <col min="4615" max="4616" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="7.5" style="4" customWidth="1"/>
-    <col min="4619" max="4620" width="3.5" style="4" customWidth="1"/>
+    <col min="4607" max="4607" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4610" width="2.44140625" style="4" customWidth="1"/>
+    <col min="4611" max="4612" width="23.109375" style="4" customWidth="1"/>
+    <col min="4613" max="4614" width="7.109375" style="4" customWidth="1"/>
+    <col min="4615" max="4616" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="7.44140625" style="4" customWidth="1"/>
+    <col min="4619" max="4620" width="3.44140625" style="4" customWidth="1"/>
     <col min="4621" max="4862" width="9" style="4"/>
-    <col min="4863" max="4863" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4866" width="2.5" style="4" customWidth="1"/>
-    <col min="4867" max="4868" width="23.125" style="4" customWidth="1"/>
-    <col min="4869" max="4870" width="7.125" style="4" customWidth="1"/>
-    <col min="4871" max="4872" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="7.5" style="4" customWidth="1"/>
-    <col min="4875" max="4876" width="3.5" style="4" customWidth="1"/>
+    <col min="4863" max="4863" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4866" width="2.44140625" style="4" customWidth="1"/>
+    <col min="4867" max="4868" width="23.109375" style="4" customWidth="1"/>
+    <col min="4869" max="4870" width="7.109375" style="4" customWidth="1"/>
+    <col min="4871" max="4872" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="7.44140625" style="4" customWidth="1"/>
+    <col min="4875" max="4876" width="3.44140625" style="4" customWidth="1"/>
     <col min="4877" max="5118" width="9" style="4"/>
-    <col min="5119" max="5119" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5122" width="2.5" style="4" customWidth="1"/>
-    <col min="5123" max="5124" width="23.125" style="4" customWidth="1"/>
-    <col min="5125" max="5126" width="7.125" style="4" customWidth="1"/>
-    <col min="5127" max="5128" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="7.5" style="4" customWidth="1"/>
-    <col min="5131" max="5132" width="3.5" style="4" customWidth="1"/>
+    <col min="5119" max="5119" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5122" width="2.44140625" style="4" customWidth="1"/>
+    <col min="5123" max="5124" width="23.109375" style="4" customWidth="1"/>
+    <col min="5125" max="5126" width="7.109375" style="4" customWidth="1"/>
+    <col min="5127" max="5128" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="7.44140625" style="4" customWidth="1"/>
+    <col min="5131" max="5132" width="3.44140625" style="4" customWidth="1"/>
     <col min="5133" max="5374" width="9" style="4"/>
-    <col min="5375" max="5375" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5378" width="2.5" style="4" customWidth="1"/>
-    <col min="5379" max="5380" width="23.125" style="4" customWidth="1"/>
-    <col min="5381" max="5382" width="7.125" style="4" customWidth="1"/>
-    <col min="5383" max="5384" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="7.5" style="4" customWidth="1"/>
-    <col min="5387" max="5388" width="3.5" style="4" customWidth="1"/>
+    <col min="5375" max="5375" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5378" width="2.44140625" style="4" customWidth="1"/>
+    <col min="5379" max="5380" width="23.109375" style="4" customWidth="1"/>
+    <col min="5381" max="5382" width="7.109375" style="4" customWidth="1"/>
+    <col min="5383" max="5384" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="7.44140625" style="4" customWidth="1"/>
+    <col min="5387" max="5388" width="3.44140625" style="4" customWidth="1"/>
     <col min="5389" max="5630" width="9" style="4"/>
-    <col min="5631" max="5631" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5634" width="2.5" style="4" customWidth="1"/>
-    <col min="5635" max="5636" width="23.125" style="4" customWidth="1"/>
-    <col min="5637" max="5638" width="7.125" style="4" customWidth="1"/>
-    <col min="5639" max="5640" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="7.5" style="4" customWidth="1"/>
-    <col min="5643" max="5644" width="3.5" style="4" customWidth="1"/>
+    <col min="5631" max="5631" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5634" width="2.44140625" style="4" customWidth="1"/>
+    <col min="5635" max="5636" width="23.109375" style="4" customWidth="1"/>
+    <col min="5637" max="5638" width="7.109375" style="4" customWidth="1"/>
+    <col min="5639" max="5640" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="7.44140625" style="4" customWidth="1"/>
+    <col min="5643" max="5644" width="3.44140625" style="4" customWidth="1"/>
     <col min="5645" max="5886" width="9" style="4"/>
-    <col min="5887" max="5887" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5890" width="2.5" style="4" customWidth="1"/>
-    <col min="5891" max="5892" width="23.125" style="4" customWidth="1"/>
-    <col min="5893" max="5894" width="7.125" style="4" customWidth="1"/>
-    <col min="5895" max="5896" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="7.5" style="4" customWidth="1"/>
-    <col min="5899" max="5900" width="3.5" style="4" customWidth="1"/>
+    <col min="5887" max="5887" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5890" width="2.44140625" style="4" customWidth="1"/>
+    <col min="5891" max="5892" width="23.109375" style="4" customWidth="1"/>
+    <col min="5893" max="5894" width="7.109375" style="4" customWidth="1"/>
+    <col min="5895" max="5896" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="7.44140625" style="4" customWidth="1"/>
+    <col min="5899" max="5900" width="3.44140625" style="4" customWidth="1"/>
     <col min="5901" max="6142" width="9" style="4"/>
-    <col min="6143" max="6143" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6146" width="2.5" style="4" customWidth="1"/>
-    <col min="6147" max="6148" width="23.125" style="4" customWidth="1"/>
-    <col min="6149" max="6150" width="7.125" style="4" customWidth="1"/>
-    <col min="6151" max="6152" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="7.5" style="4" customWidth="1"/>
-    <col min="6155" max="6156" width="3.5" style="4" customWidth="1"/>
+    <col min="6143" max="6143" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6146" width="2.44140625" style="4" customWidth="1"/>
+    <col min="6147" max="6148" width="23.109375" style="4" customWidth="1"/>
+    <col min="6149" max="6150" width="7.109375" style="4" customWidth="1"/>
+    <col min="6151" max="6152" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="7.44140625" style="4" customWidth="1"/>
+    <col min="6155" max="6156" width="3.44140625" style="4" customWidth="1"/>
     <col min="6157" max="6398" width="9" style="4"/>
-    <col min="6399" max="6399" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6402" width="2.5" style="4" customWidth="1"/>
-    <col min="6403" max="6404" width="23.125" style="4" customWidth="1"/>
-    <col min="6405" max="6406" width="7.125" style="4" customWidth="1"/>
-    <col min="6407" max="6408" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="7.5" style="4" customWidth="1"/>
-    <col min="6411" max="6412" width="3.5" style="4" customWidth="1"/>
+    <col min="6399" max="6399" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6402" width="2.44140625" style="4" customWidth="1"/>
+    <col min="6403" max="6404" width="23.109375" style="4" customWidth="1"/>
+    <col min="6405" max="6406" width="7.109375" style="4" customWidth="1"/>
+    <col min="6407" max="6408" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="7.44140625" style="4" customWidth="1"/>
+    <col min="6411" max="6412" width="3.44140625" style="4" customWidth="1"/>
     <col min="6413" max="6654" width="9" style="4"/>
-    <col min="6655" max="6655" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6658" width="2.5" style="4" customWidth="1"/>
-    <col min="6659" max="6660" width="23.125" style="4" customWidth="1"/>
-    <col min="6661" max="6662" width="7.125" style="4" customWidth="1"/>
-    <col min="6663" max="6664" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="7.5" style="4" customWidth="1"/>
-    <col min="6667" max="6668" width="3.5" style="4" customWidth="1"/>
+    <col min="6655" max="6655" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6658" width="2.44140625" style="4" customWidth="1"/>
+    <col min="6659" max="6660" width="23.109375" style="4" customWidth="1"/>
+    <col min="6661" max="6662" width="7.109375" style="4" customWidth="1"/>
+    <col min="6663" max="6664" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="7.44140625" style="4" customWidth="1"/>
+    <col min="6667" max="6668" width="3.44140625" style="4" customWidth="1"/>
     <col min="6669" max="6910" width="9" style="4"/>
-    <col min="6911" max="6911" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6914" width="2.5" style="4" customWidth="1"/>
-    <col min="6915" max="6916" width="23.125" style="4" customWidth="1"/>
-    <col min="6917" max="6918" width="7.125" style="4" customWidth="1"/>
-    <col min="6919" max="6920" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="7.5" style="4" customWidth="1"/>
-    <col min="6923" max="6924" width="3.5" style="4" customWidth="1"/>
+    <col min="6911" max="6911" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6914" width="2.44140625" style="4" customWidth="1"/>
+    <col min="6915" max="6916" width="23.109375" style="4" customWidth="1"/>
+    <col min="6917" max="6918" width="7.109375" style="4" customWidth="1"/>
+    <col min="6919" max="6920" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="7.44140625" style="4" customWidth="1"/>
+    <col min="6923" max="6924" width="3.44140625" style="4" customWidth="1"/>
     <col min="6925" max="7166" width="9" style="4"/>
-    <col min="7167" max="7167" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7170" width="2.5" style="4" customWidth="1"/>
-    <col min="7171" max="7172" width="23.125" style="4" customWidth="1"/>
-    <col min="7173" max="7174" width="7.125" style="4" customWidth="1"/>
-    <col min="7175" max="7176" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="7.5" style="4" customWidth="1"/>
-    <col min="7179" max="7180" width="3.5" style="4" customWidth="1"/>
+    <col min="7167" max="7167" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7170" width="2.44140625" style="4" customWidth="1"/>
+    <col min="7171" max="7172" width="23.109375" style="4" customWidth="1"/>
+    <col min="7173" max="7174" width="7.109375" style="4" customWidth="1"/>
+    <col min="7175" max="7176" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="7.44140625" style="4" customWidth="1"/>
+    <col min="7179" max="7180" width="3.44140625" style="4" customWidth="1"/>
     <col min="7181" max="7422" width="9" style="4"/>
-    <col min="7423" max="7423" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7426" width="2.5" style="4" customWidth="1"/>
-    <col min="7427" max="7428" width="23.125" style="4" customWidth="1"/>
-    <col min="7429" max="7430" width="7.125" style="4" customWidth="1"/>
-    <col min="7431" max="7432" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="7.5" style="4" customWidth="1"/>
-    <col min="7435" max="7436" width="3.5" style="4" customWidth="1"/>
+    <col min="7423" max="7423" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7426" width="2.44140625" style="4" customWidth="1"/>
+    <col min="7427" max="7428" width="23.109375" style="4" customWidth="1"/>
+    <col min="7429" max="7430" width="7.109375" style="4" customWidth="1"/>
+    <col min="7431" max="7432" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="7.44140625" style="4" customWidth="1"/>
+    <col min="7435" max="7436" width="3.44140625" style="4" customWidth="1"/>
     <col min="7437" max="7678" width="9" style="4"/>
-    <col min="7679" max="7679" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7682" width="2.5" style="4" customWidth="1"/>
-    <col min="7683" max="7684" width="23.125" style="4" customWidth="1"/>
-    <col min="7685" max="7686" width="7.125" style="4" customWidth="1"/>
-    <col min="7687" max="7688" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="7.5" style="4" customWidth="1"/>
-    <col min="7691" max="7692" width="3.5" style="4" customWidth="1"/>
+    <col min="7679" max="7679" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7682" width="2.44140625" style="4" customWidth="1"/>
+    <col min="7683" max="7684" width="23.109375" style="4" customWidth="1"/>
+    <col min="7685" max="7686" width="7.109375" style="4" customWidth="1"/>
+    <col min="7687" max="7688" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="7.44140625" style="4" customWidth="1"/>
+    <col min="7691" max="7692" width="3.44140625" style="4" customWidth="1"/>
     <col min="7693" max="7934" width="9" style="4"/>
-    <col min="7935" max="7935" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7938" width="2.5" style="4" customWidth="1"/>
-    <col min="7939" max="7940" width="23.125" style="4" customWidth="1"/>
-    <col min="7941" max="7942" width="7.125" style="4" customWidth="1"/>
-    <col min="7943" max="7944" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="7.5" style="4" customWidth="1"/>
-    <col min="7947" max="7948" width="3.5" style="4" customWidth="1"/>
+    <col min="7935" max="7935" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7938" width="2.44140625" style="4" customWidth="1"/>
+    <col min="7939" max="7940" width="23.109375" style="4" customWidth="1"/>
+    <col min="7941" max="7942" width="7.109375" style="4" customWidth="1"/>
+    <col min="7943" max="7944" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="7.44140625" style="4" customWidth="1"/>
+    <col min="7947" max="7948" width="3.44140625" style="4" customWidth="1"/>
     <col min="7949" max="8190" width="9" style="4"/>
-    <col min="8191" max="8191" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8194" width="2.5" style="4" customWidth="1"/>
-    <col min="8195" max="8196" width="23.125" style="4" customWidth="1"/>
-    <col min="8197" max="8198" width="7.125" style="4" customWidth="1"/>
-    <col min="8199" max="8200" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="7.5" style="4" customWidth="1"/>
-    <col min="8203" max="8204" width="3.5" style="4" customWidth="1"/>
+    <col min="8191" max="8191" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8194" width="2.44140625" style="4" customWidth="1"/>
+    <col min="8195" max="8196" width="23.109375" style="4" customWidth="1"/>
+    <col min="8197" max="8198" width="7.109375" style="4" customWidth="1"/>
+    <col min="8199" max="8200" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="7.44140625" style="4" customWidth="1"/>
+    <col min="8203" max="8204" width="3.44140625" style="4" customWidth="1"/>
     <col min="8205" max="8446" width="9" style="4"/>
-    <col min="8447" max="8447" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8450" width="2.5" style="4" customWidth="1"/>
-    <col min="8451" max="8452" width="23.125" style="4" customWidth="1"/>
-    <col min="8453" max="8454" width="7.125" style="4" customWidth="1"/>
-    <col min="8455" max="8456" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="7.5" style="4" customWidth="1"/>
-    <col min="8459" max="8460" width="3.5" style="4" customWidth="1"/>
+    <col min="8447" max="8447" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8450" width="2.44140625" style="4" customWidth="1"/>
+    <col min="8451" max="8452" width="23.109375" style="4" customWidth="1"/>
+    <col min="8453" max="8454" width="7.109375" style="4" customWidth="1"/>
+    <col min="8455" max="8456" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="7.44140625" style="4" customWidth="1"/>
+    <col min="8459" max="8460" width="3.44140625" style="4" customWidth="1"/>
     <col min="8461" max="8702" width="9" style="4"/>
-    <col min="8703" max="8703" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8706" width="2.5" style="4" customWidth="1"/>
-    <col min="8707" max="8708" width="23.125" style="4" customWidth="1"/>
-    <col min="8709" max="8710" width="7.125" style="4" customWidth="1"/>
-    <col min="8711" max="8712" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="7.5" style="4" customWidth="1"/>
-    <col min="8715" max="8716" width="3.5" style="4" customWidth="1"/>
+    <col min="8703" max="8703" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8706" width="2.44140625" style="4" customWidth="1"/>
+    <col min="8707" max="8708" width="23.109375" style="4" customWidth="1"/>
+    <col min="8709" max="8710" width="7.109375" style="4" customWidth="1"/>
+    <col min="8711" max="8712" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="7.44140625" style="4" customWidth="1"/>
+    <col min="8715" max="8716" width="3.44140625" style="4" customWidth="1"/>
     <col min="8717" max="8958" width="9" style="4"/>
-    <col min="8959" max="8959" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8962" width="2.5" style="4" customWidth="1"/>
-    <col min="8963" max="8964" width="23.125" style="4" customWidth="1"/>
-    <col min="8965" max="8966" width="7.125" style="4" customWidth="1"/>
-    <col min="8967" max="8968" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="7.5" style="4" customWidth="1"/>
-    <col min="8971" max="8972" width="3.5" style="4" customWidth="1"/>
+    <col min="8959" max="8959" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8962" width="2.44140625" style="4" customWidth="1"/>
+    <col min="8963" max="8964" width="23.109375" style="4" customWidth="1"/>
+    <col min="8965" max="8966" width="7.109375" style="4" customWidth="1"/>
+    <col min="8967" max="8968" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="7.44140625" style="4" customWidth="1"/>
+    <col min="8971" max="8972" width="3.44140625" style="4" customWidth="1"/>
     <col min="8973" max="9214" width="9" style="4"/>
-    <col min="9215" max="9215" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9218" width="2.5" style="4" customWidth="1"/>
-    <col min="9219" max="9220" width="23.125" style="4" customWidth="1"/>
-    <col min="9221" max="9222" width="7.125" style="4" customWidth="1"/>
-    <col min="9223" max="9224" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="7.5" style="4" customWidth="1"/>
-    <col min="9227" max="9228" width="3.5" style="4" customWidth="1"/>
+    <col min="9215" max="9215" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9218" width="2.44140625" style="4" customWidth="1"/>
+    <col min="9219" max="9220" width="23.109375" style="4" customWidth="1"/>
+    <col min="9221" max="9222" width="7.109375" style="4" customWidth="1"/>
+    <col min="9223" max="9224" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="7.44140625" style="4" customWidth="1"/>
+    <col min="9227" max="9228" width="3.44140625" style="4" customWidth="1"/>
     <col min="9229" max="9470" width="9" style="4"/>
-    <col min="9471" max="9471" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9474" width="2.5" style="4" customWidth="1"/>
-    <col min="9475" max="9476" width="23.125" style="4" customWidth="1"/>
-    <col min="9477" max="9478" width="7.125" style="4" customWidth="1"/>
-    <col min="9479" max="9480" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="7.5" style="4" customWidth="1"/>
-    <col min="9483" max="9484" width="3.5" style="4" customWidth="1"/>
+    <col min="9471" max="9471" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9474" width="2.44140625" style="4" customWidth="1"/>
+    <col min="9475" max="9476" width="23.109375" style="4" customWidth="1"/>
+    <col min="9477" max="9478" width="7.109375" style="4" customWidth="1"/>
+    <col min="9479" max="9480" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="7.44140625" style="4" customWidth="1"/>
+    <col min="9483" max="9484" width="3.44140625" style="4" customWidth="1"/>
     <col min="9485" max="9726" width="9" style="4"/>
-    <col min="9727" max="9727" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9730" width="2.5" style="4" customWidth="1"/>
-    <col min="9731" max="9732" width="23.125" style="4" customWidth="1"/>
-    <col min="9733" max="9734" width="7.125" style="4" customWidth="1"/>
-    <col min="9735" max="9736" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="7.5" style="4" customWidth="1"/>
-    <col min="9739" max="9740" width="3.5" style="4" customWidth="1"/>
+    <col min="9727" max="9727" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9730" width="2.44140625" style="4" customWidth="1"/>
+    <col min="9731" max="9732" width="23.109375" style="4" customWidth="1"/>
+    <col min="9733" max="9734" width="7.109375" style="4" customWidth="1"/>
+    <col min="9735" max="9736" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="7.44140625" style="4" customWidth="1"/>
+    <col min="9739" max="9740" width="3.44140625" style="4" customWidth="1"/>
     <col min="9741" max="9982" width="9" style="4"/>
-    <col min="9983" max="9983" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9986" width="2.5" style="4" customWidth="1"/>
-    <col min="9987" max="9988" width="23.125" style="4" customWidth="1"/>
-    <col min="9989" max="9990" width="7.125" style="4" customWidth="1"/>
-    <col min="9991" max="9992" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="7.5" style="4" customWidth="1"/>
-    <col min="9995" max="9996" width="3.5" style="4" customWidth="1"/>
+    <col min="9983" max="9983" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9986" width="2.44140625" style="4" customWidth="1"/>
+    <col min="9987" max="9988" width="23.109375" style="4" customWidth="1"/>
+    <col min="9989" max="9990" width="7.109375" style="4" customWidth="1"/>
+    <col min="9991" max="9992" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="7.44140625" style="4" customWidth="1"/>
+    <col min="9995" max="9996" width="3.44140625" style="4" customWidth="1"/>
     <col min="9997" max="10238" width="9" style="4"/>
-    <col min="10239" max="10239" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10242" width="2.5" style="4" customWidth="1"/>
-    <col min="10243" max="10244" width="23.125" style="4" customWidth="1"/>
-    <col min="10245" max="10246" width="7.125" style="4" customWidth="1"/>
-    <col min="10247" max="10248" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="7.5" style="4" customWidth="1"/>
-    <col min="10251" max="10252" width="3.5" style="4" customWidth="1"/>
+    <col min="10239" max="10239" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10242" width="2.44140625" style="4" customWidth="1"/>
+    <col min="10243" max="10244" width="23.109375" style="4" customWidth="1"/>
+    <col min="10245" max="10246" width="7.109375" style="4" customWidth="1"/>
+    <col min="10247" max="10248" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="7.44140625" style="4" customWidth="1"/>
+    <col min="10251" max="10252" width="3.44140625" style="4" customWidth="1"/>
     <col min="10253" max="10494" width="9" style="4"/>
-    <col min="10495" max="10495" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10498" width="2.5" style="4" customWidth="1"/>
-    <col min="10499" max="10500" width="23.125" style="4" customWidth="1"/>
-    <col min="10501" max="10502" width="7.125" style="4" customWidth="1"/>
-    <col min="10503" max="10504" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="7.5" style="4" customWidth="1"/>
-    <col min="10507" max="10508" width="3.5" style="4" customWidth="1"/>
+    <col min="10495" max="10495" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10498" width="2.44140625" style="4" customWidth="1"/>
+    <col min="10499" max="10500" width="23.109375" style="4" customWidth="1"/>
+    <col min="10501" max="10502" width="7.109375" style="4" customWidth="1"/>
+    <col min="10503" max="10504" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="7.44140625" style="4" customWidth="1"/>
+    <col min="10507" max="10508" width="3.44140625" style="4" customWidth="1"/>
     <col min="10509" max="10750" width="9" style="4"/>
-    <col min="10751" max="10751" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10754" width="2.5" style="4" customWidth="1"/>
-    <col min="10755" max="10756" width="23.125" style="4" customWidth="1"/>
-    <col min="10757" max="10758" width="7.125" style="4" customWidth="1"/>
-    <col min="10759" max="10760" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="7.5" style="4" customWidth="1"/>
-    <col min="10763" max="10764" width="3.5" style="4" customWidth="1"/>
+    <col min="10751" max="10751" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10754" width="2.44140625" style="4" customWidth="1"/>
+    <col min="10755" max="10756" width="23.109375" style="4" customWidth="1"/>
+    <col min="10757" max="10758" width="7.109375" style="4" customWidth="1"/>
+    <col min="10759" max="10760" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="7.44140625" style="4" customWidth="1"/>
+    <col min="10763" max="10764" width="3.44140625" style="4" customWidth="1"/>
     <col min="10765" max="11006" width="9" style="4"/>
-    <col min="11007" max="11007" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11010" width="2.5" style="4" customWidth="1"/>
-    <col min="11011" max="11012" width="23.125" style="4" customWidth="1"/>
-    <col min="11013" max="11014" width="7.125" style="4" customWidth="1"/>
-    <col min="11015" max="11016" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="7.5" style="4" customWidth="1"/>
-    <col min="11019" max="11020" width="3.5" style="4" customWidth="1"/>
+    <col min="11007" max="11007" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11010" width="2.44140625" style="4" customWidth="1"/>
+    <col min="11011" max="11012" width="23.109375" style="4" customWidth="1"/>
+    <col min="11013" max="11014" width="7.109375" style="4" customWidth="1"/>
+    <col min="11015" max="11016" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="7.44140625" style="4" customWidth="1"/>
+    <col min="11019" max="11020" width="3.44140625" style="4" customWidth="1"/>
     <col min="11021" max="11262" width="9" style="4"/>
-    <col min="11263" max="11263" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11266" width="2.5" style="4" customWidth="1"/>
-    <col min="11267" max="11268" width="23.125" style="4" customWidth="1"/>
-    <col min="11269" max="11270" width="7.125" style="4" customWidth="1"/>
-    <col min="11271" max="11272" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="7.5" style="4" customWidth="1"/>
-    <col min="11275" max="11276" width="3.5" style="4" customWidth="1"/>
+    <col min="11263" max="11263" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11266" width="2.44140625" style="4" customWidth="1"/>
+    <col min="11267" max="11268" width="23.109375" style="4" customWidth="1"/>
+    <col min="11269" max="11270" width="7.109375" style="4" customWidth="1"/>
+    <col min="11271" max="11272" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="7.44140625" style="4" customWidth="1"/>
+    <col min="11275" max="11276" width="3.44140625" style="4" customWidth="1"/>
     <col min="11277" max="11518" width="9" style="4"/>
-    <col min="11519" max="11519" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11522" width="2.5" style="4" customWidth="1"/>
-    <col min="11523" max="11524" width="23.125" style="4" customWidth="1"/>
-    <col min="11525" max="11526" width="7.125" style="4" customWidth="1"/>
-    <col min="11527" max="11528" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="7.5" style="4" customWidth="1"/>
-    <col min="11531" max="11532" width="3.5" style="4" customWidth="1"/>
+    <col min="11519" max="11519" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11522" width="2.44140625" style="4" customWidth="1"/>
+    <col min="11523" max="11524" width="23.109375" style="4" customWidth="1"/>
+    <col min="11525" max="11526" width="7.109375" style="4" customWidth="1"/>
+    <col min="11527" max="11528" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="7.44140625" style="4" customWidth="1"/>
+    <col min="11531" max="11532" width="3.44140625" style="4" customWidth="1"/>
     <col min="11533" max="11774" width="9" style="4"/>
-    <col min="11775" max="11775" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11778" width="2.5" style="4" customWidth="1"/>
-    <col min="11779" max="11780" width="23.125" style="4" customWidth="1"/>
-    <col min="11781" max="11782" width="7.125" style="4" customWidth="1"/>
-    <col min="11783" max="11784" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="7.5" style="4" customWidth="1"/>
-    <col min="11787" max="11788" width="3.5" style="4" customWidth="1"/>
+    <col min="11775" max="11775" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11778" width="2.44140625" style="4" customWidth="1"/>
+    <col min="11779" max="11780" width="23.109375" style="4" customWidth="1"/>
+    <col min="11781" max="11782" width="7.109375" style="4" customWidth="1"/>
+    <col min="11783" max="11784" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="7.44140625" style="4" customWidth="1"/>
+    <col min="11787" max="11788" width="3.44140625" style="4" customWidth="1"/>
     <col min="11789" max="12030" width="9" style="4"/>
-    <col min="12031" max="12031" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12034" width="2.5" style="4" customWidth="1"/>
-    <col min="12035" max="12036" width="23.125" style="4" customWidth="1"/>
-    <col min="12037" max="12038" width="7.125" style="4" customWidth="1"/>
-    <col min="12039" max="12040" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="7.5" style="4" customWidth="1"/>
-    <col min="12043" max="12044" width="3.5" style="4" customWidth="1"/>
+    <col min="12031" max="12031" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12034" width="2.44140625" style="4" customWidth="1"/>
+    <col min="12035" max="12036" width="23.109375" style="4" customWidth="1"/>
+    <col min="12037" max="12038" width="7.109375" style="4" customWidth="1"/>
+    <col min="12039" max="12040" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="7.44140625" style="4" customWidth="1"/>
+    <col min="12043" max="12044" width="3.44140625" style="4" customWidth="1"/>
     <col min="12045" max="12286" width="9" style="4"/>
-    <col min="12287" max="12287" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12290" width="2.5" style="4" customWidth="1"/>
-    <col min="12291" max="12292" width="23.125" style="4" customWidth="1"/>
-    <col min="12293" max="12294" width="7.125" style="4" customWidth="1"/>
-    <col min="12295" max="12296" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="7.5" style="4" customWidth="1"/>
-    <col min="12299" max="12300" width="3.5" style="4" customWidth="1"/>
+    <col min="12287" max="12287" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12290" width="2.44140625" style="4" customWidth="1"/>
+    <col min="12291" max="12292" width="23.109375" style="4" customWidth="1"/>
+    <col min="12293" max="12294" width="7.109375" style="4" customWidth="1"/>
+    <col min="12295" max="12296" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="7.44140625" style="4" customWidth="1"/>
+    <col min="12299" max="12300" width="3.44140625" style="4" customWidth="1"/>
     <col min="12301" max="12542" width="9" style="4"/>
-    <col min="12543" max="12543" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12546" width="2.5" style="4" customWidth="1"/>
-    <col min="12547" max="12548" width="23.125" style="4" customWidth="1"/>
-    <col min="12549" max="12550" width="7.125" style="4" customWidth="1"/>
-    <col min="12551" max="12552" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="7.5" style="4" customWidth="1"/>
-    <col min="12555" max="12556" width="3.5" style="4" customWidth="1"/>
+    <col min="12543" max="12543" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12546" width="2.44140625" style="4" customWidth="1"/>
+    <col min="12547" max="12548" width="23.109375" style="4" customWidth="1"/>
+    <col min="12549" max="12550" width="7.109375" style="4" customWidth="1"/>
+    <col min="12551" max="12552" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="7.44140625" style="4" customWidth="1"/>
+    <col min="12555" max="12556" width="3.44140625" style="4" customWidth="1"/>
     <col min="12557" max="12798" width="9" style="4"/>
-    <col min="12799" max="12799" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12802" width="2.5" style="4" customWidth="1"/>
-    <col min="12803" max="12804" width="23.125" style="4" customWidth="1"/>
-    <col min="12805" max="12806" width="7.125" style="4" customWidth="1"/>
-    <col min="12807" max="12808" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="7.5" style="4" customWidth="1"/>
-    <col min="12811" max="12812" width="3.5" style="4" customWidth="1"/>
+    <col min="12799" max="12799" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12802" width="2.44140625" style="4" customWidth="1"/>
+    <col min="12803" max="12804" width="23.109375" style="4" customWidth="1"/>
+    <col min="12805" max="12806" width="7.109375" style="4" customWidth="1"/>
+    <col min="12807" max="12808" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="7.44140625" style="4" customWidth="1"/>
+    <col min="12811" max="12812" width="3.44140625" style="4" customWidth="1"/>
     <col min="12813" max="13054" width="9" style="4"/>
-    <col min="13055" max="13055" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13058" width="2.5" style="4" customWidth="1"/>
-    <col min="13059" max="13060" width="23.125" style="4" customWidth="1"/>
-    <col min="13061" max="13062" width="7.125" style="4" customWidth="1"/>
-    <col min="13063" max="13064" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="7.5" style="4" customWidth="1"/>
-    <col min="13067" max="13068" width="3.5" style="4" customWidth="1"/>
+    <col min="13055" max="13055" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13058" width="2.44140625" style="4" customWidth="1"/>
+    <col min="13059" max="13060" width="23.109375" style="4" customWidth="1"/>
+    <col min="13061" max="13062" width="7.109375" style="4" customWidth="1"/>
+    <col min="13063" max="13064" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="7.44140625" style="4" customWidth="1"/>
+    <col min="13067" max="13068" width="3.44140625" style="4" customWidth="1"/>
     <col min="13069" max="13310" width="9" style="4"/>
-    <col min="13311" max="13311" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13314" width="2.5" style="4" customWidth="1"/>
-    <col min="13315" max="13316" width="23.125" style="4" customWidth="1"/>
-    <col min="13317" max="13318" width="7.125" style="4" customWidth="1"/>
-    <col min="13319" max="13320" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="7.5" style="4" customWidth="1"/>
-    <col min="13323" max="13324" width="3.5" style="4" customWidth="1"/>
+    <col min="13311" max="13311" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13314" width="2.44140625" style="4" customWidth="1"/>
+    <col min="13315" max="13316" width="23.109375" style="4" customWidth="1"/>
+    <col min="13317" max="13318" width="7.109375" style="4" customWidth="1"/>
+    <col min="13319" max="13320" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="7.44140625" style="4" customWidth="1"/>
+    <col min="13323" max="13324" width="3.44140625" style="4" customWidth="1"/>
     <col min="13325" max="13566" width="9" style="4"/>
-    <col min="13567" max="13567" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13570" width="2.5" style="4" customWidth="1"/>
-    <col min="13571" max="13572" width="23.125" style="4" customWidth="1"/>
-    <col min="13573" max="13574" width="7.125" style="4" customWidth="1"/>
-    <col min="13575" max="13576" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="7.5" style="4" customWidth="1"/>
-    <col min="13579" max="13580" width="3.5" style="4" customWidth="1"/>
+    <col min="13567" max="13567" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13570" width="2.44140625" style="4" customWidth="1"/>
+    <col min="13571" max="13572" width="23.109375" style="4" customWidth="1"/>
+    <col min="13573" max="13574" width="7.109375" style="4" customWidth="1"/>
+    <col min="13575" max="13576" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="7.44140625" style="4" customWidth="1"/>
+    <col min="13579" max="13580" width="3.44140625" style="4" customWidth="1"/>
     <col min="13581" max="13822" width="9" style="4"/>
-    <col min="13823" max="13823" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13826" width="2.5" style="4" customWidth="1"/>
-    <col min="13827" max="13828" width="23.125" style="4" customWidth="1"/>
-    <col min="13829" max="13830" width="7.125" style="4" customWidth="1"/>
-    <col min="13831" max="13832" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="7.5" style="4" customWidth="1"/>
-    <col min="13835" max="13836" width="3.5" style="4" customWidth="1"/>
+    <col min="13823" max="13823" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13826" width="2.44140625" style="4" customWidth="1"/>
+    <col min="13827" max="13828" width="23.109375" style="4" customWidth="1"/>
+    <col min="13829" max="13830" width="7.109375" style="4" customWidth="1"/>
+    <col min="13831" max="13832" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="7.44140625" style="4" customWidth="1"/>
+    <col min="13835" max="13836" width="3.44140625" style="4" customWidth="1"/>
     <col min="13837" max="14078" width="9" style="4"/>
-    <col min="14079" max="14079" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14082" width="2.5" style="4" customWidth="1"/>
-    <col min="14083" max="14084" width="23.125" style="4" customWidth="1"/>
-    <col min="14085" max="14086" width="7.125" style="4" customWidth="1"/>
-    <col min="14087" max="14088" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="7.5" style="4" customWidth="1"/>
-    <col min="14091" max="14092" width="3.5" style="4" customWidth="1"/>
+    <col min="14079" max="14079" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14082" width="2.44140625" style="4" customWidth="1"/>
+    <col min="14083" max="14084" width="23.109375" style="4" customWidth="1"/>
+    <col min="14085" max="14086" width="7.109375" style="4" customWidth="1"/>
+    <col min="14087" max="14088" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="7.44140625" style="4" customWidth="1"/>
+    <col min="14091" max="14092" width="3.44140625" style="4" customWidth="1"/>
     <col min="14093" max="14334" width="9" style="4"/>
-    <col min="14335" max="14335" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14338" width="2.5" style="4" customWidth="1"/>
-    <col min="14339" max="14340" width="23.125" style="4" customWidth="1"/>
-    <col min="14341" max="14342" width="7.125" style="4" customWidth="1"/>
-    <col min="14343" max="14344" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="7.5" style="4" customWidth="1"/>
-    <col min="14347" max="14348" width="3.5" style="4" customWidth="1"/>
+    <col min="14335" max="14335" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14338" width="2.44140625" style="4" customWidth="1"/>
+    <col min="14339" max="14340" width="23.109375" style="4" customWidth="1"/>
+    <col min="14341" max="14342" width="7.109375" style="4" customWidth="1"/>
+    <col min="14343" max="14344" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="7.44140625" style="4" customWidth="1"/>
+    <col min="14347" max="14348" width="3.44140625" style="4" customWidth="1"/>
     <col min="14349" max="14590" width="9" style="4"/>
-    <col min="14591" max="14591" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14594" width="2.5" style="4" customWidth="1"/>
-    <col min="14595" max="14596" width="23.125" style="4" customWidth="1"/>
-    <col min="14597" max="14598" width="7.125" style="4" customWidth="1"/>
-    <col min="14599" max="14600" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="7.5" style="4" customWidth="1"/>
-    <col min="14603" max="14604" width="3.5" style="4" customWidth="1"/>
+    <col min="14591" max="14591" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14594" width="2.44140625" style="4" customWidth="1"/>
+    <col min="14595" max="14596" width="23.109375" style="4" customWidth="1"/>
+    <col min="14597" max="14598" width="7.109375" style="4" customWidth="1"/>
+    <col min="14599" max="14600" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="7.44140625" style="4" customWidth="1"/>
+    <col min="14603" max="14604" width="3.44140625" style="4" customWidth="1"/>
     <col min="14605" max="14846" width="9" style="4"/>
-    <col min="14847" max="14847" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14850" width="2.5" style="4" customWidth="1"/>
-    <col min="14851" max="14852" width="23.125" style="4" customWidth="1"/>
-    <col min="14853" max="14854" width="7.125" style="4" customWidth="1"/>
-    <col min="14855" max="14856" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="7.5" style="4" customWidth="1"/>
-    <col min="14859" max="14860" width="3.5" style="4" customWidth="1"/>
+    <col min="14847" max="14847" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14850" width="2.44140625" style="4" customWidth="1"/>
+    <col min="14851" max="14852" width="23.109375" style="4" customWidth="1"/>
+    <col min="14853" max="14854" width="7.109375" style="4" customWidth="1"/>
+    <col min="14855" max="14856" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="7.44140625" style="4" customWidth="1"/>
+    <col min="14859" max="14860" width="3.44140625" style="4" customWidth="1"/>
     <col min="14861" max="15102" width="9" style="4"/>
-    <col min="15103" max="15103" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15106" width="2.5" style="4" customWidth="1"/>
-    <col min="15107" max="15108" width="23.125" style="4" customWidth="1"/>
-    <col min="15109" max="15110" width="7.125" style="4" customWidth="1"/>
-    <col min="15111" max="15112" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="7.5" style="4" customWidth="1"/>
-    <col min="15115" max="15116" width="3.5" style="4" customWidth="1"/>
+    <col min="15103" max="15103" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15106" width="2.44140625" style="4" customWidth="1"/>
+    <col min="15107" max="15108" width="23.109375" style="4" customWidth="1"/>
+    <col min="15109" max="15110" width="7.109375" style="4" customWidth="1"/>
+    <col min="15111" max="15112" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="7.44140625" style="4" customWidth="1"/>
+    <col min="15115" max="15116" width="3.44140625" style="4" customWidth="1"/>
     <col min="15117" max="15358" width="9" style="4"/>
-    <col min="15359" max="15359" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15362" width="2.5" style="4" customWidth="1"/>
-    <col min="15363" max="15364" width="23.125" style="4" customWidth="1"/>
-    <col min="15365" max="15366" width="7.125" style="4" customWidth="1"/>
-    <col min="15367" max="15368" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="7.5" style="4" customWidth="1"/>
-    <col min="15371" max="15372" width="3.5" style="4" customWidth="1"/>
+    <col min="15359" max="15359" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15362" width="2.44140625" style="4" customWidth="1"/>
+    <col min="15363" max="15364" width="23.109375" style="4" customWidth="1"/>
+    <col min="15365" max="15366" width="7.109375" style="4" customWidth="1"/>
+    <col min="15367" max="15368" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="7.44140625" style="4" customWidth="1"/>
+    <col min="15371" max="15372" width="3.44140625" style="4" customWidth="1"/>
     <col min="15373" max="15614" width="9" style="4"/>
-    <col min="15615" max="15615" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15618" width="2.5" style="4" customWidth="1"/>
-    <col min="15619" max="15620" width="23.125" style="4" customWidth="1"/>
-    <col min="15621" max="15622" width="7.125" style="4" customWidth="1"/>
-    <col min="15623" max="15624" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="7.5" style="4" customWidth="1"/>
-    <col min="15627" max="15628" width="3.5" style="4" customWidth="1"/>
+    <col min="15615" max="15615" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15618" width="2.44140625" style="4" customWidth="1"/>
+    <col min="15619" max="15620" width="23.109375" style="4" customWidth="1"/>
+    <col min="15621" max="15622" width="7.109375" style="4" customWidth="1"/>
+    <col min="15623" max="15624" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="7.44140625" style="4" customWidth="1"/>
+    <col min="15627" max="15628" width="3.44140625" style="4" customWidth="1"/>
     <col min="15629" max="15870" width="9" style="4"/>
-    <col min="15871" max="15871" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15874" width="2.5" style="4" customWidth="1"/>
-    <col min="15875" max="15876" width="23.125" style="4" customWidth="1"/>
-    <col min="15877" max="15878" width="7.125" style="4" customWidth="1"/>
-    <col min="15879" max="15880" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="7.5" style="4" customWidth="1"/>
-    <col min="15883" max="15884" width="3.5" style="4" customWidth="1"/>
+    <col min="15871" max="15871" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15874" width="2.44140625" style="4" customWidth="1"/>
+    <col min="15875" max="15876" width="23.109375" style="4" customWidth="1"/>
+    <col min="15877" max="15878" width="7.109375" style="4" customWidth="1"/>
+    <col min="15879" max="15880" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="7.44140625" style="4" customWidth="1"/>
+    <col min="15883" max="15884" width="3.44140625" style="4" customWidth="1"/>
     <col min="15885" max="16126" width="9" style="4"/>
-    <col min="16127" max="16127" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16130" width="2.5" style="4" customWidth="1"/>
-    <col min="16131" max="16132" width="23.125" style="4" customWidth="1"/>
-    <col min="16133" max="16134" width="7.125" style="4" customWidth="1"/>
-    <col min="16135" max="16136" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="7.5" style="4" customWidth="1"/>
-    <col min="16139" max="16140" width="3.5" style="4" customWidth="1"/>
+    <col min="16127" max="16127" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16130" width="2.44140625" style="4" customWidth="1"/>
+    <col min="16131" max="16132" width="23.109375" style="4" customWidth="1"/>
+    <col min="16133" max="16134" width="7.109375" style="4" customWidth="1"/>
+    <col min="16135" max="16136" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="7.44140625" style="4" customWidth="1"/>
+    <col min="16139" max="16140" width="3.44140625" style="4" customWidth="1"/>
     <col min="16141" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -17352,11 +17396,11 @@
       <c r="G1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="110">
+      <c r="H1" s="154">
         <v>43153</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
       <c r="K1" s="3">
         <f>IF(K3&lt;&gt;DATE(YEAR(K3),MONTH(K3)+1,1)-1,MONTH(K3),"")</f>
         <v>2</v>
@@ -17398,7 +17442,7 @@
         <v>月</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" ht="13.8" thickBot="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -17409,11 +17453,11 @@
       <c r="G2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="112">
+      <c r="H2" s="156">
         <v>43153.392569444448</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -17429,35 +17473,35 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="126" t="s">
+    <row r="3" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A3" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="118" t="s">
+      <c r="G3" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="166" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="41">
@@ -17500,17 +17544,17 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="127"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="122"/>
+    <row r="4" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="149"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="166"/>
       <c r="K4" s="44">
         <f>K3</f>
         <v>43152</v>
@@ -17552,13 +17596,13 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="146" t="s">
+    <row r="5" spans="1:20" ht="39" customHeight="1">
+      <c r="B5" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="143" t="s">
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="119" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="7"/>
@@ -17568,7 +17612,7 @@
       <c r="J5" s="75"/>
       <c r="K5" s="10"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="123" t="s">
+      <c r="M5" s="145" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="11"/>
@@ -17579,11 +17623,11 @@
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="149"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="144"/>
+    <row r="6" spans="1:20" ht="39" customHeight="1">
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="120"/>
       <c r="F6" s="14"/>
       <c r="G6" s="67"/>
       <c r="H6" s="15"/>
@@ -17591,7 +17635,7 @@
       <c r="J6" s="76"/>
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="124"/>
+      <c r="M6" s="146"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
@@ -17600,11 +17644,11 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="149"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="144"/>
+    <row r="7" spans="1:20" ht="39" customHeight="1">
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="14"/>
       <c r="G7" s="67"/>
       <c r="H7" s="15"/>
@@ -17612,7 +17656,7 @@
       <c r="J7" s="76"/>
       <c r="K7" s="17"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="124"/>
+      <c r="M7" s="146"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
@@ -17621,11 +17665,11 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="152"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="145"/>
+    <row r="8" spans="1:20" ht="39" customHeight="1">
+      <c r="B8" s="128"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="35"/>
       <c r="G8" s="69"/>
       <c r="H8" s="36"/>
@@ -17633,7 +17677,7 @@
       <c r="J8" s="77"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="125"/>
+      <c r="M8" s="147"/>
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -17642,7 +17686,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -17663,17 +17707,17 @@
       <c r="S9" s="34"/>
       <c r="T9" s="40"/>
     </row>
-    <row r="10" spans="1:20" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="173" t="s">
+    <row r="10" spans="1:20" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A10" s="169" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="169"/>
+      <c r="D10" s="177"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="73">
@@ -17701,15 +17745,15 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="174"/>
-      <c r="B11" s="155" t="s">
+    <row r="11" spans="1:20" ht="50.25" customHeight="1">
+      <c r="A11" s="170"/>
+      <c r="B11" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="168"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="74">
@@ -17737,13 +17781,13 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="174"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="170" t="s">
+    <row r="12" spans="1:20" ht="50.25" customHeight="1">
+      <c r="A12" s="170"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="168"/>
+      <c r="D12" s="176"/>
       <c r="E12" s="13"/>
       <c r="F12" s="14"/>
       <c r="G12" s="74">
@@ -17771,13 +17815,13 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="1:20" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="174"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="170" t="s">
+    <row r="13" spans="1:20" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A13" s="170"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="168"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
       <c r="G13" s="74">
@@ -17805,15 +17849,15 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="1:20" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="174"/>
+    <row r="14" spans="1:20" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A14" s="170"/>
       <c r="B14" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="167" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="172"/>
+      <c r="D14" s="168"/>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
       <c r="G14" s="74">
@@ -17841,8 +17885,8 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="174"/>
+    <row r="15" spans="1:20" ht="50.25" customHeight="1">
+      <c r="A15" s="170"/>
       <c r="B15" s="86"/>
       <c r="C15" s="1"/>
       <c r="D15" s="87"/>
@@ -17863,8 +17907,8 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="174"/>
+    <row r="16" spans="1:20" ht="50.25" customHeight="1">
+      <c r="A16" s="170"/>
       <c r="B16" s="86"/>
       <c r="C16" s="1"/>
       <c r="D16" s="87"/>
@@ -17891,8 +17935,8 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="174"/>
+    <row r="17" spans="1:20" ht="50.25" customHeight="1">
+      <c r="A17" s="170"/>
       <c r="B17" s="86"/>
       <c r="C17" s="1"/>
       <c r="D17" s="87"/>
@@ -17919,8 +17963,8 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="1:20" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="175"/>
+    <row r="18" spans="1:20" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A18" s="171"/>
       <c r="B18" s="88"/>
       <c r="C18" s="89"/>
       <c r="D18" s="90"/>
@@ -17947,11 +17991,11 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="176" t="s">
+    <row r="19" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A19" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="110" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="91" t="s">
@@ -17989,9 +18033,9 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="177"/>
-      <c r="B20" s="135"/>
+    <row r="20" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A20" s="173"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="92" t="s">
         <v>79</v>
       </c>
@@ -18025,9 +18069,9 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="177"/>
-      <c r="B21" s="136"/>
+    <row r="21" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A21" s="173"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="55" t="s">
         <v>76</v>
       </c>
@@ -18061,9 +18105,9 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="177"/>
-      <c r="B22" s="134" t="s">
+    <row r="22" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A22" s="173"/>
+      <c r="B22" s="110" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="91" t="s">
@@ -18101,9 +18145,9 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="177"/>
-      <c r="B23" s="135"/>
+    <row r="23" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A23" s="173"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="92" t="s">
         <v>79</v>
       </c>
@@ -18137,9 +18181,9 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="177"/>
-      <c r="B24" s="136"/>
+    <row r="24" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A24" s="173"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="55" t="s">
         <v>76</v>
       </c>
@@ -18173,9 +18217,9 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="177"/>
-      <c r="B25" s="134" t="s">
+    <row r="25" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A25" s="173"/>
+      <c r="B25" s="110" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="91" t="s">
@@ -18213,9 +18257,9 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="177"/>
-      <c r="B26" s="135"/>
+    <row r="26" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A26" s="173"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="92" t="s">
         <v>79</v>
       </c>
@@ -18249,9 +18293,9 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="177"/>
-      <c r="B27" s="136"/>
+    <row r="27" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A27" s="173"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="55" t="s">
         <v>76</v>
       </c>
@@ -18285,9 +18329,9 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="177"/>
-      <c r="B28" s="134" t="s">
+    <row r="28" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A28" s="173"/>
+      <c r="B28" s="110" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="91" t="s">
@@ -18325,9 +18369,9 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="177"/>
-      <c r="B29" s="135"/>
+    <row r="29" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A29" s="173"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="92" t="s">
         <v>79</v>
       </c>
@@ -18361,9 +18405,9 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="177"/>
-      <c r="B30" s="136"/>
+    <row r="30" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A30" s="173"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="55" t="s">
         <v>76</v>
       </c>
@@ -18397,9 +18441,9 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="177"/>
-      <c r="B31" s="134" t="s">
+    <row r="31" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A31" s="173"/>
+      <c r="B31" s="110" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="91" t="s">
@@ -18437,9 +18481,9 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="177"/>
-      <c r="B32" s="135"/>
+    <row r="32" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A32" s="173"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="92" t="s">
         <v>79</v>
       </c>
@@ -18473,9 +18517,9 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="177"/>
-      <c r="B33" s="136"/>
+    <row r="33" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A33" s="173"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="55" t="s">
         <v>76</v>
       </c>
@@ -18509,9 +18553,9 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="177"/>
-      <c r="B34" s="134" t="s">
+    <row r="34" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A34" s="173"/>
+      <c r="B34" s="110" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="91" t="s">
@@ -18549,9 +18593,9 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="177"/>
-      <c r="B35" s="135"/>
+    <row r="35" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A35" s="173"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="92" t="s">
         <v>79</v>
       </c>
@@ -18585,9 +18629,9 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="177"/>
-      <c r="B36" s="136"/>
+    <row r="36" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A36" s="173"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="55" t="s">
         <v>76</v>
       </c>
@@ -18621,9 +18665,9 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="177"/>
-      <c r="B37" s="134" t="s">
+    <row r="37" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A37" s="173"/>
+      <c r="B37" s="110" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="91" t="s">
@@ -18661,9 +18705,9 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="177"/>
-      <c r="B38" s="135"/>
+    <row r="38" spans="1:20" ht="56.25" customHeight="1">
+      <c r="A38" s="173"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="92" t="s">
         <v>90</v>
       </c>
@@ -18697,9 +18741,9 @@
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
     </row>
-    <row r="39" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="178"/>
-      <c r="B39" s="136"/>
+    <row r="39" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A39" s="174"/>
+      <c r="B39" s="112"/>
       <c r="C39" s="55" t="s">
         <v>76</v>
       </c>
@@ -18733,11 +18777,11 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
     </row>
-    <row r="40" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="140" t="s">
+    <row r="40" spans="1:20" ht="40.5" customHeight="1">
+      <c r="A40" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="54" t="s">
@@ -18761,9 +18805,9 @@
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
     </row>
-    <row r="41" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="141"/>
-      <c r="B41" s="135"/>
+    <row r="41" spans="1:20" ht="40.5" customHeight="1">
+      <c r="A41" s="117"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="95" t="s">
         <v>54</v>
       </c>
@@ -18785,9 +18829,9 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
     </row>
-    <row r="42" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="141"/>
-      <c r="B42" s="135"/>
+    <row r="42" spans="1:20" ht="40.5" customHeight="1">
+      <c r="A42" s="117"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="95" t="s">
         <v>55</v>
       </c>
@@ -18809,9 +18853,9 @@
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
     </row>
-    <row r="43" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="141"/>
-      <c r="B43" s="135"/>
+    <row r="43" spans="1:20" ht="40.5" customHeight="1">
+      <c r="A43" s="117"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="95" t="s">
         <v>56</v>
       </c>
@@ -18833,9 +18877,9 @@
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
     </row>
-    <row r="44" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="142"/>
-      <c r="B44" s="136"/>
+    <row r="44" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A44" s="118"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="95" t="s">
         <v>57</v>
       </c>
@@ -18857,7 +18901,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
     </row>
-    <row r="45" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="27" customHeight="1">
       <c r="B45" s="60"/>
       <c r="C45" s="46"/>
       <c r="D45" s="61"/>
@@ -18878,7 +18922,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" ht="27" customHeight="1">
       <c r="B46" s="12"/>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
@@ -18899,7 +18943,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
     </row>
-    <row r="47" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" ht="27" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="61"/>
       <c r="D47" s="61"/>
@@ -18920,7 +18964,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="18"/>
     </row>
-    <row r="48" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" ht="27" customHeight="1">
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
       <c r="D48" s="61"/>
@@ -18941,7 +18985,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="18"/>
     </row>
-    <row r="49" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:20" ht="27" customHeight="1">
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -18962,7 +19006,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="18"/>
     </row>
-    <row r="50" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:20" ht="27" customHeight="1">
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -18983,7 +19027,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="18"/>
     </row>
-    <row r="51" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:20" ht="27" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -19004,7 +19048,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="18"/>
     </row>
-    <row r="52" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:20" ht="27" customHeight="1">
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -19025,7 +19069,7 @@
       <c r="S52" s="18"/>
       <c r="T52" s="18"/>
     </row>
-    <row r="53" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:20" ht="27" customHeight="1">
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -19046,7 +19090,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
     </row>
-    <row r="54" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:20" ht="27" customHeight="1">
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -19067,7 +19111,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="18"/>
     </row>
-    <row r="55" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:20" ht="27" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -19088,7 +19132,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="18"/>
     </row>
-    <row r="56" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:20" ht="27" customHeight="1">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -19109,7 +19153,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
     </row>
-    <row r="57" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:20" ht="27" customHeight="1">
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -19130,7 +19174,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="18"/>
     </row>
-    <row r="58" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:20" ht="27" customHeight="1">
       <c r="B58" s="12">
         <f>ROW()-ROW(№列)</f>
         <v>49</v>
@@ -19154,7 +19198,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="18"/>
     </row>
-    <row r="59" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:20" ht="27" customHeight="1">
       <c r="B59" s="19">
         <f>ROW()-ROW(№列)</f>
         <v>50</v>
@@ -19185,6 +19229,23 @@
     </sortState>
   </autoFilter>
   <mergeCells count="32">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="M5:M8"/>
     <mergeCell ref="C14:D14"/>
@@ -19200,23 +19261,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K5:L8 K10:L11 K12:T32 K38:T59">
@@ -19310,14 +19354,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2160327\Desktop\isida\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2160077.MAETEL\Documents\ツリー\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20676" windowHeight="7896" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20670" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="8" r:id="rId1"/>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="d"/>
@@ -987,7 +987,7 @@
     <numFmt numFmtId="180" formatCode="#0.0&quot;日&quot;"/>
     <numFmt numFmtId="181" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2252,6 +2252,78 @@
     <xf numFmtId="9" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2339,13 +2411,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2357,70 +2423,16 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2446,18 +2458,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2898,7 +2898,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DB43EAA-780C-4669-9C3C-1E52E6F399DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3045,7 @@
         <xdr:cNvPr id="20" name="進捗1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB0EE450-A789-4766-8A03-1EE18E76D43C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3119,7 @@
         <xdr:cNvPr id="21" name="進捗実績1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA9402DE-6327-488E-BF79-A606158E3D79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3193,7 @@
         <xdr:cNvPr id="22" name="進捗2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4A23603-563A-4A3A-80DB-2E60C07E3A62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3267,7 @@
         <xdr:cNvPr id="23" name="進捗実績2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EC759EA-9740-43BE-A349-0D37B3AB5C98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3341,7 @@
         <xdr:cNvPr id="24" name="進捗3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1EEEF54B-78F6-4EE8-B170-E1A9C9173C2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3415,7 +3415,7 @@
         <xdr:cNvPr id="25" name="進捗実績3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A66EA63C-3A07-4D47-AA4C-7D905F3F04CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3489,7 +3489,7 @@
         <xdr:cNvPr id="26" name="進捗4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E75794B0-9C6E-460C-BCFE-90F859308554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3563,7 +3563,7 @@
         <xdr:cNvPr id="27" name="進捗実績4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9C56122-0127-4634-86B3-6C436A3BD6FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3637,7 +3637,7 @@
         <xdr:cNvPr id="28" name="進捗7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A6B297D-939F-42DA-99DD-4686EADBBFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3711,7 +3711,7 @@
         <xdr:cNvPr id="29" name="進捗実績7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E99ECEC0-FB04-4E2B-A9EF-00CAB642FC1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3785,7 +3785,7 @@
         <xdr:cNvPr id="30" name="進捗8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D83C21D-C145-4CDA-8815-92642ED5A68C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3859,7 @@
         <xdr:cNvPr id="31" name="進捗実績8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8623CA3-5694-4A75-BA79-003343B7C0CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3933,7 +3933,7 @@
         <xdr:cNvPr id="32" name="進捗9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7166CB4-6CC7-4FE7-9E1B-7FBE3FA27CDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4007,7 +4007,7 @@
         <xdr:cNvPr id="33" name="進捗10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD2764C8-9894-4251-A5DF-13CE1D258B98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4081,7 +4081,7 @@
         <xdr:cNvPr id="34" name="進捗11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47A6CF70-4DCF-433B-BD7B-50B05ACD6809}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4155,7 +4155,7 @@
         <xdr:cNvPr id="35" name="進捗12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E535693D-EF8C-41BF-829B-242476263EF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4229,7 +4229,7 @@
         <xdr:cNvPr id="36" name="進捗19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E3C9E65-A9CF-4E1D-A45B-E52F6AC32B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,7 +4303,7 @@
         <xdr:cNvPr id="37" name="進捗20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F75F3AB9-B82A-47F0-9CD9-2E3016A094F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4377,7 +4377,7 @@
         <xdr:cNvPr id="38" name="進捗21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57EECF84-57F0-42DD-8181-7FDBF364F68F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4451,7 +4451,7 @@
         <xdr:cNvPr id="39" name="進捗22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF77900-A5A7-45F3-BEAB-3CCB9F7DB956}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,7 +4525,7 @@
         <xdr:cNvPr id="40" name="進捗23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A1D26B9-CABC-4255-8897-7B68A212C1CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4599,7 +4599,7 @@
         <xdr:cNvPr id="18" name="イナズマ線0221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3C206B7-2082-4CAC-9E16-A384CC0B2433}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6307,7 +6307,7 @@
         <xdr:cNvPr id="19" name="イナズマ線0222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD96E31F-293A-47F3-836D-91A9E61A9C1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7561,7 +7561,7 @@
         <xdr:cNvPr id="3" name="進捗1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06806C2B-8CD8-4AF4-A4D7-4CE19279E4DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7635,7 +7635,7 @@
         <xdr:cNvPr id="4" name="進捗2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31534CCD-E45C-42B4-B5E9-2A20896E59E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7709,7 +7709,7 @@
         <xdr:cNvPr id="5" name="進捗3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA57F002-7564-4E32-A7C0-9AD2D304AFA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7783,7 +7783,7 @@
         <xdr:cNvPr id="6" name="進捗4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27CA7DB9-9DAE-4295-991C-1512931B724E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7857,7 +7857,7 @@
         <xdr:cNvPr id="7" name="進捗5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAC29A4A-7E47-4458-85AB-1105391F86E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7931,7 +7931,7 @@
         <xdr:cNvPr id="8" name="進捗10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8F64664-0806-463D-A0E5-A8E814307FEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8005,7 +8005,7 @@
         <xdr:cNvPr id="9" name="進捗11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{749C1006-1DBE-42A2-B149-9D42F0A11C82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8079,7 +8079,7 @@
         <xdr:cNvPr id="10" name="進捗12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCE160E4-B229-4822-A233-47C4A77644C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8153,7 +8153,7 @@
         <xdr:cNvPr id="11" name="進捗13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2BB8013-1150-4974-AE63-E00FEFE6B0E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8227,7 +8227,7 @@
         <xdr:cNvPr id="12" name="進捗14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84BC2C30-E6D9-43A6-8FA1-AB50528DA15C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8301,7 +8301,7 @@
         <xdr:cNvPr id="13" name="進捗15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{570C7447-BFC6-4BF0-9514-C76BD496396E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8375,7 +8375,7 @@
         <xdr:cNvPr id="14" name="進捗16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D3F1178-24E3-4070-9D0C-7BED623725AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8449,7 +8449,7 @@
         <xdr:cNvPr id="15" name="進捗17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D53C83F-404C-4491-A4A7-CE439484AE94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8523,7 +8523,7 @@
         <xdr:cNvPr id="16" name="進捗18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5DF9683-2B9A-4C64-9272-C4EEAF42ED82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8597,7 +8597,7 @@
         <xdr:cNvPr id="17" name="進捗19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45C5D3D8-B0D6-4456-B207-86131F380B62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8671,7 +8671,7 @@
         <xdr:cNvPr id="18" name="進捗20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{776D9656-625E-48D6-9E09-BFE715B65A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8745,7 +8745,7 @@
         <xdr:cNvPr id="19" name="進捗21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C23F1184-1600-44A3-A237-72A2F433B721}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8819,7 +8819,7 @@
         <xdr:cNvPr id="20" name="進捗22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB6DEFBC-068D-4B4D-A965-7ACD2FEBD7F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8893,7 +8893,7 @@
         <xdr:cNvPr id="21" name="進捗23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C89388F2-C0F4-4C37-8251-23172B24EFFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8967,7 +8967,7 @@
         <xdr:cNvPr id="22" name="進捗24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13601080-DC86-4218-92EA-03090DDBDAD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9041,7 +9041,7 @@
         <xdr:cNvPr id="23" name="進捗25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78E5E6B5-3C29-440C-B68C-D2A534825C4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9115,7 +9115,7 @@
         <xdr:cNvPr id="24" name="進捗26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B979541-798D-426B-8031-C54D43DC1EB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9189,7 +9189,7 @@
         <xdr:cNvPr id="25" name="進捗27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C4485B1-7434-46BB-94A2-30A9E645D73B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9263,7 +9263,7 @@
         <xdr:cNvPr id="26" name="進捗28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21A318F3-B9CB-4273-8707-A04D9156133A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9337,7 +9337,7 @@
         <xdr:cNvPr id="27" name="進捗29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1FE1384-7073-41FF-A0DE-90F24167B87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9411,7 +9411,7 @@
         <xdr:cNvPr id="28" name="進捗30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{359EB126-4980-49E5-BA39-562FE4A668B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9485,7 +9485,7 @@
         <xdr:cNvPr id="2" name="イナズマ線0222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{511A4EF4-A5DF-4D96-B8FF-5CB76242C2CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12741,7 +12741,7 @@
         <xdr:cNvPr id="2" name="矢印: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45A81AA8-C0BB-4BAB-9B6C-842BFC39E9D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12812,7 +12812,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D328098E-1896-488D-BE10-ED5ED20AE089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12901,7 +12901,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5053558-C59A-4686-9385-995C54E612FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12990,7 +12990,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A04485A-A3E3-4FB9-AC2E-0434D622E1AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13079,7 +13079,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA9AE511-90D4-4946-8582-69E33FA47055}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13168,7 +13168,7 @@
         <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B85717B9-B447-421D-95BA-B8D93ED9BC4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13219,7 +13219,7 @@
         <xdr:cNvPr id="11" name="直線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{550FEE76-3054-4C03-9B64-3014EB7A9E19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13270,7 +13270,7 @@
         <xdr:cNvPr id="13" name="直線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD460AB8-411A-47CE-A6CC-82F5E96309AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13321,7 +13321,7 @@
         <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A3E0F50-476A-464F-B5B7-8F3CE29868AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13372,7 +13372,7 @@
         <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72B4084C-B889-4B50-9B83-6D4A7A17A8FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13463,7 +13463,7 @@
         <xdr:cNvPr id="25" name="正方形/長方形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E68DE904-5F51-4538-9009-BAE91D2F863A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13552,7 +13552,7 @@
         <xdr:cNvPr id="26" name="直線コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{419CB253-846C-4124-9238-C763DD02D51A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13603,7 +13603,7 @@
         <xdr:cNvPr id="29" name="直線コネクタ 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42E84B2C-8584-44C7-9DF0-66718ABFF2E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13658,7 +13658,7 @@
         <xdr:cNvPr id="28" name="正方形/長方形 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{470AD4BA-4FAD-42F1-A5D6-0A51AB52FDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13739,7 +13739,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDD47093-8807-41D9-8A63-ED5C57D4E227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13820,7 +13820,7 @@
         <xdr:cNvPr id="31" name="直線コネクタ 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{821B1412-7054-4942-802D-0BA39710AD43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13875,7 +13875,7 @@
         <xdr:cNvPr id="32" name="矢印: 左右 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8874003-1AF1-4B0C-9980-A453F5A417CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13949,7 +13949,7 @@
         <xdr:cNvPr id="35" name="図 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F8F5F5-66C0-4473-A34F-BF1CACA852B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13983,20 +13983,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>641985</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>35243</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>225743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14015,8 +14021,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="784860" y="2964180"/>
-          <a:ext cx="2019300" cy="1262063"/>
+          <a:off x="11614785" y="2686050"/>
+          <a:ext cx="2247900" cy="1825943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14351,590 +14357,590 @@
       <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30"/>
+  <sheetFormatPr defaultRowHeight="30.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="37" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="72" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="26" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="109" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="83" customWidth="1"/>
-    <col min="11" max="20" width="15.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="45.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="72" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="26" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="109" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="83" customWidth="1"/>
+    <col min="11" max="20" width="15.5" style="28" customWidth="1"/>
     <col min="21" max="254" width="9" style="4"/>
-    <col min="255" max="255" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="256" max="258" width="2.6640625" style="4" customWidth="1"/>
-    <col min="259" max="260" width="23.109375" style="4" customWidth="1"/>
-    <col min="261" max="262" width="7.109375" style="4" customWidth="1"/>
-    <col min="263" max="264" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="7.6640625" style="4" customWidth="1"/>
-    <col min="267" max="268" width="3.33203125" style="4" customWidth="1"/>
+    <col min="255" max="255" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="256" max="258" width="2.625" style="4" customWidth="1"/>
+    <col min="259" max="260" width="23.125" style="4" customWidth="1"/>
+    <col min="261" max="262" width="7.125" style="4" customWidth="1"/>
+    <col min="263" max="264" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="7.625" style="4" customWidth="1"/>
+    <col min="267" max="268" width="3.375" style="4" customWidth="1"/>
     <col min="269" max="510" width="9" style="4"/>
-    <col min="511" max="511" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="512" max="514" width="2.6640625" style="4" customWidth="1"/>
-    <col min="515" max="516" width="23.109375" style="4" customWidth="1"/>
-    <col min="517" max="518" width="7.109375" style="4" customWidth="1"/>
-    <col min="519" max="520" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="7.6640625" style="4" customWidth="1"/>
-    <col min="523" max="524" width="3.33203125" style="4" customWidth="1"/>
+    <col min="511" max="511" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="512" max="514" width="2.625" style="4" customWidth="1"/>
+    <col min="515" max="516" width="23.125" style="4" customWidth="1"/>
+    <col min="517" max="518" width="7.125" style="4" customWidth="1"/>
+    <col min="519" max="520" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="7.625" style="4" customWidth="1"/>
+    <col min="523" max="524" width="3.375" style="4" customWidth="1"/>
     <col min="525" max="766" width="9" style="4"/>
-    <col min="767" max="767" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="768" max="770" width="2.6640625" style="4" customWidth="1"/>
-    <col min="771" max="772" width="23.109375" style="4" customWidth="1"/>
-    <col min="773" max="774" width="7.109375" style="4" customWidth="1"/>
-    <col min="775" max="776" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="7.6640625" style="4" customWidth="1"/>
-    <col min="779" max="780" width="3.33203125" style="4" customWidth="1"/>
+    <col min="767" max="767" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="768" max="770" width="2.625" style="4" customWidth="1"/>
+    <col min="771" max="772" width="23.125" style="4" customWidth="1"/>
+    <col min="773" max="774" width="7.125" style="4" customWidth="1"/>
+    <col min="775" max="776" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="7.625" style="4" customWidth="1"/>
+    <col min="779" max="780" width="3.375" style="4" customWidth="1"/>
     <col min="781" max="1022" width="9" style="4"/>
-    <col min="1023" max="1023" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1026" width="2.6640625" style="4" customWidth="1"/>
-    <col min="1027" max="1028" width="23.109375" style="4" customWidth="1"/>
-    <col min="1029" max="1030" width="7.109375" style="4" customWidth="1"/>
-    <col min="1031" max="1032" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="7.6640625" style="4" customWidth="1"/>
-    <col min="1035" max="1036" width="3.33203125" style="4" customWidth="1"/>
+    <col min="1023" max="1023" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1026" width="2.625" style="4" customWidth="1"/>
+    <col min="1027" max="1028" width="23.125" style="4" customWidth="1"/>
+    <col min="1029" max="1030" width="7.125" style="4" customWidth="1"/>
+    <col min="1031" max="1032" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="7.625" style="4" customWidth="1"/>
+    <col min="1035" max="1036" width="3.375" style="4" customWidth="1"/>
     <col min="1037" max="1278" width="9" style="4"/>
-    <col min="1279" max="1279" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1282" width="2.6640625" style="4" customWidth="1"/>
-    <col min="1283" max="1284" width="23.109375" style="4" customWidth="1"/>
-    <col min="1285" max="1286" width="7.109375" style="4" customWidth="1"/>
-    <col min="1287" max="1288" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="7.6640625" style="4" customWidth="1"/>
-    <col min="1291" max="1292" width="3.33203125" style="4" customWidth="1"/>
+    <col min="1279" max="1279" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1282" width="2.625" style="4" customWidth="1"/>
+    <col min="1283" max="1284" width="23.125" style="4" customWidth="1"/>
+    <col min="1285" max="1286" width="7.125" style="4" customWidth="1"/>
+    <col min="1287" max="1288" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="7.625" style="4" customWidth="1"/>
+    <col min="1291" max="1292" width="3.375" style="4" customWidth="1"/>
     <col min="1293" max="1534" width="9" style="4"/>
-    <col min="1535" max="1535" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1538" width="2.6640625" style="4" customWidth="1"/>
-    <col min="1539" max="1540" width="23.109375" style="4" customWidth="1"/>
-    <col min="1541" max="1542" width="7.109375" style="4" customWidth="1"/>
-    <col min="1543" max="1544" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="7.6640625" style="4" customWidth="1"/>
-    <col min="1547" max="1548" width="3.33203125" style="4" customWidth="1"/>
+    <col min="1535" max="1535" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1538" width="2.625" style="4" customWidth="1"/>
+    <col min="1539" max="1540" width="23.125" style="4" customWidth="1"/>
+    <col min="1541" max="1542" width="7.125" style="4" customWidth="1"/>
+    <col min="1543" max="1544" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="7.625" style="4" customWidth="1"/>
+    <col min="1547" max="1548" width="3.375" style="4" customWidth="1"/>
     <col min="1549" max="1790" width="9" style="4"/>
-    <col min="1791" max="1791" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1794" width="2.6640625" style="4" customWidth="1"/>
-    <col min="1795" max="1796" width="23.109375" style="4" customWidth="1"/>
-    <col min="1797" max="1798" width="7.109375" style="4" customWidth="1"/>
-    <col min="1799" max="1800" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="7.6640625" style="4" customWidth="1"/>
-    <col min="1803" max="1804" width="3.33203125" style="4" customWidth="1"/>
+    <col min="1791" max="1791" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1794" width="2.625" style="4" customWidth="1"/>
+    <col min="1795" max="1796" width="23.125" style="4" customWidth="1"/>
+    <col min="1797" max="1798" width="7.125" style="4" customWidth="1"/>
+    <col min="1799" max="1800" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="7.625" style="4" customWidth="1"/>
+    <col min="1803" max="1804" width="3.375" style="4" customWidth="1"/>
     <col min="1805" max="2046" width="9" style="4"/>
-    <col min="2047" max="2047" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2050" width="2.6640625" style="4" customWidth="1"/>
-    <col min="2051" max="2052" width="23.109375" style="4" customWidth="1"/>
-    <col min="2053" max="2054" width="7.109375" style="4" customWidth="1"/>
-    <col min="2055" max="2056" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="7.6640625" style="4" customWidth="1"/>
-    <col min="2059" max="2060" width="3.33203125" style="4" customWidth="1"/>
+    <col min="2047" max="2047" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2050" width="2.625" style="4" customWidth="1"/>
+    <col min="2051" max="2052" width="23.125" style="4" customWidth="1"/>
+    <col min="2053" max="2054" width="7.125" style="4" customWidth="1"/>
+    <col min="2055" max="2056" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="7.625" style="4" customWidth="1"/>
+    <col min="2059" max="2060" width="3.375" style="4" customWidth="1"/>
     <col min="2061" max="2302" width="9" style="4"/>
-    <col min="2303" max="2303" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2306" width="2.6640625" style="4" customWidth="1"/>
-    <col min="2307" max="2308" width="23.109375" style="4" customWidth="1"/>
-    <col min="2309" max="2310" width="7.109375" style="4" customWidth="1"/>
-    <col min="2311" max="2312" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="7.6640625" style="4" customWidth="1"/>
-    <col min="2315" max="2316" width="3.33203125" style="4" customWidth="1"/>
+    <col min="2303" max="2303" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2306" width="2.625" style="4" customWidth="1"/>
+    <col min="2307" max="2308" width="23.125" style="4" customWidth="1"/>
+    <col min="2309" max="2310" width="7.125" style="4" customWidth="1"/>
+    <col min="2311" max="2312" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="7.625" style="4" customWidth="1"/>
+    <col min="2315" max="2316" width="3.375" style="4" customWidth="1"/>
     <col min="2317" max="2558" width="9" style="4"/>
-    <col min="2559" max="2559" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2562" width="2.6640625" style="4" customWidth="1"/>
-    <col min="2563" max="2564" width="23.109375" style="4" customWidth="1"/>
-    <col min="2565" max="2566" width="7.109375" style="4" customWidth="1"/>
-    <col min="2567" max="2568" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="7.6640625" style="4" customWidth="1"/>
-    <col min="2571" max="2572" width="3.33203125" style="4" customWidth="1"/>
+    <col min="2559" max="2559" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2562" width="2.625" style="4" customWidth="1"/>
+    <col min="2563" max="2564" width="23.125" style="4" customWidth="1"/>
+    <col min="2565" max="2566" width="7.125" style="4" customWidth="1"/>
+    <col min="2567" max="2568" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="7.625" style="4" customWidth="1"/>
+    <col min="2571" max="2572" width="3.375" style="4" customWidth="1"/>
     <col min="2573" max="2814" width="9" style="4"/>
-    <col min="2815" max="2815" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2818" width="2.6640625" style="4" customWidth="1"/>
-    <col min="2819" max="2820" width="23.109375" style="4" customWidth="1"/>
-    <col min="2821" max="2822" width="7.109375" style="4" customWidth="1"/>
-    <col min="2823" max="2824" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="7.6640625" style="4" customWidth="1"/>
-    <col min="2827" max="2828" width="3.33203125" style="4" customWidth="1"/>
+    <col min="2815" max="2815" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2818" width="2.625" style="4" customWidth="1"/>
+    <col min="2819" max="2820" width="23.125" style="4" customWidth="1"/>
+    <col min="2821" max="2822" width="7.125" style="4" customWidth="1"/>
+    <col min="2823" max="2824" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="7.625" style="4" customWidth="1"/>
+    <col min="2827" max="2828" width="3.375" style="4" customWidth="1"/>
     <col min="2829" max="3070" width="9" style="4"/>
-    <col min="3071" max="3071" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3074" width="2.6640625" style="4" customWidth="1"/>
-    <col min="3075" max="3076" width="23.109375" style="4" customWidth="1"/>
-    <col min="3077" max="3078" width="7.109375" style="4" customWidth="1"/>
-    <col min="3079" max="3080" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="7.6640625" style="4" customWidth="1"/>
-    <col min="3083" max="3084" width="3.33203125" style="4" customWidth="1"/>
+    <col min="3071" max="3071" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3074" width="2.625" style="4" customWidth="1"/>
+    <col min="3075" max="3076" width="23.125" style="4" customWidth="1"/>
+    <col min="3077" max="3078" width="7.125" style="4" customWidth="1"/>
+    <col min="3079" max="3080" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="7.625" style="4" customWidth="1"/>
+    <col min="3083" max="3084" width="3.375" style="4" customWidth="1"/>
     <col min="3085" max="3326" width="9" style="4"/>
-    <col min="3327" max="3327" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3330" width="2.6640625" style="4" customWidth="1"/>
-    <col min="3331" max="3332" width="23.109375" style="4" customWidth="1"/>
-    <col min="3333" max="3334" width="7.109375" style="4" customWidth="1"/>
-    <col min="3335" max="3336" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="7.6640625" style="4" customWidth="1"/>
-    <col min="3339" max="3340" width="3.33203125" style="4" customWidth="1"/>
+    <col min="3327" max="3327" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3330" width="2.625" style="4" customWidth="1"/>
+    <col min="3331" max="3332" width="23.125" style="4" customWidth="1"/>
+    <col min="3333" max="3334" width="7.125" style="4" customWidth="1"/>
+    <col min="3335" max="3336" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="7.625" style="4" customWidth="1"/>
+    <col min="3339" max="3340" width="3.375" style="4" customWidth="1"/>
     <col min="3341" max="3582" width="9" style="4"/>
-    <col min="3583" max="3583" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3586" width="2.6640625" style="4" customWidth="1"/>
-    <col min="3587" max="3588" width="23.109375" style="4" customWidth="1"/>
-    <col min="3589" max="3590" width="7.109375" style="4" customWidth="1"/>
-    <col min="3591" max="3592" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="7.6640625" style="4" customWidth="1"/>
-    <col min="3595" max="3596" width="3.33203125" style="4" customWidth="1"/>
+    <col min="3583" max="3583" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3586" width="2.625" style="4" customWidth="1"/>
+    <col min="3587" max="3588" width="23.125" style="4" customWidth="1"/>
+    <col min="3589" max="3590" width="7.125" style="4" customWidth="1"/>
+    <col min="3591" max="3592" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="7.625" style="4" customWidth="1"/>
+    <col min="3595" max="3596" width="3.375" style="4" customWidth="1"/>
     <col min="3597" max="3838" width="9" style="4"/>
-    <col min="3839" max="3839" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3842" width="2.6640625" style="4" customWidth="1"/>
-    <col min="3843" max="3844" width="23.109375" style="4" customWidth="1"/>
-    <col min="3845" max="3846" width="7.109375" style="4" customWidth="1"/>
-    <col min="3847" max="3848" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="7.6640625" style="4" customWidth="1"/>
-    <col min="3851" max="3852" width="3.33203125" style="4" customWidth="1"/>
+    <col min="3839" max="3839" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3842" width="2.625" style="4" customWidth="1"/>
+    <col min="3843" max="3844" width="23.125" style="4" customWidth="1"/>
+    <col min="3845" max="3846" width="7.125" style="4" customWidth="1"/>
+    <col min="3847" max="3848" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="7.625" style="4" customWidth="1"/>
+    <col min="3851" max="3852" width="3.375" style="4" customWidth="1"/>
     <col min="3853" max="4094" width="9" style="4"/>
-    <col min="4095" max="4095" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4098" width="2.6640625" style="4" customWidth="1"/>
-    <col min="4099" max="4100" width="23.109375" style="4" customWidth="1"/>
-    <col min="4101" max="4102" width="7.109375" style="4" customWidth="1"/>
-    <col min="4103" max="4104" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="7.6640625" style="4" customWidth="1"/>
-    <col min="4107" max="4108" width="3.33203125" style="4" customWidth="1"/>
+    <col min="4095" max="4095" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4098" width="2.625" style="4" customWidth="1"/>
+    <col min="4099" max="4100" width="23.125" style="4" customWidth="1"/>
+    <col min="4101" max="4102" width="7.125" style="4" customWidth="1"/>
+    <col min="4103" max="4104" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="7.625" style="4" customWidth="1"/>
+    <col min="4107" max="4108" width="3.375" style="4" customWidth="1"/>
     <col min="4109" max="4350" width="9" style="4"/>
-    <col min="4351" max="4351" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4354" width="2.6640625" style="4" customWidth="1"/>
-    <col min="4355" max="4356" width="23.109375" style="4" customWidth="1"/>
-    <col min="4357" max="4358" width="7.109375" style="4" customWidth="1"/>
-    <col min="4359" max="4360" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="7.6640625" style="4" customWidth="1"/>
-    <col min="4363" max="4364" width="3.33203125" style="4" customWidth="1"/>
+    <col min="4351" max="4351" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4354" width="2.625" style="4" customWidth="1"/>
+    <col min="4355" max="4356" width="23.125" style="4" customWidth="1"/>
+    <col min="4357" max="4358" width="7.125" style="4" customWidth="1"/>
+    <col min="4359" max="4360" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="7.625" style="4" customWidth="1"/>
+    <col min="4363" max="4364" width="3.375" style="4" customWidth="1"/>
     <col min="4365" max="4606" width="9" style="4"/>
-    <col min="4607" max="4607" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4610" width="2.6640625" style="4" customWidth="1"/>
-    <col min="4611" max="4612" width="23.109375" style="4" customWidth="1"/>
-    <col min="4613" max="4614" width="7.109375" style="4" customWidth="1"/>
-    <col min="4615" max="4616" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="7.6640625" style="4" customWidth="1"/>
-    <col min="4619" max="4620" width="3.33203125" style="4" customWidth="1"/>
+    <col min="4607" max="4607" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4610" width="2.625" style="4" customWidth="1"/>
+    <col min="4611" max="4612" width="23.125" style="4" customWidth="1"/>
+    <col min="4613" max="4614" width="7.125" style="4" customWidth="1"/>
+    <col min="4615" max="4616" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="7.625" style="4" customWidth="1"/>
+    <col min="4619" max="4620" width="3.375" style="4" customWidth="1"/>
     <col min="4621" max="4862" width="9" style="4"/>
-    <col min="4863" max="4863" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4866" width="2.6640625" style="4" customWidth="1"/>
-    <col min="4867" max="4868" width="23.109375" style="4" customWidth="1"/>
-    <col min="4869" max="4870" width="7.109375" style="4" customWidth="1"/>
-    <col min="4871" max="4872" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="7.6640625" style="4" customWidth="1"/>
-    <col min="4875" max="4876" width="3.33203125" style="4" customWidth="1"/>
+    <col min="4863" max="4863" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4866" width="2.625" style="4" customWidth="1"/>
+    <col min="4867" max="4868" width="23.125" style="4" customWidth="1"/>
+    <col min="4869" max="4870" width="7.125" style="4" customWidth="1"/>
+    <col min="4871" max="4872" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="7.625" style="4" customWidth="1"/>
+    <col min="4875" max="4876" width="3.375" style="4" customWidth="1"/>
     <col min="4877" max="5118" width="9" style="4"/>
-    <col min="5119" max="5119" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5122" width="2.6640625" style="4" customWidth="1"/>
-    <col min="5123" max="5124" width="23.109375" style="4" customWidth="1"/>
-    <col min="5125" max="5126" width="7.109375" style="4" customWidth="1"/>
-    <col min="5127" max="5128" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="7.6640625" style="4" customWidth="1"/>
-    <col min="5131" max="5132" width="3.33203125" style="4" customWidth="1"/>
+    <col min="5119" max="5119" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5122" width="2.625" style="4" customWidth="1"/>
+    <col min="5123" max="5124" width="23.125" style="4" customWidth="1"/>
+    <col min="5125" max="5126" width="7.125" style="4" customWidth="1"/>
+    <col min="5127" max="5128" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="7.625" style="4" customWidth="1"/>
+    <col min="5131" max="5132" width="3.375" style="4" customWidth="1"/>
     <col min="5133" max="5374" width="9" style="4"/>
-    <col min="5375" max="5375" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5378" width="2.6640625" style="4" customWidth="1"/>
-    <col min="5379" max="5380" width="23.109375" style="4" customWidth="1"/>
-    <col min="5381" max="5382" width="7.109375" style="4" customWidth="1"/>
-    <col min="5383" max="5384" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="7.6640625" style="4" customWidth="1"/>
-    <col min="5387" max="5388" width="3.33203125" style="4" customWidth="1"/>
+    <col min="5375" max="5375" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5378" width="2.625" style="4" customWidth="1"/>
+    <col min="5379" max="5380" width="23.125" style="4" customWidth="1"/>
+    <col min="5381" max="5382" width="7.125" style="4" customWidth="1"/>
+    <col min="5383" max="5384" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="7.625" style="4" customWidth="1"/>
+    <col min="5387" max="5388" width="3.375" style="4" customWidth="1"/>
     <col min="5389" max="5630" width="9" style="4"/>
-    <col min="5631" max="5631" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5634" width="2.6640625" style="4" customWidth="1"/>
-    <col min="5635" max="5636" width="23.109375" style="4" customWidth="1"/>
-    <col min="5637" max="5638" width="7.109375" style="4" customWidth="1"/>
-    <col min="5639" max="5640" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="7.6640625" style="4" customWidth="1"/>
-    <col min="5643" max="5644" width="3.33203125" style="4" customWidth="1"/>
+    <col min="5631" max="5631" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5634" width="2.625" style="4" customWidth="1"/>
+    <col min="5635" max="5636" width="23.125" style="4" customWidth="1"/>
+    <col min="5637" max="5638" width="7.125" style="4" customWidth="1"/>
+    <col min="5639" max="5640" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="7.625" style="4" customWidth="1"/>
+    <col min="5643" max="5644" width="3.375" style="4" customWidth="1"/>
     <col min="5645" max="5886" width="9" style="4"/>
-    <col min="5887" max="5887" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5890" width="2.6640625" style="4" customWidth="1"/>
-    <col min="5891" max="5892" width="23.109375" style="4" customWidth="1"/>
-    <col min="5893" max="5894" width="7.109375" style="4" customWidth="1"/>
-    <col min="5895" max="5896" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="7.6640625" style="4" customWidth="1"/>
-    <col min="5899" max="5900" width="3.33203125" style="4" customWidth="1"/>
+    <col min="5887" max="5887" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5890" width="2.625" style="4" customWidth="1"/>
+    <col min="5891" max="5892" width="23.125" style="4" customWidth="1"/>
+    <col min="5893" max="5894" width="7.125" style="4" customWidth="1"/>
+    <col min="5895" max="5896" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="7.625" style="4" customWidth="1"/>
+    <col min="5899" max="5900" width="3.375" style="4" customWidth="1"/>
     <col min="5901" max="6142" width="9" style="4"/>
-    <col min="6143" max="6143" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6146" width="2.6640625" style="4" customWidth="1"/>
-    <col min="6147" max="6148" width="23.109375" style="4" customWidth="1"/>
-    <col min="6149" max="6150" width="7.109375" style="4" customWidth="1"/>
-    <col min="6151" max="6152" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="7.6640625" style="4" customWidth="1"/>
-    <col min="6155" max="6156" width="3.33203125" style="4" customWidth="1"/>
+    <col min="6143" max="6143" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6146" width="2.625" style="4" customWidth="1"/>
+    <col min="6147" max="6148" width="23.125" style="4" customWidth="1"/>
+    <col min="6149" max="6150" width="7.125" style="4" customWidth="1"/>
+    <col min="6151" max="6152" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="7.625" style="4" customWidth="1"/>
+    <col min="6155" max="6156" width="3.375" style="4" customWidth="1"/>
     <col min="6157" max="6398" width="9" style="4"/>
-    <col min="6399" max="6399" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6402" width="2.6640625" style="4" customWidth="1"/>
-    <col min="6403" max="6404" width="23.109375" style="4" customWidth="1"/>
-    <col min="6405" max="6406" width="7.109375" style="4" customWidth="1"/>
-    <col min="6407" max="6408" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="7.6640625" style="4" customWidth="1"/>
-    <col min="6411" max="6412" width="3.33203125" style="4" customWidth="1"/>
+    <col min="6399" max="6399" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6402" width="2.625" style="4" customWidth="1"/>
+    <col min="6403" max="6404" width="23.125" style="4" customWidth="1"/>
+    <col min="6405" max="6406" width="7.125" style="4" customWidth="1"/>
+    <col min="6407" max="6408" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="7.625" style="4" customWidth="1"/>
+    <col min="6411" max="6412" width="3.375" style="4" customWidth="1"/>
     <col min="6413" max="6654" width="9" style="4"/>
-    <col min="6655" max="6655" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6658" width="2.6640625" style="4" customWidth="1"/>
-    <col min="6659" max="6660" width="23.109375" style="4" customWidth="1"/>
-    <col min="6661" max="6662" width="7.109375" style="4" customWidth="1"/>
-    <col min="6663" max="6664" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="7.6640625" style="4" customWidth="1"/>
-    <col min="6667" max="6668" width="3.33203125" style="4" customWidth="1"/>
+    <col min="6655" max="6655" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6658" width="2.625" style="4" customWidth="1"/>
+    <col min="6659" max="6660" width="23.125" style="4" customWidth="1"/>
+    <col min="6661" max="6662" width="7.125" style="4" customWidth="1"/>
+    <col min="6663" max="6664" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="7.625" style="4" customWidth="1"/>
+    <col min="6667" max="6668" width="3.375" style="4" customWidth="1"/>
     <col min="6669" max="6910" width="9" style="4"/>
-    <col min="6911" max="6911" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6914" width="2.6640625" style="4" customWidth="1"/>
-    <col min="6915" max="6916" width="23.109375" style="4" customWidth="1"/>
-    <col min="6917" max="6918" width="7.109375" style="4" customWidth="1"/>
-    <col min="6919" max="6920" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="7.6640625" style="4" customWidth="1"/>
-    <col min="6923" max="6924" width="3.33203125" style="4" customWidth="1"/>
+    <col min="6911" max="6911" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6914" width="2.625" style="4" customWidth="1"/>
+    <col min="6915" max="6916" width="23.125" style="4" customWidth="1"/>
+    <col min="6917" max="6918" width="7.125" style="4" customWidth="1"/>
+    <col min="6919" max="6920" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="7.625" style="4" customWidth="1"/>
+    <col min="6923" max="6924" width="3.375" style="4" customWidth="1"/>
     <col min="6925" max="7166" width="9" style="4"/>
-    <col min="7167" max="7167" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7170" width="2.6640625" style="4" customWidth="1"/>
-    <col min="7171" max="7172" width="23.109375" style="4" customWidth="1"/>
-    <col min="7173" max="7174" width="7.109375" style="4" customWidth="1"/>
-    <col min="7175" max="7176" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="7.6640625" style="4" customWidth="1"/>
-    <col min="7179" max="7180" width="3.33203125" style="4" customWidth="1"/>
+    <col min="7167" max="7167" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7170" width="2.625" style="4" customWidth="1"/>
+    <col min="7171" max="7172" width="23.125" style="4" customWidth="1"/>
+    <col min="7173" max="7174" width="7.125" style="4" customWidth="1"/>
+    <col min="7175" max="7176" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="7.625" style="4" customWidth="1"/>
+    <col min="7179" max="7180" width="3.375" style="4" customWidth="1"/>
     <col min="7181" max="7422" width="9" style="4"/>
-    <col min="7423" max="7423" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7426" width="2.6640625" style="4" customWidth="1"/>
-    <col min="7427" max="7428" width="23.109375" style="4" customWidth="1"/>
-    <col min="7429" max="7430" width="7.109375" style="4" customWidth="1"/>
-    <col min="7431" max="7432" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="7.6640625" style="4" customWidth="1"/>
-    <col min="7435" max="7436" width="3.33203125" style="4" customWidth="1"/>
+    <col min="7423" max="7423" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7426" width="2.625" style="4" customWidth="1"/>
+    <col min="7427" max="7428" width="23.125" style="4" customWidth="1"/>
+    <col min="7429" max="7430" width="7.125" style="4" customWidth="1"/>
+    <col min="7431" max="7432" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="7.625" style="4" customWidth="1"/>
+    <col min="7435" max="7436" width="3.375" style="4" customWidth="1"/>
     <col min="7437" max="7678" width="9" style="4"/>
-    <col min="7679" max="7679" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7682" width="2.6640625" style="4" customWidth="1"/>
-    <col min="7683" max="7684" width="23.109375" style="4" customWidth="1"/>
-    <col min="7685" max="7686" width="7.109375" style="4" customWidth="1"/>
-    <col min="7687" max="7688" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="7.6640625" style="4" customWidth="1"/>
-    <col min="7691" max="7692" width="3.33203125" style="4" customWidth="1"/>
+    <col min="7679" max="7679" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7682" width="2.625" style="4" customWidth="1"/>
+    <col min="7683" max="7684" width="23.125" style="4" customWidth="1"/>
+    <col min="7685" max="7686" width="7.125" style="4" customWidth="1"/>
+    <col min="7687" max="7688" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="7.625" style="4" customWidth="1"/>
+    <col min="7691" max="7692" width="3.375" style="4" customWidth="1"/>
     <col min="7693" max="7934" width="9" style="4"/>
-    <col min="7935" max="7935" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7938" width="2.6640625" style="4" customWidth="1"/>
-    <col min="7939" max="7940" width="23.109375" style="4" customWidth="1"/>
-    <col min="7941" max="7942" width="7.109375" style="4" customWidth="1"/>
-    <col min="7943" max="7944" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="7.6640625" style="4" customWidth="1"/>
-    <col min="7947" max="7948" width="3.33203125" style="4" customWidth="1"/>
+    <col min="7935" max="7935" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7938" width="2.625" style="4" customWidth="1"/>
+    <col min="7939" max="7940" width="23.125" style="4" customWidth="1"/>
+    <col min="7941" max="7942" width="7.125" style="4" customWidth="1"/>
+    <col min="7943" max="7944" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="7.625" style="4" customWidth="1"/>
+    <col min="7947" max="7948" width="3.375" style="4" customWidth="1"/>
     <col min="7949" max="8190" width="9" style="4"/>
-    <col min="8191" max="8191" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8194" width="2.6640625" style="4" customWidth="1"/>
-    <col min="8195" max="8196" width="23.109375" style="4" customWidth="1"/>
-    <col min="8197" max="8198" width="7.109375" style="4" customWidth="1"/>
-    <col min="8199" max="8200" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="7.6640625" style="4" customWidth="1"/>
-    <col min="8203" max="8204" width="3.33203125" style="4" customWidth="1"/>
+    <col min="8191" max="8191" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8194" width="2.625" style="4" customWidth="1"/>
+    <col min="8195" max="8196" width="23.125" style="4" customWidth="1"/>
+    <col min="8197" max="8198" width="7.125" style="4" customWidth="1"/>
+    <col min="8199" max="8200" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="7.625" style="4" customWidth="1"/>
+    <col min="8203" max="8204" width="3.375" style="4" customWidth="1"/>
     <col min="8205" max="8446" width="9" style="4"/>
-    <col min="8447" max="8447" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8450" width="2.6640625" style="4" customWidth="1"/>
-    <col min="8451" max="8452" width="23.109375" style="4" customWidth="1"/>
-    <col min="8453" max="8454" width="7.109375" style="4" customWidth="1"/>
-    <col min="8455" max="8456" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="7.6640625" style="4" customWidth="1"/>
-    <col min="8459" max="8460" width="3.33203125" style="4" customWidth="1"/>
+    <col min="8447" max="8447" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8450" width="2.625" style="4" customWidth="1"/>
+    <col min="8451" max="8452" width="23.125" style="4" customWidth="1"/>
+    <col min="8453" max="8454" width="7.125" style="4" customWidth="1"/>
+    <col min="8455" max="8456" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="7.625" style="4" customWidth="1"/>
+    <col min="8459" max="8460" width="3.375" style="4" customWidth="1"/>
     <col min="8461" max="8702" width="9" style="4"/>
-    <col min="8703" max="8703" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8706" width="2.6640625" style="4" customWidth="1"/>
-    <col min="8707" max="8708" width="23.109375" style="4" customWidth="1"/>
-    <col min="8709" max="8710" width="7.109375" style="4" customWidth="1"/>
-    <col min="8711" max="8712" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="7.6640625" style="4" customWidth="1"/>
-    <col min="8715" max="8716" width="3.33203125" style="4" customWidth="1"/>
+    <col min="8703" max="8703" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8706" width="2.625" style="4" customWidth="1"/>
+    <col min="8707" max="8708" width="23.125" style="4" customWidth="1"/>
+    <col min="8709" max="8710" width="7.125" style="4" customWidth="1"/>
+    <col min="8711" max="8712" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="7.625" style="4" customWidth="1"/>
+    <col min="8715" max="8716" width="3.375" style="4" customWidth="1"/>
     <col min="8717" max="8958" width="9" style="4"/>
-    <col min="8959" max="8959" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8962" width="2.6640625" style="4" customWidth="1"/>
-    <col min="8963" max="8964" width="23.109375" style="4" customWidth="1"/>
-    <col min="8965" max="8966" width="7.109375" style="4" customWidth="1"/>
-    <col min="8967" max="8968" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="7.6640625" style="4" customWidth="1"/>
-    <col min="8971" max="8972" width="3.33203125" style="4" customWidth="1"/>
+    <col min="8959" max="8959" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8962" width="2.625" style="4" customWidth="1"/>
+    <col min="8963" max="8964" width="23.125" style="4" customWidth="1"/>
+    <col min="8965" max="8966" width="7.125" style="4" customWidth="1"/>
+    <col min="8967" max="8968" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="7.625" style="4" customWidth="1"/>
+    <col min="8971" max="8972" width="3.375" style="4" customWidth="1"/>
     <col min="8973" max="9214" width="9" style="4"/>
-    <col min="9215" max="9215" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9218" width="2.6640625" style="4" customWidth="1"/>
-    <col min="9219" max="9220" width="23.109375" style="4" customWidth="1"/>
-    <col min="9221" max="9222" width="7.109375" style="4" customWidth="1"/>
-    <col min="9223" max="9224" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="7.6640625" style="4" customWidth="1"/>
-    <col min="9227" max="9228" width="3.33203125" style="4" customWidth="1"/>
+    <col min="9215" max="9215" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9218" width="2.625" style="4" customWidth="1"/>
+    <col min="9219" max="9220" width="23.125" style="4" customWidth="1"/>
+    <col min="9221" max="9222" width="7.125" style="4" customWidth="1"/>
+    <col min="9223" max="9224" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="7.625" style="4" customWidth="1"/>
+    <col min="9227" max="9228" width="3.375" style="4" customWidth="1"/>
     <col min="9229" max="9470" width="9" style="4"/>
-    <col min="9471" max="9471" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9474" width="2.6640625" style="4" customWidth="1"/>
-    <col min="9475" max="9476" width="23.109375" style="4" customWidth="1"/>
-    <col min="9477" max="9478" width="7.109375" style="4" customWidth="1"/>
-    <col min="9479" max="9480" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="7.6640625" style="4" customWidth="1"/>
-    <col min="9483" max="9484" width="3.33203125" style="4" customWidth="1"/>
+    <col min="9471" max="9471" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9474" width="2.625" style="4" customWidth="1"/>
+    <col min="9475" max="9476" width="23.125" style="4" customWidth="1"/>
+    <col min="9477" max="9478" width="7.125" style="4" customWidth="1"/>
+    <col min="9479" max="9480" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="7.625" style="4" customWidth="1"/>
+    <col min="9483" max="9484" width="3.375" style="4" customWidth="1"/>
     <col min="9485" max="9726" width="9" style="4"/>
-    <col min="9727" max="9727" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9730" width="2.6640625" style="4" customWidth="1"/>
-    <col min="9731" max="9732" width="23.109375" style="4" customWidth="1"/>
-    <col min="9733" max="9734" width="7.109375" style="4" customWidth="1"/>
-    <col min="9735" max="9736" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="7.6640625" style="4" customWidth="1"/>
-    <col min="9739" max="9740" width="3.33203125" style="4" customWidth="1"/>
+    <col min="9727" max="9727" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9730" width="2.625" style="4" customWidth="1"/>
+    <col min="9731" max="9732" width="23.125" style="4" customWidth="1"/>
+    <col min="9733" max="9734" width="7.125" style="4" customWidth="1"/>
+    <col min="9735" max="9736" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="7.625" style="4" customWidth="1"/>
+    <col min="9739" max="9740" width="3.375" style="4" customWidth="1"/>
     <col min="9741" max="9982" width="9" style="4"/>
-    <col min="9983" max="9983" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9986" width="2.6640625" style="4" customWidth="1"/>
-    <col min="9987" max="9988" width="23.109375" style="4" customWidth="1"/>
-    <col min="9989" max="9990" width="7.109375" style="4" customWidth="1"/>
-    <col min="9991" max="9992" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="7.6640625" style="4" customWidth="1"/>
-    <col min="9995" max="9996" width="3.33203125" style="4" customWidth="1"/>
+    <col min="9983" max="9983" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9986" width="2.625" style="4" customWidth="1"/>
+    <col min="9987" max="9988" width="23.125" style="4" customWidth="1"/>
+    <col min="9989" max="9990" width="7.125" style="4" customWidth="1"/>
+    <col min="9991" max="9992" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="7.625" style="4" customWidth="1"/>
+    <col min="9995" max="9996" width="3.375" style="4" customWidth="1"/>
     <col min="9997" max="10238" width="9" style="4"/>
-    <col min="10239" max="10239" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10242" width="2.6640625" style="4" customWidth="1"/>
-    <col min="10243" max="10244" width="23.109375" style="4" customWidth="1"/>
-    <col min="10245" max="10246" width="7.109375" style="4" customWidth="1"/>
-    <col min="10247" max="10248" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="7.6640625" style="4" customWidth="1"/>
-    <col min="10251" max="10252" width="3.33203125" style="4" customWidth="1"/>
+    <col min="10239" max="10239" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10242" width="2.625" style="4" customWidth="1"/>
+    <col min="10243" max="10244" width="23.125" style="4" customWidth="1"/>
+    <col min="10245" max="10246" width="7.125" style="4" customWidth="1"/>
+    <col min="10247" max="10248" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="7.625" style="4" customWidth="1"/>
+    <col min="10251" max="10252" width="3.375" style="4" customWidth="1"/>
     <col min="10253" max="10494" width="9" style="4"/>
-    <col min="10495" max="10495" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10498" width="2.6640625" style="4" customWidth="1"/>
-    <col min="10499" max="10500" width="23.109375" style="4" customWidth="1"/>
-    <col min="10501" max="10502" width="7.109375" style="4" customWidth="1"/>
-    <col min="10503" max="10504" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="7.6640625" style="4" customWidth="1"/>
-    <col min="10507" max="10508" width="3.33203125" style="4" customWidth="1"/>
+    <col min="10495" max="10495" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10498" width="2.625" style="4" customWidth="1"/>
+    <col min="10499" max="10500" width="23.125" style="4" customWidth="1"/>
+    <col min="10501" max="10502" width="7.125" style="4" customWidth="1"/>
+    <col min="10503" max="10504" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="7.625" style="4" customWidth="1"/>
+    <col min="10507" max="10508" width="3.375" style="4" customWidth="1"/>
     <col min="10509" max="10750" width="9" style="4"/>
-    <col min="10751" max="10751" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10754" width="2.6640625" style="4" customWidth="1"/>
-    <col min="10755" max="10756" width="23.109375" style="4" customWidth="1"/>
-    <col min="10757" max="10758" width="7.109375" style="4" customWidth="1"/>
-    <col min="10759" max="10760" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="7.6640625" style="4" customWidth="1"/>
-    <col min="10763" max="10764" width="3.33203125" style="4" customWidth="1"/>
+    <col min="10751" max="10751" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10754" width="2.625" style="4" customWidth="1"/>
+    <col min="10755" max="10756" width="23.125" style="4" customWidth="1"/>
+    <col min="10757" max="10758" width="7.125" style="4" customWidth="1"/>
+    <col min="10759" max="10760" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="7.625" style="4" customWidth="1"/>
+    <col min="10763" max="10764" width="3.375" style="4" customWidth="1"/>
     <col min="10765" max="11006" width="9" style="4"/>
-    <col min="11007" max="11007" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11010" width="2.6640625" style="4" customWidth="1"/>
-    <col min="11011" max="11012" width="23.109375" style="4" customWidth="1"/>
-    <col min="11013" max="11014" width="7.109375" style="4" customWidth="1"/>
-    <col min="11015" max="11016" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="7.6640625" style="4" customWidth="1"/>
-    <col min="11019" max="11020" width="3.33203125" style="4" customWidth="1"/>
+    <col min="11007" max="11007" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11010" width="2.625" style="4" customWidth="1"/>
+    <col min="11011" max="11012" width="23.125" style="4" customWidth="1"/>
+    <col min="11013" max="11014" width="7.125" style="4" customWidth="1"/>
+    <col min="11015" max="11016" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="7.625" style="4" customWidth="1"/>
+    <col min="11019" max="11020" width="3.375" style="4" customWidth="1"/>
     <col min="11021" max="11262" width="9" style="4"/>
-    <col min="11263" max="11263" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11266" width="2.6640625" style="4" customWidth="1"/>
-    <col min="11267" max="11268" width="23.109375" style="4" customWidth="1"/>
-    <col min="11269" max="11270" width="7.109375" style="4" customWidth="1"/>
-    <col min="11271" max="11272" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="7.6640625" style="4" customWidth="1"/>
-    <col min="11275" max="11276" width="3.33203125" style="4" customWidth="1"/>
+    <col min="11263" max="11263" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11266" width="2.625" style="4" customWidth="1"/>
+    <col min="11267" max="11268" width="23.125" style="4" customWidth="1"/>
+    <col min="11269" max="11270" width="7.125" style="4" customWidth="1"/>
+    <col min="11271" max="11272" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="7.625" style="4" customWidth="1"/>
+    <col min="11275" max="11276" width="3.375" style="4" customWidth="1"/>
     <col min="11277" max="11518" width="9" style="4"/>
-    <col min="11519" max="11519" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11522" width="2.6640625" style="4" customWidth="1"/>
-    <col min="11523" max="11524" width="23.109375" style="4" customWidth="1"/>
-    <col min="11525" max="11526" width="7.109375" style="4" customWidth="1"/>
-    <col min="11527" max="11528" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="7.6640625" style="4" customWidth="1"/>
-    <col min="11531" max="11532" width="3.33203125" style="4" customWidth="1"/>
+    <col min="11519" max="11519" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11522" width="2.625" style="4" customWidth="1"/>
+    <col min="11523" max="11524" width="23.125" style="4" customWidth="1"/>
+    <col min="11525" max="11526" width="7.125" style="4" customWidth="1"/>
+    <col min="11527" max="11528" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="7.625" style="4" customWidth="1"/>
+    <col min="11531" max="11532" width="3.375" style="4" customWidth="1"/>
     <col min="11533" max="11774" width="9" style="4"/>
-    <col min="11775" max="11775" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11778" width="2.6640625" style="4" customWidth="1"/>
-    <col min="11779" max="11780" width="23.109375" style="4" customWidth="1"/>
-    <col min="11781" max="11782" width="7.109375" style="4" customWidth="1"/>
-    <col min="11783" max="11784" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="7.6640625" style="4" customWidth="1"/>
-    <col min="11787" max="11788" width="3.33203125" style="4" customWidth="1"/>
+    <col min="11775" max="11775" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11778" width="2.625" style="4" customWidth="1"/>
+    <col min="11779" max="11780" width="23.125" style="4" customWidth="1"/>
+    <col min="11781" max="11782" width="7.125" style="4" customWidth="1"/>
+    <col min="11783" max="11784" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="7.625" style="4" customWidth="1"/>
+    <col min="11787" max="11788" width="3.375" style="4" customWidth="1"/>
     <col min="11789" max="12030" width="9" style="4"/>
-    <col min="12031" max="12031" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12034" width="2.6640625" style="4" customWidth="1"/>
-    <col min="12035" max="12036" width="23.109375" style="4" customWidth="1"/>
-    <col min="12037" max="12038" width="7.109375" style="4" customWidth="1"/>
-    <col min="12039" max="12040" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="7.6640625" style="4" customWidth="1"/>
-    <col min="12043" max="12044" width="3.33203125" style="4" customWidth="1"/>
+    <col min="12031" max="12031" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12034" width="2.625" style="4" customWidth="1"/>
+    <col min="12035" max="12036" width="23.125" style="4" customWidth="1"/>
+    <col min="12037" max="12038" width="7.125" style="4" customWidth="1"/>
+    <col min="12039" max="12040" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="7.625" style="4" customWidth="1"/>
+    <col min="12043" max="12044" width="3.375" style="4" customWidth="1"/>
     <col min="12045" max="12286" width="9" style="4"/>
-    <col min="12287" max="12287" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12290" width="2.6640625" style="4" customWidth="1"/>
-    <col min="12291" max="12292" width="23.109375" style="4" customWidth="1"/>
-    <col min="12293" max="12294" width="7.109375" style="4" customWidth="1"/>
-    <col min="12295" max="12296" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="7.6640625" style="4" customWidth="1"/>
-    <col min="12299" max="12300" width="3.33203125" style="4" customWidth="1"/>
+    <col min="12287" max="12287" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12290" width="2.625" style="4" customWidth="1"/>
+    <col min="12291" max="12292" width="23.125" style="4" customWidth="1"/>
+    <col min="12293" max="12294" width="7.125" style="4" customWidth="1"/>
+    <col min="12295" max="12296" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="7.625" style="4" customWidth="1"/>
+    <col min="12299" max="12300" width="3.375" style="4" customWidth="1"/>
     <col min="12301" max="12542" width="9" style="4"/>
-    <col min="12543" max="12543" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12546" width="2.6640625" style="4" customWidth="1"/>
-    <col min="12547" max="12548" width="23.109375" style="4" customWidth="1"/>
-    <col min="12549" max="12550" width="7.109375" style="4" customWidth="1"/>
-    <col min="12551" max="12552" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="7.6640625" style="4" customWidth="1"/>
-    <col min="12555" max="12556" width="3.33203125" style="4" customWidth="1"/>
+    <col min="12543" max="12543" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12546" width="2.625" style="4" customWidth="1"/>
+    <col min="12547" max="12548" width="23.125" style="4" customWidth="1"/>
+    <col min="12549" max="12550" width="7.125" style="4" customWidth="1"/>
+    <col min="12551" max="12552" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="7.625" style="4" customWidth="1"/>
+    <col min="12555" max="12556" width="3.375" style="4" customWidth="1"/>
     <col min="12557" max="12798" width="9" style="4"/>
-    <col min="12799" max="12799" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12802" width="2.6640625" style="4" customWidth="1"/>
-    <col min="12803" max="12804" width="23.109375" style="4" customWidth="1"/>
-    <col min="12805" max="12806" width="7.109375" style="4" customWidth="1"/>
-    <col min="12807" max="12808" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="7.6640625" style="4" customWidth="1"/>
-    <col min="12811" max="12812" width="3.33203125" style="4" customWidth="1"/>
+    <col min="12799" max="12799" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12802" width="2.625" style="4" customWidth="1"/>
+    <col min="12803" max="12804" width="23.125" style="4" customWidth="1"/>
+    <col min="12805" max="12806" width="7.125" style="4" customWidth="1"/>
+    <col min="12807" max="12808" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="7.625" style="4" customWidth="1"/>
+    <col min="12811" max="12812" width="3.375" style="4" customWidth="1"/>
     <col min="12813" max="13054" width="9" style="4"/>
-    <col min="13055" max="13055" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13058" width="2.6640625" style="4" customWidth="1"/>
-    <col min="13059" max="13060" width="23.109375" style="4" customWidth="1"/>
-    <col min="13061" max="13062" width="7.109375" style="4" customWidth="1"/>
-    <col min="13063" max="13064" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="7.6640625" style="4" customWidth="1"/>
-    <col min="13067" max="13068" width="3.33203125" style="4" customWidth="1"/>
+    <col min="13055" max="13055" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13058" width="2.625" style="4" customWidth="1"/>
+    <col min="13059" max="13060" width="23.125" style="4" customWidth="1"/>
+    <col min="13061" max="13062" width="7.125" style="4" customWidth="1"/>
+    <col min="13063" max="13064" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="7.625" style="4" customWidth="1"/>
+    <col min="13067" max="13068" width="3.375" style="4" customWidth="1"/>
     <col min="13069" max="13310" width="9" style="4"/>
-    <col min="13311" max="13311" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13314" width="2.6640625" style="4" customWidth="1"/>
-    <col min="13315" max="13316" width="23.109375" style="4" customWidth="1"/>
-    <col min="13317" max="13318" width="7.109375" style="4" customWidth="1"/>
-    <col min="13319" max="13320" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="7.6640625" style="4" customWidth="1"/>
-    <col min="13323" max="13324" width="3.33203125" style="4" customWidth="1"/>
+    <col min="13311" max="13311" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13314" width="2.625" style="4" customWidth="1"/>
+    <col min="13315" max="13316" width="23.125" style="4" customWidth="1"/>
+    <col min="13317" max="13318" width="7.125" style="4" customWidth="1"/>
+    <col min="13319" max="13320" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="7.625" style="4" customWidth="1"/>
+    <col min="13323" max="13324" width="3.375" style="4" customWidth="1"/>
     <col min="13325" max="13566" width="9" style="4"/>
-    <col min="13567" max="13567" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13570" width="2.6640625" style="4" customWidth="1"/>
-    <col min="13571" max="13572" width="23.109375" style="4" customWidth="1"/>
-    <col min="13573" max="13574" width="7.109375" style="4" customWidth="1"/>
-    <col min="13575" max="13576" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="7.6640625" style="4" customWidth="1"/>
-    <col min="13579" max="13580" width="3.33203125" style="4" customWidth="1"/>
+    <col min="13567" max="13567" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13570" width="2.625" style="4" customWidth="1"/>
+    <col min="13571" max="13572" width="23.125" style="4" customWidth="1"/>
+    <col min="13573" max="13574" width="7.125" style="4" customWidth="1"/>
+    <col min="13575" max="13576" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="7.625" style="4" customWidth="1"/>
+    <col min="13579" max="13580" width="3.375" style="4" customWidth="1"/>
     <col min="13581" max="13822" width="9" style="4"/>
-    <col min="13823" max="13823" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13826" width="2.6640625" style="4" customWidth="1"/>
-    <col min="13827" max="13828" width="23.109375" style="4" customWidth="1"/>
-    <col min="13829" max="13830" width="7.109375" style="4" customWidth="1"/>
-    <col min="13831" max="13832" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="7.6640625" style="4" customWidth="1"/>
-    <col min="13835" max="13836" width="3.33203125" style="4" customWidth="1"/>
+    <col min="13823" max="13823" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13826" width="2.625" style="4" customWidth="1"/>
+    <col min="13827" max="13828" width="23.125" style="4" customWidth="1"/>
+    <col min="13829" max="13830" width="7.125" style="4" customWidth="1"/>
+    <col min="13831" max="13832" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="7.625" style="4" customWidth="1"/>
+    <col min="13835" max="13836" width="3.375" style="4" customWidth="1"/>
     <col min="13837" max="14078" width="9" style="4"/>
-    <col min="14079" max="14079" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14082" width="2.6640625" style="4" customWidth="1"/>
-    <col min="14083" max="14084" width="23.109375" style="4" customWidth="1"/>
-    <col min="14085" max="14086" width="7.109375" style="4" customWidth="1"/>
-    <col min="14087" max="14088" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="7.6640625" style="4" customWidth="1"/>
-    <col min="14091" max="14092" width="3.33203125" style="4" customWidth="1"/>
+    <col min="14079" max="14079" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14082" width="2.625" style="4" customWidth="1"/>
+    <col min="14083" max="14084" width="23.125" style="4" customWidth="1"/>
+    <col min="14085" max="14086" width="7.125" style="4" customWidth="1"/>
+    <col min="14087" max="14088" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="7.625" style="4" customWidth="1"/>
+    <col min="14091" max="14092" width="3.375" style="4" customWidth="1"/>
     <col min="14093" max="14334" width="9" style="4"/>
-    <col min="14335" max="14335" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14338" width="2.6640625" style="4" customWidth="1"/>
-    <col min="14339" max="14340" width="23.109375" style="4" customWidth="1"/>
-    <col min="14341" max="14342" width="7.109375" style="4" customWidth="1"/>
-    <col min="14343" max="14344" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="7.6640625" style="4" customWidth="1"/>
-    <col min="14347" max="14348" width="3.33203125" style="4" customWidth="1"/>
+    <col min="14335" max="14335" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14338" width="2.625" style="4" customWidth="1"/>
+    <col min="14339" max="14340" width="23.125" style="4" customWidth="1"/>
+    <col min="14341" max="14342" width="7.125" style="4" customWidth="1"/>
+    <col min="14343" max="14344" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="7.625" style="4" customWidth="1"/>
+    <col min="14347" max="14348" width="3.375" style="4" customWidth="1"/>
     <col min="14349" max="14590" width="9" style="4"/>
-    <col min="14591" max="14591" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14594" width="2.6640625" style="4" customWidth="1"/>
-    <col min="14595" max="14596" width="23.109375" style="4" customWidth="1"/>
-    <col min="14597" max="14598" width="7.109375" style="4" customWidth="1"/>
-    <col min="14599" max="14600" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="7.6640625" style="4" customWidth="1"/>
-    <col min="14603" max="14604" width="3.33203125" style="4" customWidth="1"/>
+    <col min="14591" max="14591" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14594" width="2.625" style="4" customWidth="1"/>
+    <col min="14595" max="14596" width="23.125" style="4" customWidth="1"/>
+    <col min="14597" max="14598" width="7.125" style="4" customWidth="1"/>
+    <col min="14599" max="14600" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="7.625" style="4" customWidth="1"/>
+    <col min="14603" max="14604" width="3.375" style="4" customWidth="1"/>
     <col min="14605" max="14846" width="9" style="4"/>
-    <col min="14847" max="14847" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14850" width="2.6640625" style="4" customWidth="1"/>
-    <col min="14851" max="14852" width="23.109375" style="4" customWidth="1"/>
-    <col min="14853" max="14854" width="7.109375" style="4" customWidth="1"/>
-    <col min="14855" max="14856" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="7.6640625" style="4" customWidth="1"/>
-    <col min="14859" max="14860" width="3.33203125" style="4" customWidth="1"/>
+    <col min="14847" max="14847" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14850" width="2.625" style="4" customWidth="1"/>
+    <col min="14851" max="14852" width="23.125" style="4" customWidth="1"/>
+    <col min="14853" max="14854" width="7.125" style="4" customWidth="1"/>
+    <col min="14855" max="14856" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="7.625" style="4" customWidth="1"/>
+    <col min="14859" max="14860" width="3.375" style="4" customWidth="1"/>
     <col min="14861" max="15102" width="9" style="4"/>
-    <col min="15103" max="15103" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15106" width="2.6640625" style="4" customWidth="1"/>
-    <col min="15107" max="15108" width="23.109375" style="4" customWidth="1"/>
-    <col min="15109" max="15110" width="7.109375" style="4" customWidth="1"/>
-    <col min="15111" max="15112" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="7.6640625" style="4" customWidth="1"/>
-    <col min="15115" max="15116" width="3.33203125" style="4" customWidth="1"/>
+    <col min="15103" max="15103" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15106" width="2.625" style="4" customWidth="1"/>
+    <col min="15107" max="15108" width="23.125" style="4" customWidth="1"/>
+    <col min="15109" max="15110" width="7.125" style="4" customWidth="1"/>
+    <col min="15111" max="15112" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="7.625" style="4" customWidth="1"/>
+    <col min="15115" max="15116" width="3.375" style="4" customWidth="1"/>
     <col min="15117" max="15358" width="9" style="4"/>
-    <col min="15359" max="15359" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15362" width="2.6640625" style="4" customWidth="1"/>
-    <col min="15363" max="15364" width="23.109375" style="4" customWidth="1"/>
-    <col min="15365" max="15366" width="7.109375" style="4" customWidth="1"/>
-    <col min="15367" max="15368" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="7.6640625" style="4" customWidth="1"/>
-    <col min="15371" max="15372" width="3.33203125" style="4" customWidth="1"/>
+    <col min="15359" max="15359" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15362" width="2.625" style="4" customWidth="1"/>
+    <col min="15363" max="15364" width="23.125" style="4" customWidth="1"/>
+    <col min="15365" max="15366" width="7.125" style="4" customWidth="1"/>
+    <col min="15367" max="15368" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="7.625" style="4" customWidth="1"/>
+    <col min="15371" max="15372" width="3.375" style="4" customWidth="1"/>
     <col min="15373" max="15614" width="9" style="4"/>
-    <col min="15615" max="15615" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15618" width="2.6640625" style="4" customWidth="1"/>
-    <col min="15619" max="15620" width="23.109375" style="4" customWidth="1"/>
-    <col min="15621" max="15622" width="7.109375" style="4" customWidth="1"/>
-    <col min="15623" max="15624" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="7.6640625" style="4" customWidth="1"/>
-    <col min="15627" max="15628" width="3.33203125" style="4" customWidth="1"/>
+    <col min="15615" max="15615" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15618" width="2.625" style="4" customWidth="1"/>
+    <col min="15619" max="15620" width="23.125" style="4" customWidth="1"/>
+    <col min="15621" max="15622" width="7.125" style="4" customWidth="1"/>
+    <col min="15623" max="15624" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="7.625" style="4" customWidth="1"/>
+    <col min="15627" max="15628" width="3.375" style="4" customWidth="1"/>
     <col min="15629" max="15870" width="9" style="4"/>
-    <col min="15871" max="15871" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15874" width="2.6640625" style="4" customWidth="1"/>
-    <col min="15875" max="15876" width="23.109375" style="4" customWidth="1"/>
-    <col min="15877" max="15878" width="7.109375" style="4" customWidth="1"/>
-    <col min="15879" max="15880" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="7.6640625" style="4" customWidth="1"/>
-    <col min="15883" max="15884" width="3.33203125" style="4" customWidth="1"/>
+    <col min="15871" max="15871" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15874" width="2.625" style="4" customWidth="1"/>
+    <col min="15875" max="15876" width="23.125" style="4" customWidth="1"/>
+    <col min="15877" max="15878" width="7.125" style="4" customWidth="1"/>
+    <col min="15879" max="15880" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="7.625" style="4" customWidth="1"/>
+    <col min="15883" max="15884" width="3.375" style="4" customWidth="1"/>
     <col min="15885" max="16126" width="9" style="4"/>
-    <col min="16127" max="16127" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16130" width="2.6640625" style="4" customWidth="1"/>
-    <col min="16131" max="16132" width="23.109375" style="4" customWidth="1"/>
-    <col min="16133" max="16134" width="7.109375" style="4" customWidth="1"/>
-    <col min="16135" max="16136" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="7.6640625" style="4" customWidth="1"/>
-    <col min="16139" max="16140" width="3.33203125" style="4" customWidth="1"/>
+    <col min="16127" max="16127" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16130" width="2.625" style="4" customWidth="1"/>
+    <col min="16131" max="16132" width="23.125" style="4" customWidth="1"/>
+    <col min="16133" max="16134" width="7.125" style="4" customWidth="1"/>
+    <col min="16135" max="16136" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="7.625" style="4" customWidth="1"/>
+    <col min="16139" max="16140" width="3.375" style="4" customWidth="1"/>
     <col min="16141" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -14943,11 +14949,11 @@
       <c r="G1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="154">
+      <c r="H1" s="110">
         <v>43153</v>
       </c>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
       <c r="K1" s="3">
         <f>IF(K3&lt;&gt;DATE(YEAR(K3),MONTH(K3)+1,1)-1,MONTH(K3),"")</f>
         <v>2</v>
@@ -14989,7 +14995,7 @@
         <v>月</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="13.8" thickBot="1">
+    <row r="2" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -15000,11 +15006,11 @@
       <c r="G2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="156">
+      <c r="H2" s="112">
         <v>43153.452349537038</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -15020,35 +15026,35 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="148" t="s">
+    <row r="3" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="159" t="s">
+      <c r="E3" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="160" t="s">
+      <c r="F3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="162" t="s">
+      <c r="G3" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="160" t="s">
+      <c r="H3" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="164" t="s">
+      <c r="I3" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="166" t="s">
+      <c r="J3" s="122" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="41">
@@ -15091,17 +15097,17 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="149"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="166"/>
+    <row r="4" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="127"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
       <c r="K4" s="44">
         <f>K3</f>
         <v>43152</v>
@@ -15143,13 +15149,13 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="39" customHeight="1">
-      <c r="B5" s="122" t="s">
+    <row r="5" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="119" t="s">
+      <c r="C5" s="147"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="143" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="7"/>
@@ -15159,7 +15165,7 @@
       <c r="J5" s="75"/>
       <c r="K5" s="10"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="145" t="s">
+      <c r="M5" s="123" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="11"/>
@@ -15170,11 +15176,11 @@
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" ht="39" customHeight="1">
-      <c r="B6" s="125"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="120"/>
+    <row r="6" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="149"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="14"/>
       <c r="G6" s="67"/>
       <c r="H6" s="15"/>
@@ -15182,7 +15188,7 @@
       <c r="J6" s="76"/>
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="146"/>
+      <c r="M6" s="124"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
@@ -15191,11 +15197,11 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="1:20" ht="39" customHeight="1">
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="120"/>
+    <row r="7" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="149"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="14"/>
       <c r="G7" s="67"/>
       <c r="H7" s="15"/>
@@ -15203,7 +15209,7 @@
       <c r="J7" s="76"/>
       <c r="K7" s="17"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="146"/>
+      <c r="M7" s="124"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
@@ -15212,11 +15218,11 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="1:20" ht="39" customHeight="1">
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="121"/>
+    <row r="8" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="152"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="145"/>
       <c r="F8" s="35"/>
       <c r="G8" s="69"/>
       <c r="H8" s="36"/>
@@ -15224,7 +15230,7 @@
       <c r="J8" s="77"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="147"/>
+      <c r="M8" s="125"/>
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -15233,7 +15239,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -15254,11 +15260,11 @@
       <c r="S9" s="34"/>
       <c r="T9" s="40"/>
     </row>
-    <row r="10" spans="1:20" ht="47.25" customHeight="1">
-      <c r="A10" s="136" t="s">
+    <row r="10" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="128" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="48" t="s">
@@ -15296,9 +15302,9 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="1:20" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A11" s="137"/>
-      <c r="B11" s="151"/>
+    <row r="11" spans="1:20" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="161"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="49" t="s">
         <v>5</v>
       </c>
@@ -15334,9 +15340,9 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="1:20" ht="53.25" customHeight="1">
-      <c r="A12" s="137"/>
-      <c r="B12" s="139" t="s">
+    <row r="12" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="161"/>
+      <c r="B12" s="130" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="48" t="s">
@@ -15374,9 +15380,9 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="1:20" ht="133.5" customHeight="1" thickBot="1">
-      <c r="A13" s="137"/>
-      <c r="B13" s="141"/>
+    <row r="13" spans="1:20" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="161"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="55" t="s">
         <v>33</v>
       </c>
@@ -15412,9 +15418,9 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="1:20" ht="55.5" customHeight="1">
-      <c r="A14" s="137"/>
-      <c r="B14" s="131" t="s">
+    <row r="14" spans="1:20" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="161"/>
+      <c r="B14" s="155" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -15440,9 +15446,9 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="1:20" ht="57.75" customHeight="1">
-      <c r="A15" s="137"/>
-      <c r="B15" s="132"/>
+    <row r="15" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="161"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="94" t="s">
         <v>38</v>
       </c>
@@ -15466,9 +15472,9 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:20" ht="57" customHeight="1" thickBot="1">
-      <c r="A16" s="137"/>
-      <c r="B16" s="133"/>
+    <row r="16" spans="1:20" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="161"/>
+      <c r="B16" s="157"/>
       <c r="C16" s="55" t="s">
         <v>39</v>
       </c>
@@ -15504,9 +15510,9 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="1:20" ht="84" customHeight="1">
-      <c r="A17" s="137"/>
-      <c r="B17" s="134" t="s">
+    <row r="17" spans="1:20" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="161"/>
+      <c r="B17" s="158" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -15544,9 +15550,9 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="1:20" ht="139.5" customHeight="1" thickBot="1">
-      <c r="A18" s="138"/>
-      <c r="B18" s="135"/>
+    <row r="18" spans="1:20" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="162"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="55" t="s">
         <v>45</v>
       </c>
@@ -15582,11 +15588,11 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="1:20" ht="87" customHeight="1">
-      <c r="A19" s="113" t="s">
+    <row r="19" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="134" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -15624,9 +15630,9 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="1:20" ht="120" customHeight="1">
-      <c r="A20" s="114"/>
-      <c r="B20" s="111"/>
+    <row r="20" spans="1:20" ht="120" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="138"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="94" t="s">
         <v>6</v>
       </c>
@@ -15662,9 +15668,9 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="1:20" ht="60" customHeight="1" thickBot="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="112"/>
+    <row r="21" spans="1:20" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="139"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="59" t="s">
         <v>50</v>
       </c>
@@ -15700,11 +15706,11 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="1:20" ht="72" customHeight="1">
-      <c r="A22" s="142" t="s">
+    <row r="22" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="139" t="s">
+      <c r="B22" s="130" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="98" t="s">
@@ -15730,9 +15736,9 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20" ht="50.25" customHeight="1">
-      <c r="A23" s="143"/>
-      <c r="B23" s="140"/>
+    <row r="23" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="165"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="99" t="s">
         <v>96</v>
       </c>
@@ -15756,9 +15762,9 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="1:20" ht="50.25" customHeight="1">
-      <c r="A24" s="143"/>
-      <c r="B24" s="140"/>
+    <row r="24" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="165"/>
+      <c r="B24" s="163"/>
       <c r="C24" s="99"/>
       <c r="D24" s="101"/>
       <c r="E24" s="13"/>
@@ -15778,9 +15784,9 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20" ht="50.25" customHeight="1">
-      <c r="A25" s="143"/>
-      <c r="B25" s="140"/>
+    <row r="25" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="165"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="99"/>
       <c r="D25" s="101"/>
       <c r="E25" s="13"/>
@@ -15800,9 +15806,9 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="1:20" ht="50.25" customHeight="1">
-      <c r="A26" s="143"/>
-      <c r="B26" s="140"/>
+    <row r="26" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="165"/>
+      <c r="B26" s="163"/>
       <c r="C26" s="99"/>
       <c r="D26" s="101"/>
       <c r="E26" s="13"/>
@@ -15822,9 +15828,9 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A27" s="144"/>
-      <c r="B27" s="141"/>
+    <row r="27" spans="1:20" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="166"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="55"/>
       <c r="D27" s="102"/>
       <c r="E27" s="13"/>
@@ -15844,11 +15850,11 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:20" ht="38.25" customHeight="1">
-      <c r="A28" s="116" t="s">
+    <row r="28" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="134" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="54" t="s">
@@ -15886,9 +15892,9 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="1:20" ht="38.25" customHeight="1">
-      <c r="A29" s="117"/>
-      <c r="B29" s="111"/>
+    <row r="29" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="141"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="94" t="s">
         <v>54</v>
       </c>
@@ -15922,9 +15928,9 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="1:20" ht="38.25" customHeight="1">
-      <c r="A30" s="117"/>
-      <c r="B30" s="111"/>
+    <row r="30" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="141"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="94" t="s">
         <v>55</v>
       </c>
@@ -15958,9 +15964,9 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20" ht="53.25" customHeight="1">
-      <c r="A31" s="117"/>
-      <c r="B31" s="111"/>
+    <row r="31" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="141"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="94" t="s">
         <v>56</v>
       </c>
@@ -15996,9 +16002,9 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A32" s="118"/>
-      <c r="B32" s="112"/>
+    <row r="32" spans="1:20" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="142"/>
+      <c r="B32" s="136"/>
       <c r="C32" s="94" t="s">
         <v>57</v>
       </c>
@@ -16034,7 +16040,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="2:20" ht="27" customHeight="1">
+    <row r="33" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="62"/>
       <c r="C33" s="47"/>
       <c r="D33" s="63"/>
@@ -16055,7 +16061,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="2:20" ht="27" customHeight="1">
+    <row r="34" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="60"/>
       <c r="C34" s="46"/>
       <c r="D34" s="61"/>
@@ -16076,7 +16082,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="2:20" ht="27" customHeight="1">
+    <row r="35" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="60"/>
       <c r="C35" s="46"/>
       <c r="D35" s="61"/>
@@ -16097,7 +16103,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="2:20" ht="27" customHeight="1">
+    <row r="36" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="60"/>
       <c r="C36" s="46"/>
       <c r="D36" s="61"/>
@@ -16118,7 +16124,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="2:20" ht="27" customHeight="1">
+    <row r="37" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="60"/>
       <c r="C37" s="46"/>
       <c r="D37" s="61"/>
@@ -16139,7 +16145,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="2:20" ht="27" customHeight="1">
+    <row r="38" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="60"/>
       <c r="C38" s="46"/>
       <c r="D38" s="61"/>
@@ -16160,7 +16166,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
     </row>
-    <row r="39" spans="2:20" ht="27" customHeight="1">
+    <row r="39" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="60"/>
       <c r="C39" s="46"/>
       <c r="D39" s="61"/>
@@ -16181,7 +16187,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
     </row>
-    <row r="40" spans="2:20" ht="27" customHeight="1">
+    <row r="40" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="60"/>
       <c r="C40" s="46"/>
       <c r="D40" s="61"/>
@@ -16202,7 +16208,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
     </row>
-    <row r="41" spans="2:20" ht="27" customHeight="1">
+    <row r="41" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="60"/>
       <c r="C41" s="46"/>
       <c r="D41" s="61"/>
@@ -16223,7 +16229,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
     </row>
-    <row r="42" spans="2:20" ht="27" customHeight="1">
+    <row r="42" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="60"/>
       <c r="C42" s="46"/>
       <c r="D42" s="61"/>
@@ -16244,7 +16250,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
     </row>
-    <row r="43" spans="2:20" ht="27" customHeight="1">
+    <row r="43" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="60"/>
       <c r="C43" s="46"/>
       <c r="D43" s="61"/>
@@ -16265,7 +16271,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
     </row>
-    <row r="44" spans="2:20" ht="27" customHeight="1">
+    <row r="44" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="60"/>
       <c r="C44" s="46"/>
       <c r="D44" s="61"/>
@@ -16286,7 +16292,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
     </row>
-    <row r="45" spans="2:20" ht="27" customHeight="1">
+    <row r="45" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="60"/>
       <c r="C45" s="46"/>
       <c r="D45" s="61"/>
@@ -16307,7 +16313,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="2:20" ht="27" customHeight="1">
+    <row r="46" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="12"/>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
@@ -16328,7 +16334,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
     </row>
-    <row r="47" spans="2:20" ht="27" customHeight="1">
+    <row r="47" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="12"/>
       <c r="C47" s="61"/>
       <c r="D47" s="61"/>
@@ -16349,7 +16355,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="18"/>
     </row>
-    <row r="48" spans="2:20" ht="27" customHeight="1">
+    <row r="48" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
       <c r="D48" s="61"/>
@@ -16370,7 +16376,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="18"/>
     </row>
-    <row r="49" spans="2:20" ht="27" customHeight="1">
+    <row r="49" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -16391,7 +16397,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="18"/>
     </row>
-    <row r="50" spans="2:20" ht="27" customHeight="1">
+    <row r="50" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -16412,7 +16418,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="18"/>
     </row>
-    <row r="51" spans="2:20" ht="27" customHeight="1">
+    <row r="51" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -16433,7 +16439,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="18"/>
     </row>
-    <row r="52" spans="2:20" ht="27" customHeight="1">
+    <row r="52" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -16454,7 +16460,7 @@
       <c r="S52" s="18"/>
       <c r="T52" s="18"/>
     </row>
-    <row r="53" spans="2:20" ht="27" customHeight="1">
+    <row r="53" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -16475,7 +16481,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
     </row>
-    <row r="54" spans="2:20" ht="27" customHeight="1">
+    <row r="54" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -16496,7 +16502,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="18"/>
     </row>
-    <row r="55" spans="2:20" ht="27" customHeight="1">
+    <row r="55" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -16517,7 +16523,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="18"/>
     </row>
-    <row r="56" spans="2:20" ht="27" customHeight="1">
+    <row r="56" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -16538,7 +16544,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
     </row>
-    <row r="57" spans="2:20" ht="27" customHeight="1">
+    <row r="57" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -16559,7 +16565,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="18"/>
     </row>
-    <row r="58" spans="2:20" ht="27" customHeight="1">
+    <row r="58" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12">
         <f>ROW()-ROW(№列)</f>
         <v>49</v>
@@ -16583,7 +16589,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="18"/>
     </row>
-    <row r="59" spans="2:20" ht="27" customHeight="1">
+    <row r="59" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="19">
         <f>ROW()-ROW(№列)</f>
         <v>50</v>
@@ -16614,21 +16620,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A28:A32"/>
@@ -16640,6 +16631,21 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K5:L8 K10:L11">
@@ -16798,596 +16804,596 @@
   <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="10" ySplit="9" topLeftCell="K40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="9" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="37" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="72" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="26" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="27" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="83" customWidth="1"/>
-    <col min="11" max="20" width="15.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="45.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="72" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="26" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="27" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="83" customWidth="1"/>
+    <col min="11" max="20" width="15.5" style="28" customWidth="1"/>
     <col min="21" max="254" width="9" style="4"/>
-    <col min="255" max="255" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="256" max="258" width="2.44140625" style="4" customWidth="1"/>
-    <col min="259" max="260" width="23.109375" style="4" customWidth="1"/>
-    <col min="261" max="262" width="7.109375" style="4" customWidth="1"/>
-    <col min="263" max="264" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="7.44140625" style="4" customWidth="1"/>
-    <col min="267" max="268" width="3.44140625" style="4" customWidth="1"/>
+    <col min="255" max="255" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="256" max="258" width="2.5" style="4" customWidth="1"/>
+    <col min="259" max="260" width="23.125" style="4" customWidth="1"/>
+    <col min="261" max="262" width="7.125" style="4" customWidth="1"/>
+    <col min="263" max="264" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="7.5" style="4" customWidth="1"/>
+    <col min="267" max="268" width="3.5" style="4" customWidth="1"/>
     <col min="269" max="510" width="9" style="4"/>
-    <col min="511" max="511" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="512" max="514" width="2.44140625" style="4" customWidth="1"/>
-    <col min="515" max="516" width="23.109375" style="4" customWidth="1"/>
-    <col min="517" max="518" width="7.109375" style="4" customWidth="1"/>
-    <col min="519" max="520" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="7.44140625" style="4" customWidth="1"/>
-    <col min="523" max="524" width="3.44140625" style="4" customWidth="1"/>
+    <col min="511" max="511" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="512" max="514" width="2.5" style="4" customWidth="1"/>
+    <col min="515" max="516" width="23.125" style="4" customWidth="1"/>
+    <col min="517" max="518" width="7.125" style="4" customWidth="1"/>
+    <col min="519" max="520" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="7.5" style="4" customWidth="1"/>
+    <col min="523" max="524" width="3.5" style="4" customWidth="1"/>
     <col min="525" max="766" width="9" style="4"/>
-    <col min="767" max="767" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="768" max="770" width="2.44140625" style="4" customWidth="1"/>
-    <col min="771" max="772" width="23.109375" style="4" customWidth="1"/>
-    <col min="773" max="774" width="7.109375" style="4" customWidth="1"/>
-    <col min="775" max="776" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="7.44140625" style="4" customWidth="1"/>
-    <col min="779" max="780" width="3.44140625" style="4" customWidth="1"/>
+    <col min="767" max="767" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="768" max="770" width="2.5" style="4" customWidth="1"/>
+    <col min="771" max="772" width="23.125" style="4" customWidth="1"/>
+    <col min="773" max="774" width="7.125" style="4" customWidth="1"/>
+    <col min="775" max="776" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="7.5" style="4" customWidth="1"/>
+    <col min="779" max="780" width="3.5" style="4" customWidth="1"/>
     <col min="781" max="1022" width="9" style="4"/>
-    <col min="1023" max="1023" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1026" width="2.44140625" style="4" customWidth="1"/>
-    <col min="1027" max="1028" width="23.109375" style="4" customWidth="1"/>
-    <col min="1029" max="1030" width="7.109375" style="4" customWidth="1"/>
-    <col min="1031" max="1032" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="7.44140625" style="4" customWidth="1"/>
-    <col min="1035" max="1036" width="3.44140625" style="4" customWidth="1"/>
+    <col min="1023" max="1023" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1026" width="2.5" style="4" customWidth="1"/>
+    <col min="1027" max="1028" width="23.125" style="4" customWidth="1"/>
+    <col min="1029" max="1030" width="7.125" style="4" customWidth="1"/>
+    <col min="1031" max="1032" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="7.5" style="4" customWidth="1"/>
+    <col min="1035" max="1036" width="3.5" style="4" customWidth="1"/>
     <col min="1037" max="1278" width="9" style="4"/>
-    <col min="1279" max="1279" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1282" width="2.44140625" style="4" customWidth="1"/>
-    <col min="1283" max="1284" width="23.109375" style="4" customWidth="1"/>
-    <col min="1285" max="1286" width="7.109375" style="4" customWidth="1"/>
-    <col min="1287" max="1288" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="7.44140625" style="4" customWidth="1"/>
-    <col min="1291" max="1292" width="3.44140625" style="4" customWidth="1"/>
+    <col min="1279" max="1279" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1282" width="2.5" style="4" customWidth="1"/>
+    <col min="1283" max="1284" width="23.125" style="4" customWidth="1"/>
+    <col min="1285" max="1286" width="7.125" style="4" customWidth="1"/>
+    <col min="1287" max="1288" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="7.5" style="4" customWidth="1"/>
+    <col min="1291" max="1292" width="3.5" style="4" customWidth="1"/>
     <col min="1293" max="1534" width="9" style="4"/>
-    <col min="1535" max="1535" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1538" width="2.44140625" style="4" customWidth="1"/>
-    <col min="1539" max="1540" width="23.109375" style="4" customWidth="1"/>
-    <col min="1541" max="1542" width="7.109375" style="4" customWidth="1"/>
-    <col min="1543" max="1544" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="7.44140625" style="4" customWidth="1"/>
-    <col min="1547" max="1548" width="3.44140625" style="4" customWidth="1"/>
+    <col min="1535" max="1535" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1538" width="2.5" style="4" customWidth="1"/>
+    <col min="1539" max="1540" width="23.125" style="4" customWidth="1"/>
+    <col min="1541" max="1542" width="7.125" style="4" customWidth="1"/>
+    <col min="1543" max="1544" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="7.5" style="4" customWidth="1"/>
+    <col min="1547" max="1548" width="3.5" style="4" customWidth="1"/>
     <col min="1549" max="1790" width="9" style="4"/>
-    <col min="1791" max="1791" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1794" width="2.44140625" style="4" customWidth="1"/>
-    <col min="1795" max="1796" width="23.109375" style="4" customWidth="1"/>
-    <col min="1797" max="1798" width="7.109375" style="4" customWidth="1"/>
-    <col min="1799" max="1800" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="7.44140625" style="4" customWidth="1"/>
-    <col min="1803" max="1804" width="3.44140625" style="4" customWidth="1"/>
+    <col min="1791" max="1791" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1794" width="2.5" style="4" customWidth="1"/>
+    <col min="1795" max="1796" width="23.125" style="4" customWidth="1"/>
+    <col min="1797" max="1798" width="7.125" style="4" customWidth="1"/>
+    <col min="1799" max="1800" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="7.5" style="4" customWidth="1"/>
+    <col min="1803" max="1804" width="3.5" style="4" customWidth="1"/>
     <col min="1805" max="2046" width="9" style="4"/>
-    <col min="2047" max="2047" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2050" width="2.44140625" style="4" customWidth="1"/>
-    <col min="2051" max="2052" width="23.109375" style="4" customWidth="1"/>
-    <col min="2053" max="2054" width="7.109375" style="4" customWidth="1"/>
-    <col min="2055" max="2056" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="7.44140625" style="4" customWidth="1"/>
-    <col min="2059" max="2060" width="3.44140625" style="4" customWidth="1"/>
+    <col min="2047" max="2047" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2050" width="2.5" style="4" customWidth="1"/>
+    <col min="2051" max="2052" width="23.125" style="4" customWidth="1"/>
+    <col min="2053" max="2054" width="7.125" style="4" customWidth="1"/>
+    <col min="2055" max="2056" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="7.5" style="4" customWidth="1"/>
+    <col min="2059" max="2060" width="3.5" style="4" customWidth="1"/>
     <col min="2061" max="2302" width="9" style="4"/>
-    <col min="2303" max="2303" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2306" width="2.44140625" style="4" customWidth="1"/>
-    <col min="2307" max="2308" width="23.109375" style="4" customWidth="1"/>
-    <col min="2309" max="2310" width="7.109375" style="4" customWidth="1"/>
-    <col min="2311" max="2312" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="7.44140625" style="4" customWidth="1"/>
-    <col min="2315" max="2316" width="3.44140625" style="4" customWidth="1"/>
+    <col min="2303" max="2303" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2306" width="2.5" style="4" customWidth="1"/>
+    <col min="2307" max="2308" width="23.125" style="4" customWidth="1"/>
+    <col min="2309" max="2310" width="7.125" style="4" customWidth="1"/>
+    <col min="2311" max="2312" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="7.5" style="4" customWidth="1"/>
+    <col min="2315" max="2316" width="3.5" style="4" customWidth="1"/>
     <col min="2317" max="2558" width="9" style="4"/>
-    <col min="2559" max="2559" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2562" width="2.44140625" style="4" customWidth="1"/>
-    <col min="2563" max="2564" width="23.109375" style="4" customWidth="1"/>
-    <col min="2565" max="2566" width="7.109375" style="4" customWidth="1"/>
-    <col min="2567" max="2568" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="7.44140625" style="4" customWidth="1"/>
-    <col min="2571" max="2572" width="3.44140625" style="4" customWidth="1"/>
+    <col min="2559" max="2559" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2562" width="2.5" style="4" customWidth="1"/>
+    <col min="2563" max="2564" width="23.125" style="4" customWidth="1"/>
+    <col min="2565" max="2566" width="7.125" style="4" customWidth="1"/>
+    <col min="2567" max="2568" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="7.5" style="4" customWidth="1"/>
+    <col min="2571" max="2572" width="3.5" style="4" customWidth="1"/>
     <col min="2573" max="2814" width="9" style="4"/>
-    <col min="2815" max="2815" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2818" width="2.44140625" style="4" customWidth="1"/>
-    <col min="2819" max="2820" width="23.109375" style="4" customWidth="1"/>
-    <col min="2821" max="2822" width="7.109375" style="4" customWidth="1"/>
-    <col min="2823" max="2824" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="7.44140625" style="4" customWidth="1"/>
-    <col min="2827" max="2828" width="3.44140625" style="4" customWidth="1"/>
+    <col min="2815" max="2815" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2818" width="2.5" style="4" customWidth="1"/>
+    <col min="2819" max="2820" width="23.125" style="4" customWidth="1"/>
+    <col min="2821" max="2822" width="7.125" style="4" customWidth="1"/>
+    <col min="2823" max="2824" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="7.5" style="4" customWidth="1"/>
+    <col min="2827" max="2828" width="3.5" style="4" customWidth="1"/>
     <col min="2829" max="3070" width="9" style="4"/>
-    <col min="3071" max="3071" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3074" width="2.44140625" style="4" customWidth="1"/>
-    <col min="3075" max="3076" width="23.109375" style="4" customWidth="1"/>
-    <col min="3077" max="3078" width="7.109375" style="4" customWidth="1"/>
-    <col min="3079" max="3080" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="7.44140625" style="4" customWidth="1"/>
-    <col min="3083" max="3084" width="3.44140625" style="4" customWidth="1"/>
+    <col min="3071" max="3071" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3074" width="2.5" style="4" customWidth="1"/>
+    <col min="3075" max="3076" width="23.125" style="4" customWidth="1"/>
+    <col min="3077" max="3078" width="7.125" style="4" customWidth="1"/>
+    <col min="3079" max="3080" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="7.5" style="4" customWidth="1"/>
+    <col min="3083" max="3084" width="3.5" style="4" customWidth="1"/>
     <col min="3085" max="3326" width="9" style="4"/>
-    <col min="3327" max="3327" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3330" width="2.44140625" style="4" customWidth="1"/>
-    <col min="3331" max="3332" width="23.109375" style="4" customWidth="1"/>
-    <col min="3333" max="3334" width="7.109375" style="4" customWidth="1"/>
-    <col min="3335" max="3336" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="7.44140625" style="4" customWidth="1"/>
-    <col min="3339" max="3340" width="3.44140625" style="4" customWidth="1"/>
+    <col min="3327" max="3327" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3330" width="2.5" style="4" customWidth="1"/>
+    <col min="3331" max="3332" width="23.125" style="4" customWidth="1"/>
+    <col min="3333" max="3334" width="7.125" style="4" customWidth="1"/>
+    <col min="3335" max="3336" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="7.5" style="4" customWidth="1"/>
+    <col min="3339" max="3340" width="3.5" style="4" customWidth="1"/>
     <col min="3341" max="3582" width="9" style="4"/>
-    <col min="3583" max="3583" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3586" width="2.44140625" style="4" customWidth="1"/>
-    <col min="3587" max="3588" width="23.109375" style="4" customWidth="1"/>
-    <col min="3589" max="3590" width="7.109375" style="4" customWidth="1"/>
-    <col min="3591" max="3592" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="7.44140625" style="4" customWidth="1"/>
-    <col min="3595" max="3596" width="3.44140625" style="4" customWidth="1"/>
+    <col min="3583" max="3583" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3586" width="2.5" style="4" customWidth="1"/>
+    <col min="3587" max="3588" width="23.125" style="4" customWidth="1"/>
+    <col min="3589" max="3590" width="7.125" style="4" customWidth="1"/>
+    <col min="3591" max="3592" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="7.5" style="4" customWidth="1"/>
+    <col min="3595" max="3596" width="3.5" style="4" customWidth="1"/>
     <col min="3597" max="3838" width="9" style="4"/>
-    <col min="3839" max="3839" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3842" width="2.44140625" style="4" customWidth="1"/>
-    <col min="3843" max="3844" width="23.109375" style="4" customWidth="1"/>
-    <col min="3845" max="3846" width="7.109375" style="4" customWidth="1"/>
-    <col min="3847" max="3848" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="7.44140625" style="4" customWidth="1"/>
-    <col min="3851" max="3852" width="3.44140625" style="4" customWidth="1"/>
+    <col min="3839" max="3839" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3842" width="2.5" style="4" customWidth="1"/>
+    <col min="3843" max="3844" width="23.125" style="4" customWidth="1"/>
+    <col min="3845" max="3846" width="7.125" style="4" customWidth="1"/>
+    <col min="3847" max="3848" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="7.5" style="4" customWidth="1"/>
+    <col min="3851" max="3852" width="3.5" style="4" customWidth="1"/>
     <col min="3853" max="4094" width="9" style="4"/>
-    <col min="4095" max="4095" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4098" width="2.44140625" style="4" customWidth="1"/>
-    <col min="4099" max="4100" width="23.109375" style="4" customWidth="1"/>
-    <col min="4101" max="4102" width="7.109375" style="4" customWidth="1"/>
-    <col min="4103" max="4104" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="7.44140625" style="4" customWidth="1"/>
-    <col min="4107" max="4108" width="3.44140625" style="4" customWidth="1"/>
+    <col min="4095" max="4095" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4098" width="2.5" style="4" customWidth="1"/>
+    <col min="4099" max="4100" width="23.125" style="4" customWidth="1"/>
+    <col min="4101" max="4102" width="7.125" style="4" customWidth="1"/>
+    <col min="4103" max="4104" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="7.5" style="4" customWidth="1"/>
+    <col min="4107" max="4108" width="3.5" style="4" customWidth="1"/>
     <col min="4109" max="4350" width="9" style="4"/>
-    <col min="4351" max="4351" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4354" width="2.44140625" style="4" customWidth="1"/>
-    <col min="4355" max="4356" width="23.109375" style="4" customWidth="1"/>
-    <col min="4357" max="4358" width="7.109375" style="4" customWidth="1"/>
-    <col min="4359" max="4360" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="7.44140625" style="4" customWidth="1"/>
-    <col min="4363" max="4364" width="3.44140625" style="4" customWidth="1"/>
+    <col min="4351" max="4351" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4354" width="2.5" style="4" customWidth="1"/>
+    <col min="4355" max="4356" width="23.125" style="4" customWidth="1"/>
+    <col min="4357" max="4358" width="7.125" style="4" customWidth="1"/>
+    <col min="4359" max="4360" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="7.5" style="4" customWidth="1"/>
+    <col min="4363" max="4364" width="3.5" style="4" customWidth="1"/>
     <col min="4365" max="4606" width="9" style="4"/>
-    <col min="4607" max="4607" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4610" width="2.44140625" style="4" customWidth="1"/>
-    <col min="4611" max="4612" width="23.109375" style="4" customWidth="1"/>
-    <col min="4613" max="4614" width="7.109375" style="4" customWidth="1"/>
-    <col min="4615" max="4616" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="7.44140625" style="4" customWidth="1"/>
-    <col min="4619" max="4620" width="3.44140625" style="4" customWidth="1"/>
+    <col min="4607" max="4607" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4610" width="2.5" style="4" customWidth="1"/>
+    <col min="4611" max="4612" width="23.125" style="4" customWidth="1"/>
+    <col min="4613" max="4614" width="7.125" style="4" customWidth="1"/>
+    <col min="4615" max="4616" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="7.5" style="4" customWidth="1"/>
+    <col min="4619" max="4620" width="3.5" style="4" customWidth="1"/>
     <col min="4621" max="4862" width="9" style="4"/>
-    <col min="4863" max="4863" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4866" width="2.44140625" style="4" customWidth="1"/>
-    <col min="4867" max="4868" width="23.109375" style="4" customWidth="1"/>
-    <col min="4869" max="4870" width="7.109375" style="4" customWidth="1"/>
-    <col min="4871" max="4872" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="7.44140625" style="4" customWidth="1"/>
-    <col min="4875" max="4876" width="3.44140625" style="4" customWidth="1"/>
+    <col min="4863" max="4863" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4866" width="2.5" style="4" customWidth="1"/>
+    <col min="4867" max="4868" width="23.125" style="4" customWidth="1"/>
+    <col min="4869" max="4870" width="7.125" style="4" customWidth="1"/>
+    <col min="4871" max="4872" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="7.5" style="4" customWidth="1"/>
+    <col min="4875" max="4876" width="3.5" style="4" customWidth="1"/>
     <col min="4877" max="5118" width="9" style="4"/>
-    <col min="5119" max="5119" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5122" width="2.44140625" style="4" customWidth="1"/>
-    <col min="5123" max="5124" width="23.109375" style="4" customWidth="1"/>
-    <col min="5125" max="5126" width="7.109375" style="4" customWidth="1"/>
-    <col min="5127" max="5128" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="7.44140625" style="4" customWidth="1"/>
-    <col min="5131" max="5132" width="3.44140625" style="4" customWidth="1"/>
+    <col min="5119" max="5119" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5122" width="2.5" style="4" customWidth="1"/>
+    <col min="5123" max="5124" width="23.125" style="4" customWidth="1"/>
+    <col min="5125" max="5126" width="7.125" style="4" customWidth="1"/>
+    <col min="5127" max="5128" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="7.5" style="4" customWidth="1"/>
+    <col min="5131" max="5132" width="3.5" style="4" customWidth="1"/>
     <col min="5133" max="5374" width="9" style="4"/>
-    <col min="5375" max="5375" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5378" width="2.44140625" style="4" customWidth="1"/>
-    <col min="5379" max="5380" width="23.109375" style="4" customWidth="1"/>
-    <col min="5381" max="5382" width="7.109375" style="4" customWidth="1"/>
-    <col min="5383" max="5384" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="7.44140625" style="4" customWidth="1"/>
-    <col min="5387" max="5388" width="3.44140625" style="4" customWidth="1"/>
+    <col min="5375" max="5375" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5378" width="2.5" style="4" customWidth="1"/>
+    <col min="5379" max="5380" width="23.125" style="4" customWidth="1"/>
+    <col min="5381" max="5382" width="7.125" style="4" customWidth="1"/>
+    <col min="5383" max="5384" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="7.5" style="4" customWidth="1"/>
+    <col min="5387" max="5388" width="3.5" style="4" customWidth="1"/>
     <col min="5389" max="5630" width="9" style="4"/>
-    <col min="5631" max="5631" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5634" width="2.44140625" style="4" customWidth="1"/>
-    <col min="5635" max="5636" width="23.109375" style="4" customWidth="1"/>
-    <col min="5637" max="5638" width="7.109375" style="4" customWidth="1"/>
-    <col min="5639" max="5640" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="7.44140625" style="4" customWidth="1"/>
-    <col min="5643" max="5644" width="3.44140625" style="4" customWidth="1"/>
+    <col min="5631" max="5631" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5634" width="2.5" style="4" customWidth="1"/>
+    <col min="5635" max="5636" width="23.125" style="4" customWidth="1"/>
+    <col min="5637" max="5638" width="7.125" style="4" customWidth="1"/>
+    <col min="5639" max="5640" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="7.5" style="4" customWidth="1"/>
+    <col min="5643" max="5644" width="3.5" style="4" customWidth="1"/>
     <col min="5645" max="5886" width="9" style="4"/>
-    <col min="5887" max="5887" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5890" width="2.44140625" style="4" customWidth="1"/>
-    <col min="5891" max="5892" width="23.109375" style="4" customWidth="1"/>
-    <col min="5893" max="5894" width="7.109375" style="4" customWidth="1"/>
-    <col min="5895" max="5896" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="7.44140625" style="4" customWidth="1"/>
-    <col min="5899" max="5900" width="3.44140625" style="4" customWidth="1"/>
+    <col min="5887" max="5887" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5890" width="2.5" style="4" customWidth="1"/>
+    <col min="5891" max="5892" width="23.125" style="4" customWidth="1"/>
+    <col min="5893" max="5894" width="7.125" style="4" customWidth="1"/>
+    <col min="5895" max="5896" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="7.5" style="4" customWidth="1"/>
+    <col min="5899" max="5900" width="3.5" style="4" customWidth="1"/>
     <col min="5901" max="6142" width="9" style="4"/>
-    <col min="6143" max="6143" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6146" width="2.44140625" style="4" customWidth="1"/>
-    <col min="6147" max="6148" width="23.109375" style="4" customWidth="1"/>
-    <col min="6149" max="6150" width="7.109375" style="4" customWidth="1"/>
-    <col min="6151" max="6152" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="7.44140625" style="4" customWidth="1"/>
-    <col min="6155" max="6156" width="3.44140625" style="4" customWidth="1"/>
+    <col min="6143" max="6143" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6146" width="2.5" style="4" customWidth="1"/>
+    <col min="6147" max="6148" width="23.125" style="4" customWidth="1"/>
+    <col min="6149" max="6150" width="7.125" style="4" customWidth="1"/>
+    <col min="6151" max="6152" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="7.5" style="4" customWidth="1"/>
+    <col min="6155" max="6156" width="3.5" style="4" customWidth="1"/>
     <col min="6157" max="6398" width="9" style="4"/>
-    <col min="6399" max="6399" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6402" width="2.44140625" style="4" customWidth="1"/>
-    <col min="6403" max="6404" width="23.109375" style="4" customWidth="1"/>
-    <col min="6405" max="6406" width="7.109375" style="4" customWidth="1"/>
-    <col min="6407" max="6408" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="7.44140625" style="4" customWidth="1"/>
-    <col min="6411" max="6412" width="3.44140625" style="4" customWidth="1"/>
+    <col min="6399" max="6399" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6402" width="2.5" style="4" customWidth="1"/>
+    <col min="6403" max="6404" width="23.125" style="4" customWidth="1"/>
+    <col min="6405" max="6406" width="7.125" style="4" customWidth="1"/>
+    <col min="6407" max="6408" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="7.5" style="4" customWidth="1"/>
+    <col min="6411" max="6412" width="3.5" style="4" customWidth="1"/>
     <col min="6413" max="6654" width="9" style="4"/>
-    <col min="6655" max="6655" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6658" width="2.44140625" style="4" customWidth="1"/>
-    <col min="6659" max="6660" width="23.109375" style="4" customWidth="1"/>
-    <col min="6661" max="6662" width="7.109375" style="4" customWidth="1"/>
-    <col min="6663" max="6664" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="7.44140625" style="4" customWidth="1"/>
-    <col min="6667" max="6668" width="3.44140625" style="4" customWidth="1"/>
+    <col min="6655" max="6655" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6658" width="2.5" style="4" customWidth="1"/>
+    <col min="6659" max="6660" width="23.125" style="4" customWidth="1"/>
+    <col min="6661" max="6662" width="7.125" style="4" customWidth="1"/>
+    <col min="6663" max="6664" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="7.5" style="4" customWidth="1"/>
+    <col min="6667" max="6668" width="3.5" style="4" customWidth="1"/>
     <col min="6669" max="6910" width="9" style="4"/>
-    <col min="6911" max="6911" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6914" width="2.44140625" style="4" customWidth="1"/>
-    <col min="6915" max="6916" width="23.109375" style="4" customWidth="1"/>
-    <col min="6917" max="6918" width="7.109375" style="4" customWidth="1"/>
-    <col min="6919" max="6920" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="7.44140625" style="4" customWidth="1"/>
-    <col min="6923" max="6924" width="3.44140625" style="4" customWidth="1"/>
+    <col min="6911" max="6911" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6914" width="2.5" style="4" customWidth="1"/>
+    <col min="6915" max="6916" width="23.125" style="4" customWidth="1"/>
+    <col min="6917" max="6918" width="7.125" style="4" customWidth="1"/>
+    <col min="6919" max="6920" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="7.5" style="4" customWidth="1"/>
+    <col min="6923" max="6924" width="3.5" style="4" customWidth="1"/>
     <col min="6925" max="7166" width="9" style="4"/>
-    <col min="7167" max="7167" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7170" width="2.44140625" style="4" customWidth="1"/>
-    <col min="7171" max="7172" width="23.109375" style="4" customWidth="1"/>
-    <col min="7173" max="7174" width="7.109375" style="4" customWidth="1"/>
-    <col min="7175" max="7176" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="7.44140625" style="4" customWidth="1"/>
-    <col min="7179" max="7180" width="3.44140625" style="4" customWidth="1"/>
+    <col min="7167" max="7167" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7170" width="2.5" style="4" customWidth="1"/>
+    <col min="7171" max="7172" width="23.125" style="4" customWidth="1"/>
+    <col min="7173" max="7174" width="7.125" style="4" customWidth="1"/>
+    <col min="7175" max="7176" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="7.5" style="4" customWidth="1"/>
+    <col min="7179" max="7180" width="3.5" style="4" customWidth="1"/>
     <col min="7181" max="7422" width="9" style="4"/>
-    <col min="7423" max="7423" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7426" width="2.44140625" style="4" customWidth="1"/>
-    <col min="7427" max="7428" width="23.109375" style="4" customWidth="1"/>
-    <col min="7429" max="7430" width="7.109375" style="4" customWidth="1"/>
-    <col min="7431" max="7432" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="7.44140625" style="4" customWidth="1"/>
-    <col min="7435" max="7436" width="3.44140625" style="4" customWidth="1"/>
+    <col min="7423" max="7423" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7426" width="2.5" style="4" customWidth="1"/>
+    <col min="7427" max="7428" width="23.125" style="4" customWidth="1"/>
+    <col min="7429" max="7430" width="7.125" style="4" customWidth="1"/>
+    <col min="7431" max="7432" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="7.5" style="4" customWidth="1"/>
+    <col min="7435" max="7436" width="3.5" style="4" customWidth="1"/>
     <col min="7437" max="7678" width="9" style="4"/>
-    <col min="7679" max="7679" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7682" width="2.44140625" style="4" customWidth="1"/>
-    <col min="7683" max="7684" width="23.109375" style="4" customWidth="1"/>
-    <col min="7685" max="7686" width="7.109375" style="4" customWidth="1"/>
-    <col min="7687" max="7688" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="7.44140625" style="4" customWidth="1"/>
-    <col min="7691" max="7692" width="3.44140625" style="4" customWidth="1"/>
+    <col min="7679" max="7679" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7682" width="2.5" style="4" customWidth="1"/>
+    <col min="7683" max="7684" width="23.125" style="4" customWidth="1"/>
+    <col min="7685" max="7686" width="7.125" style="4" customWidth="1"/>
+    <col min="7687" max="7688" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="7.5" style="4" customWidth="1"/>
+    <col min="7691" max="7692" width="3.5" style="4" customWidth="1"/>
     <col min="7693" max="7934" width="9" style="4"/>
-    <col min="7935" max="7935" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7938" width="2.44140625" style="4" customWidth="1"/>
-    <col min="7939" max="7940" width="23.109375" style="4" customWidth="1"/>
-    <col min="7941" max="7942" width="7.109375" style="4" customWidth="1"/>
-    <col min="7943" max="7944" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="7.44140625" style="4" customWidth="1"/>
-    <col min="7947" max="7948" width="3.44140625" style="4" customWidth="1"/>
+    <col min="7935" max="7935" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7938" width="2.5" style="4" customWidth="1"/>
+    <col min="7939" max="7940" width="23.125" style="4" customWidth="1"/>
+    <col min="7941" max="7942" width="7.125" style="4" customWidth="1"/>
+    <col min="7943" max="7944" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="7.5" style="4" customWidth="1"/>
+    <col min="7947" max="7948" width="3.5" style="4" customWidth="1"/>
     <col min="7949" max="8190" width="9" style="4"/>
-    <col min="8191" max="8191" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8194" width="2.44140625" style="4" customWidth="1"/>
-    <col min="8195" max="8196" width="23.109375" style="4" customWidth="1"/>
-    <col min="8197" max="8198" width="7.109375" style="4" customWidth="1"/>
-    <col min="8199" max="8200" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="7.44140625" style="4" customWidth="1"/>
-    <col min="8203" max="8204" width="3.44140625" style="4" customWidth="1"/>
+    <col min="8191" max="8191" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8194" width="2.5" style="4" customWidth="1"/>
+    <col min="8195" max="8196" width="23.125" style="4" customWidth="1"/>
+    <col min="8197" max="8198" width="7.125" style="4" customWidth="1"/>
+    <col min="8199" max="8200" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="7.5" style="4" customWidth="1"/>
+    <col min="8203" max="8204" width="3.5" style="4" customWidth="1"/>
     <col min="8205" max="8446" width="9" style="4"/>
-    <col min="8447" max="8447" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8450" width="2.44140625" style="4" customWidth="1"/>
-    <col min="8451" max="8452" width="23.109375" style="4" customWidth="1"/>
-    <col min="8453" max="8454" width="7.109375" style="4" customWidth="1"/>
-    <col min="8455" max="8456" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="7.44140625" style="4" customWidth="1"/>
-    <col min="8459" max="8460" width="3.44140625" style="4" customWidth="1"/>
+    <col min="8447" max="8447" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8450" width="2.5" style="4" customWidth="1"/>
+    <col min="8451" max="8452" width="23.125" style="4" customWidth="1"/>
+    <col min="8453" max="8454" width="7.125" style="4" customWidth="1"/>
+    <col min="8455" max="8456" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="7.5" style="4" customWidth="1"/>
+    <col min="8459" max="8460" width="3.5" style="4" customWidth="1"/>
     <col min="8461" max="8702" width="9" style="4"/>
-    <col min="8703" max="8703" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8706" width="2.44140625" style="4" customWidth="1"/>
-    <col min="8707" max="8708" width="23.109375" style="4" customWidth="1"/>
-    <col min="8709" max="8710" width="7.109375" style="4" customWidth="1"/>
-    <col min="8711" max="8712" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="7.44140625" style="4" customWidth="1"/>
-    <col min="8715" max="8716" width="3.44140625" style="4" customWidth="1"/>
+    <col min="8703" max="8703" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8706" width="2.5" style="4" customWidth="1"/>
+    <col min="8707" max="8708" width="23.125" style="4" customWidth="1"/>
+    <col min="8709" max="8710" width="7.125" style="4" customWidth="1"/>
+    <col min="8711" max="8712" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="7.5" style="4" customWidth="1"/>
+    <col min="8715" max="8716" width="3.5" style="4" customWidth="1"/>
     <col min="8717" max="8958" width="9" style="4"/>
-    <col min="8959" max="8959" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8962" width="2.44140625" style="4" customWidth="1"/>
-    <col min="8963" max="8964" width="23.109375" style="4" customWidth="1"/>
-    <col min="8965" max="8966" width="7.109375" style="4" customWidth="1"/>
-    <col min="8967" max="8968" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="7.44140625" style="4" customWidth="1"/>
-    <col min="8971" max="8972" width="3.44140625" style="4" customWidth="1"/>
+    <col min="8959" max="8959" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8962" width="2.5" style="4" customWidth="1"/>
+    <col min="8963" max="8964" width="23.125" style="4" customWidth="1"/>
+    <col min="8965" max="8966" width="7.125" style="4" customWidth="1"/>
+    <col min="8967" max="8968" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="7.5" style="4" customWidth="1"/>
+    <col min="8971" max="8972" width="3.5" style="4" customWidth="1"/>
     <col min="8973" max="9214" width="9" style="4"/>
-    <col min="9215" max="9215" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9218" width="2.44140625" style="4" customWidth="1"/>
-    <col min="9219" max="9220" width="23.109375" style="4" customWidth="1"/>
-    <col min="9221" max="9222" width="7.109375" style="4" customWidth="1"/>
-    <col min="9223" max="9224" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="7.44140625" style="4" customWidth="1"/>
-    <col min="9227" max="9228" width="3.44140625" style="4" customWidth="1"/>
+    <col min="9215" max="9215" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9218" width="2.5" style="4" customWidth="1"/>
+    <col min="9219" max="9220" width="23.125" style="4" customWidth="1"/>
+    <col min="9221" max="9222" width="7.125" style="4" customWidth="1"/>
+    <col min="9223" max="9224" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="7.5" style="4" customWidth="1"/>
+    <col min="9227" max="9228" width="3.5" style="4" customWidth="1"/>
     <col min="9229" max="9470" width="9" style="4"/>
-    <col min="9471" max="9471" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9474" width="2.44140625" style="4" customWidth="1"/>
-    <col min="9475" max="9476" width="23.109375" style="4" customWidth="1"/>
-    <col min="9477" max="9478" width="7.109375" style="4" customWidth="1"/>
-    <col min="9479" max="9480" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="7.44140625" style="4" customWidth="1"/>
-    <col min="9483" max="9484" width="3.44140625" style="4" customWidth="1"/>
+    <col min="9471" max="9471" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9474" width="2.5" style="4" customWidth="1"/>
+    <col min="9475" max="9476" width="23.125" style="4" customWidth="1"/>
+    <col min="9477" max="9478" width="7.125" style="4" customWidth="1"/>
+    <col min="9479" max="9480" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="7.5" style="4" customWidth="1"/>
+    <col min="9483" max="9484" width="3.5" style="4" customWidth="1"/>
     <col min="9485" max="9726" width="9" style="4"/>
-    <col min="9727" max="9727" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9730" width="2.44140625" style="4" customWidth="1"/>
-    <col min="9731" max="9732" width="23.109375" style="4" customWidth="1"/>
-    <col min="9733" max="9734" width="7.109375" style="4" customWidth="1"/>
-    <col min="9735" max="9736" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="7.44140625" style="4" customWidth="1"/>
-    <col min="9739" max="9740" width="3.44140625" style="4" customWidth="1"/>
+    <col min="9727" max="9727" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9730" width="2.5" style="4" customWidth="1"/>
+    <col min="9731" max="9732" width="23.125" style="4" customWidth="1"/>
+    <col min="9733" max="9734" width="7.125" style="4" customWidth="1"/>
+    <col min="9735" max="9736" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="7.5" style="4" customWidth="1"/>
+    <col min="9739" max="9740" width="3.5" style="4" customWidth="1"/>
     <col min="9741" max="9982" width="9" style="4"/>
-    <col min="9983" max="9983" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9986" width="2.44140625" style="4" customWidth="1"/>
-    <col min="9987" max="9988" width="23.109375" style="4" customWidth="1"/>
-    <col min="9989" max="9990" width="7.109375" style="4" customWidth="1"/>
-    <col min="9991" max="9992" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="7.44140625" style="4" customWidth="1"/>
-    <col min="9995" max="9996" width="3.44140625" style="4" customWidth="1"/>
+    <col min="9983" max="9983" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9986" width="2.5" style="4" customWidth="1"/>
+    <col min="9987" max="9988" width="23.125" style="4" customWidth="1"/>
+    <col min="9989" max="9990" width="7.125" style="4" customWidth="1"/>
+    <col min="9991" max="9992" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="7.5" style="4" customWidth="1"/>
+    <col min="9995" max="9996" width="3.5" style="4" customWidth="1"/>
     <col min="9997" max="10238" width="9" style="4"/>
-    <col min="10239" max="10239" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10242" width="2.44140625" style="4" customWidth="1"/>
-    <col min="10243" max="10244" width="23.109375" style="4" customWidth="1"/>
-    <col min="10245" max="10246" width="7.109375" style="4" customWidth="1"/>
-    <col min="10247" max="10248" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="7.44140625" style="4" customWidth="1"/>
-    <col min="10251" max="10252" width="3.44140625" style="4" customWidth="1"/>
+    <col min="10239" max="10239" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10242" width="2.5" style="4" customWidth="1"/>
+    <col min="10243" max="10244" width="23.125" style="4" customWidth="1"/>
+    <col min="10245" max="10246" width="7.125" style="4" customWidth="1"/>
+    <col min="10247" max="10248" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="7.5" style="4" customWidth="1"/>
+    <col min="10251" max="10252" width="3.5" style="4" customWidth="1"/>
     <col min="10253" max="10494" width="9" style="4"/>
-    <col min="10495" max="10495" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10498" width="2.44140625" style="4" customWidth="1"/>
-    <col min="10499" max="10500" width="23.109375" style="4" customWidth="1"/>
-    <col min="10501" max="10502" width="7.109375" style="4" customWidth="1"/>
-    <col min="10503" max="10504" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="7.44140625" style="4" customWidth="1"/>
-    <col min="10507" max="10508" width="3.44140625" style="4" customWidth="1"/>
+    <col min="10495" max="10495" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10498" width="2.5" style="4" customWidth="1"/>
+    <col min="10499" max="10500" width="23.125" style="4" customWidth="1"/>
+    <col min="10501" max="10502" width="7.125" style="4" customWidth="1"/>
+    <col min="10503" max="10504" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="7.5" style="4" customWidth="1"/>
+    <col min="10507" max="10508" width="3.5" style="4" customWidth="1"/>
     <col min="10509" max="10750" width="9" style="4"/>
-    <col min="10751" max="10751" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10754" width="2.44140625" style="4" customWidth="1"/>
-    <col min="10755" max="10756" width="23.109375" style="4" customWidth="1"/>
-    <col min="10757" max="10758" width="7.109375" style="4" customWidth="1"/>
-    <col min="10759" max="10760" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="7.44140625" style="4" customWidth="1"/>
-    <col min="10763" max="10764" width="3.44140625" style="4" customWidth="1"/>
+    <col min="10751" max="10751" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10754" width="2.5" style="4" customWidth="1"/>
+    <col min="10755" max="10756" width="23.125" style="4" customWidth="1"/>
+    <col min="10757" max="10758" width="7.125" style="4" customWidth="1"/>
+    <col min="10759" max="10760" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="7.5" style="4" customWidth="1"/>
+    <col min="10763" max="10764" width="3.5" style="4" customWidth="1"/>
     <col min="10765" max="11006" width="9" style="4"/>
-    <col min="11007" max="11007" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11010" width="2.44140625" style="4" customWidth="1"/>
-    <col min="11011" max="11012" width="23.109375" style="4" customWidth="1"/>
-    <col min="11013" max="11014" width="7.109375" style="4" customWidth="1"/>
-    <col min="11015" max="11016" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="7.44140625" style="4" customWidth="1"/>
-    <col min="11019" max="11020" width="3.44140625" style="4" customWidth="1"/>
+    <col min="11007" max="11007" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11010" width="2.5" style="4" customWidth="1"/>
+    <col min="11011" max="11012" width="23.125" style="4" customWidth="1"/>
+    <col min="11013" max="11014" width="7.125" style="4" customWidth="1"/>
+    <col min="11015" max="11016" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="7.5" style="4" customWidth="1"/>
+    <col min="11019" max="11020" width="3.5" style="4" customWidth="1"/>
     <col min="11021" max="11262" width="9" style="4"/>
-    <col min="11263" max="11263" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11266" width="2.44140625" style="4" customWidth="1"/>
-    <col min="11267" max="11268" width="23.109375" style="4" customWidth="1"/>
-    <col min="11269" max="11270" width="7.109375" style="4" customWidth="1"/>
-    <col min="11271" max="11272" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="7.44140625" style="4" customWidth="1"/>
-    <col min="11275" max="11276" width="3.44140625" style="4" customWidth="1"/>
+    <col min="11263" max="11263" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11266" width="2.5" style="4" customWidth="1"/>
+    <col min="11267" max="11268" width="23.125" style="4" customWidth="1"/>
+    <col min="11269" max="11270" width="7.125" style="4" customWidth="1"/>
+    <col min="11271" max="11272" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="7.5" style="4" customWidth="1"/>
+    <col min="11275" max="11276" width="3.5" style="4" customWidth="1"/>
     <col min="11277" max="11518" width="9" style="4"/>
-    <col min="11519" max="11519" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11522" width="2.44140625" style="4" customWidth="1"/>
-    <col min="11523" max="11524" width="23.109375" style="4" customWidth="1"/>
-    <col min="11525" max="11526" width="7.109375" style="4" customWidth="1"/>
-    <col min="11527" max="11528" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="7.44140625" style="4" customWidth="1"/>
-    <col min="11531" max="11532" width="3.44140625" style="4" customWidth="1"/>
+    <col min="11519" max="11519" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11522" width="2.5" style="4" customWidth="1"/>
+    <col min="11523" max="11524" width="23.125" style="4" customWidth="1"/>
+    <col min="11525" max="11526" width="7.125" style="4" customWidth="1"/>
+    <col min="11527" max="11528" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="7.5" style="4" customWidth="1"/>
+    <col min="11531" max="11532" width="3.5" style="4" customWidth="1"/>
     <col min="11533" max="11774" width="9" style="4"/>
-    <col min="11775" max="11775" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11778" width="2.44140625" style="4" customWidth="1"/>
-    <col min="11779" max="11780" width="23.109375" style="4" customWidth="1"/>
-    <col min="11781" max="11782" width="7.109375" style="4" customWidth="1"/>
-    <col min="11783" max="11784" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="7.44140625" style="4" customWidth="1"/>
-    <col min="11787" max="11788" width="3.44140625" style="4" customWidth="1"/>
+    <col min="11775" max="11775" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11778" width="2.5" style="4" customWidth="1"/>
+    <col min="11779" max="11780" width="23.125" style="4" customWidth="1"/>
+    <col min="11781" max="11782" width="7.125" style="4" customWidth="1"/>
+    <col min="11783" max="11784" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="7.5" style="4" customWidth="1"/>
+    <col min="11787" max="11788" width="3.5" style="4" customWidth="1"/>
     <col min="11789" max="12030" width="9" style="4"/>
-    <col min="12031" max="12031" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12034" width="2.44140625" style="4" customWidth="1"/>
-    <col min="12035" max="12036" width="23.109375" style="4" customWidth="1"/>
-    <col min="12037" max="12038" width="7.109375" style="4" customWidth="1"/>
-    <col min="12039" max="12040" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="7.44140625" style="4" customWidth="1"/>
-    <col min="12043" max="12044" width="3.44140625" style="4" customWidth="1"/>
+    <col min="12031" max="12031" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12034" width="2.5" style="4" customWidth="1"/>
+    <col min="12035" max="12036" width="23.125" style="4" customWidth="1"/>
+    <col min="12037" max="12038" width="7.125" style="4" customWidth="1"/>
+    <col min="12039" max="12040" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="7.5" style="4" customWidth="1"/>
+    <col min="12043" max="12044" width="3.5" style="4" customWidth="1"/>
     <col min="12045" max="12286" width="9" style="4"/>
-    <col min="12287" max="12287" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12290" width="2.44140625" style="4" customWidth="1"/>
-    <col min="12291" max="12292" width="23.109375" style="4" customWidth="1"/>
-    <col min="12293" max="12294" width="7.109375" style="4" customWidth="1"/>
-    <col min="12295" max="12296" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="7.44140625" style="4" customWidth="1"/>
-    <col min="12299" max="12300" width="3.44140625" style="4" customWidth="1"/>
+    <col min="12287" max="12287" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12290" width="2.5" style="4" customWidth="1"/>
+    <col min="12291" max="12292" width="23.125" style="4" customWidth="1"/>
+    <col min="12293" max="12294" width="7.125" style="4" customWidth="1"/>
+    <col min="12295" max="12296" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="7.5" style="4" customWidth="1"/>
+    <col min="12299" max="12300" width="3.5" style="4" customWidth="1"/>
     <col min="12301" max="12542" width="9" style="4"/>
-    <col min="12543" max="12543" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12546" width="2.44140625" style="4" customWidth="1"/>
-    <col min="12547" max="12548" width="23.109375" style="4" customWidth="1"/>
-    <col min="12549" max="12550" width="7.109375" style="4" customWidth="1"/>
-    <col min="12551" max="12552" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="7.44140625" style="4" customWidth="1"/>
-    <col min="12555" max="12556" width="3.44140625" style="4" customWidth="1"/>
+    <col min="12543" max="12543" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12546" width="2.5" style="4" customWidth="1"/>
+    <col min="12547" max="12548" width="23.125" style="4" customWidth="1"/>
+    <col min="12549" max="12550" width="7.125" style="4" customWidth="1"/>
+    <col min="12551" max="12552" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="7.5" style="4" customWidth="1"/>
+    <col min="12555" max="12556" width="3.5" style="4" customWidth="1"/>
     <col min="12557" max="12798" width="9" style="4"/>
-    <col min="12799" max="12799" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12802" width="2.44140625" style="4" customWidth="1"/>
-    <col min="12803" max="12804" width="23.109375" style="4" customWidth="1"/>
-    <col min="12805" max="12806" width="7.109375" style="4" customWidth="1"/>
-    <col min="12807" max="12808" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="7.44140625" style="4" customWidth="1"/>
-    <col min="12811" max="12812" width="3.44140625" style="4" customWidth="1"/>
+    <col min="12799" max="12799" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12802" width="2.5" style="4" customWidth="1"/>
+    <col min="12803" max="12804" width="23.125" style="4" customWidth="1"/>
+    <col min="12805" max="12806" width="7.125" style="4" customWidth="1"/>
+    <col min="12807" max="12808" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="7.5" style="4" customWidth="1"/>
+    <col min="12811" max="12812" width="3.5" style="4" customWidth="1"/>
     <col min="12813" max="13054" width="9" style="4"/>
-    <col min="13055" max="13055" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13058" width="2.44140625" style="4" customWidth="1"/>
-    <col min="13059" max="13060" width="23.109375" style="4" customWidth="1"/>
-    <col min="13061" max="13062" width="7.109375" style="4" customWidth="1"/>
-    <col min="13063" max="13064" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="7.44140625" style="4" customWidth="1"/>
-    <col min="13067" max="13068" width="3.44140625" style="4" customWidth="1"/>
+    <col min="13055" max="13055" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13058" width="2.5" style="4" customWidth="1"/>
+    <col min="13059" max="13060" width="23.125" style="4" customWidth="1"/>
+    <col min="13061" max="13062" width="7.125" style="4" customWidth="1"/>
+    <col min="13063" max="13064" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="7.5" style="4" customWidth="1"/>
+    <col min="13067" max="13068" width="3.5" style="4" customWidth="1"/>
     <col min="13069" max="13310" width="9" style="4"/>
-    <col min="13311" max="13311" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13314" width="2.44140625" style="4" customWidth="1"/>
-    <col min="13315" max="13316" width="23.109375" style="4" customWidth="1"/>
-    <col min="13317" max="13318" width="7.109375" style="4" customWidth="1"/>
-    <col min="13319" max="13320" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="7.44140625" style="4" customWidth="1"/>
-    <col min="13323" max="13324" width="3.44140625" style="4" customWidth="1"/>
+    <col min="13311" max="13311" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13314" width="2.5" style="4" customWidth="1"/>
+    <col min="13315" max="13316" width="23.125" style="4" customWidth="1"/>
+    <col min="13317" max="13318" width="7.125" style="4" customWidth="1"/>
+    <col min="13319" max="13320" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="7.5" style="4" customWidth="1"/>
+    <col min="13323" max="13324" width="3.5" style="4" customWidth="1"/>
     <col min="13325" max="13566" width="9" style="4"/>
-    <col min="13567" max="13567" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13570" width="2.44140625" style="4" customWidth="1"/>
-    <col min="13571" max="13572" width="23.109375" style="4" customWidth="1"/>
-    <col min="13573" max="13574" width="7.109375" style="4" customWidth="1"/>
-    <col min="13575" max="13576" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="7.44140625" style="4" customWidth="1"/>
-    <col min="13579" max="13580" width="3.44140625" style="4" customWidth="1"/>
+    <col min="13567" max="13567" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13570" width="2.5" style="4" customWidth="1"/>
+    <col min="13571" max="13572" width="23.125" style="4" customWidth="1"/>
+    <col min="13573" max="13574" width="7.125" style="4" customWidth="1"/>
+    <col min="13575" max="13576" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="7.5" style="4" customWidth="1"/>
+    <col min="13579" max="13580" width="3.5" style="4" customWidth="1"/>
     <col min="13581" max="13822" width="9" style="4"/>
-    <col min="13823" max="13823" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13826" width="2.44140625" style="4" customWidth="1"/>
-    <col min="13827" max="13828" width="23.109375" style="4" customWidth="1"/>
-    <col min="13829" max="13830" width="7.109375" style="4" customWidth="1"/>
-    <col min="13831" max="13832" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="7.44140625" style="4" customWidth="1"/>
-    <col min="13835" max="13836" width="3.44140625" style="4" customWidth="1"/>
+    <col min="13823" max="13823" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13826" width="2.5" style="4" customWidth="1"/>
+    <col min="13827" max="13828" width="23.125" style="4" customWidth="1"/>
+    <col min="13829" max="13830" width="7.125" style="4" customWidth="1"/>
+    <col min="13831" max="13832" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="7.5" style="4" customWidth="1"/>
+    <col min="13835" max="13836" width="3.5" style="4" customWidth="1"/>
     <col min="13837" max="14078" width="9" style="4"/>
-    <col min="14079" max="14079" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14082" width="2.44140625" style="4" customWidth="1"/>
-    <col min="14083" max="14084" width="23.109375" style="4" customWidth="1"/>
-    <col min="14085" max="14086" width="7.109375" style="4" customWidth="1"/>
-    <col min="14087" max="14088" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="7.44140625" style="4" customWidth="1"/>
-    <col min="14091" max="14092" width="3.44140625" style="4" customWidth="1"/>
+    <col min="14079" max="14079" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14082" width="2.5" style="4" customWidth="1"/>
+    <col min="14083" max="14084" width="23.125" style="4" customWidth="1"/>
+    <col min="14085" max="14086" width="7.125" style="4" customWidth="1"/>
+    <col min="14087" max="14088" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="7.5" style="4" customWidth="1"/>
+    <col min="14091" max="14092" width="3.5" style="4" customWidth="1"/>
     <col min="14093" max="14334" width="9" style="4"/>
-    <col min="14335" max="14335" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14338" width="2.44140625" style="4" customWidth="1"/>
-    <col min="14339" max="14340" width="23.109375" style="4" customWidth="1"/>
-    <col min="14341" max="14342" width="7.109375" style="4" customWidth="1"/>
-    <col min="14343" max="14344" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="7.44140625" style="4" customWidth="1"/>
-    <col min="14347" max="14348" width="3.44140625" style="4" customWidth="1"/>
+    <col min="14335" max="14335" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14338" width="2.5" style="4" customWidth="1"/>
+    <col min="14339" max="14340" width="23.125" style="4" customWidth="1"/>
+    <col min="14341" max="14342" width="7.125" style="4" customWidth="1"/>
+    <col min="14343" max="14344" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="7.5" style="4" customWidth="1"/>
+    <col min="14347" max="14348" width="3.5" style="4" customWidth="1"/>
     <col min="14349" max="14590" width="9" style="4"/>
-    <col min="14591" max="14591" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14594" width="2.44140625" style="4" customWidth="1"/>
-    <col min="14595" max="14596" width="23.109375" style="4" customWidth="1"/>
-    <col min="14597" max="14598" width="7.109375" style="4" customWidth="1"/>
-    <col min="14599" max="14600" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="7.44140625" style="4" customWidth="1"/>
-    <col min="14603" max="14604" width="3.44140625" style="4" customWidth="1"/>
+    <col min="14591" max="14591" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14594" width="2.5" style="4" customWidth="1"/>
+    <col min="14595" max="14596" width="23.125" style="4" customWidth="1"/>
+    <col min="14597" max="14598" width="7.125" style="4" customWidth="1"/>
+    <col min="14599" max="14600" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="7.5" style="4" customWidth="1"/>
+    <col min="14603" max="14604" width="3.5" style="4" customWidth="1"/>
     <col min="14605" max="14846" width="9" style="4"/>
-    <col min="14847" max="14847" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14850" width="2.44140625" style="4" customWidth="1"/>
-    <col min="14851" max="14852" width="23.109375" style="4" customWidth="1"/>
-    <col min="14853" max="14854" width="7.109375" style="4" customWidth="1"/>
-    <col min="14855" max="14856" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="7.44140625" style="4" customWidth="1"/>
-    <col min="14859" max="14860" width="3.44140625" style="4" customWidth="1"/>
+    <col min="14847" max="14847" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14850" width="2.5" style="4" customWidth="1"/>
+    <col min="14851" max="14852" width="23.125" style="4" customWidth="1"/>
+    <col min="14853" max="14854" width="7.125" style="4" customWidth="1"/>
+    <col min="14855" max="14856" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="7.5" style="4" customWidth="1"/>
+    <col min="14859" max="14860" width="3.5" style="4" customWidth="1"/>
     <col min="14861" max="15102" width="9" style="4"/>
-    <col min="15103" max="15103" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15106" width="2.44140625" style="4" customWidth="1"/>
-    <col min="15107" max="15108" width="23.109375" style="4" customWidth="1"/>
-    <col min="15109" max="15110" width="7.109375" style="4" customWidth="1"/>
-    <col min="15111" max="15112" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="7.44140625" style="4" customWidth="1"/>
-    <col min="15115" max="15116" width="3.44140625" style="4" customWidth="1"/>
+    <col min="15103" max="15103" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15106" width="2.5" style="4" customWidth="1"/>
+    <col min="15107" max="15108" width="23.125" style="4" customWidth="1"/>
+    <col min="15109" max="15110" width="7.125" style="4" customWidth="1"/>
+    <col min="15111" max="15112" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="7.5" style="4" customWidth="1"/>
+    <col min="15115" max="15116" width="3.5" style="4" customWidth="1"/>
     <col min="15117" max="15358" width="9" style="4"/>
-    <col min="15359" max="15359" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15362" width="2.44140625" style="4" customWidth="1"/>
-    <col min="15363" max="15364" width="23.109375" style="4" customWidth="1"/>
-    <col min="15365" max="15366" width="7.109375" style="4" customWidth="1"/>
-    <col min="15367" max="15368" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="7.44140625" style="4" customWidth="1"/>
-    <col min="15371" max="15372" width="3.44140625" style="4" customWidth="1"/>
+    <col min="15359" max="15359" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15362" width="2.5" style="4" customWidth="1"/>
+    <col min="15363" max="15364" width="23.125" style="4" customWidth="1"/>
+    <col min="15365" max="15366" width="7.125" style="4" customWidth="1"/>
+    <col min="15367" max="15368" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="7.5" style="4" customWidth="1"/>
+    <col min="15371" max="15372" width="3.5" style="4" customWidth="1"/>
     <col min="15373" max="15614" width="9" style="4"/>
-    <col min="15615" max="15615" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15618" width="2.44140625" style="4" customWidth="1"/>
-    <col min="15619" max="15620" width="23.109375" style="4" customWidth="1"/>
-    <col min="15621" max="15622" width="7.109375" style="4" customWidth="1"/>
-    <col min="15623" max="15624" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="7.44140625" style="4" customWidth="1"/>
-    <col min="15627" max="15628" width="3.44140625" style="4" customWidth="1"/>
+    <col min="15615" max="15615" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15618" width="2.5" style="4" customWidth="1"/>
+    <col min="15619" max="15620" width="23.125" style="4" customWidth="1"/>
+    <col min="15621" max="15622" width="7.125" style="4" customWidth="1"/>
+    <col min="15623" max="15624" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="7.5" style="4" customWidth="1"/>
+    <col min="15627" max="15628" width="3.5" style="4" customWidth="1"/>
     <col min="15629" max="15870" width="9" style="4"/>
-    <col min="15871" max="15871" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15874" width="2.44140625" style="4" customWidth="1"/>
-    <col min="15875" max="15876" width="23.109375" style="4" customWidth="1"/>
-    <col min="15877" max="15878" width="7.109375" style="4" customWidth="1"/>
-    <col min="15879" max="15880" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="7.44140625" style="4" customWidth="1"/>
-    <col min="15883" max="15884" width="3.44140625" style="4" customWidth="1"/>
+    <col min="15871" max="15871" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15874" width="2.5" style="4" customWidth="1"/>
+    <col min="15875" max="15876" width="23.125" style="4" customWidth="1"/>
+    <col min="15877" max="15878" width="7.125" style="4" customWidth="1"/>
+    <col min="15879" max="15880" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="7.5" style="4" customWidth="1"/>
+    <col min="15883" max="15884" width="3.5" style="4" customWidth="1"/>
     <col min="15885" max="16126" width="9" style="4"/>
-    <col min="16127" max="16127" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16130" width="2.44140625" style="4" customWidth="1"/>
-    <col min="16131" max="16132" width="23.109375" style="4" customWidth="1"/>
-    <col min="16133" max="16134" width="7.109375" style="4" customWidth="1"/>
-    <col min="16135" max="16136" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="7.44140625" style="4" customWidth="1"/>
-    <col min="16139" max="16140" width="3.44140625" style="4" customWidth="1"/>
+    <col min="16127" max="16127" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16130" width="2.5" style="4" customWidth="1"/>
+    <col min="16131" max="16132" width="23.125" style="4" customWidth="1"/>
+    <col min="16133" max="16134" width="7.125" style="4" customWidth="1"/>
+    <col min="16135" max="16136" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="7.5" style="4" customWidth="1"/>
+    <col min="16139" max="16140" width="3.5" style="4" customWidth="1"/>
     <col min="16141" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -17396,11 +17402,11 @@
       <c r="G1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="154">
+      <c r="H1" s="110">
         <v>43153</v>
       </c>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
       <c r="K1" s="3">
         <f>IF(K3&lt;&gt;DATE(YEAR(K3),MONTH(K3)+1,1)-1,MONTH(K3),"")</f>
         <v>2</v>
@@ -17442,7 +17448,7 @@
         <v>月</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="13.8" thickBot="1">
+    <row r="2" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -17453,11 +17459,11 @@
       <c r="G2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="156">
+      <c r="H2" s="112">
         <v>43153.392569444448</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -17473,35 +17479,35 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="148" t="s">
+    <row r="3" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="159" t="s">
+      <c r="E3" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="160" t="s">
+      <c r="F3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="162" t="s">
+      <c r="G3" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="160" t="s">
+      <c r="H3" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="166" t="s">
+      <c r="J3" s="122" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="41">
@@ -17544,17 +17550,17 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="149"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="166"/>
+    <row r="4" spans="1:20" s="43" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="127"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="122"/>
       <c r="K4" s="44">
         <f>K3</f>
         <v>43152</v>
@@ -17596,13 +17602,13 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="39" customHeight="1">
-      <c r="B5" s="122" t="s">
+    <row r="5" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="119" t="s">
+      <c r="C5" s="147"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="143" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="7"/>
@@ -17612,7 +17618,7 @@
       <c r="J5" s="75"/>
       <c r="K5" s="10"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="145" t="s">
+      <c r="M5" s="123" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="11"/>
@@ -17623,11 +17629,11 @@
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" ht="39" customHeight="1">
-      <c r="B6" s="125"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="120"/>
+    <row r="6" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="149"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="14"/>
       <c r="G6" s="67"/>
       <c r="H6" s="15"/>
@@ -17635,7 +17641,7 @@
       <c r="J6" s="76"/>
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="146"/>
+      <c r="M6" s="124"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
@@ -17644,11 +17650,11 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="1:20" ht="39" customHeight="1">
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="120"/>
+    <row r="7" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="149"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="14"/>
       <c r="G7" s="67"/>
       <c r="H7" s="15"/>
@@ -17656,7 +17662,7 @@
       <c r="J7" s="76"/>
       <c r="K7" s="17"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="146"/>
+      <c r="M7" s="124"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
@@ -17665,11 +17671,11 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="1:20" ht="39" customHeight="1">
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="121"/>
+    <row r="8" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="152"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="145"/>
       <c r="F8" s="35"/>
       <c r="G8" s="69"/>
       <c r="H8" s="36"/>
@@ -17677,7 +17683,7 @@
       <c r="J8" s="77"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="147"/>
+      <c r="M8" s="125"/>
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -17686,7 +17692,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -17707,17 +17713,17 @@
       <c r="S9" s="34"/>
       <c r="T9" s="40"/>
     </row>
-    <row r="10" spans="1:20" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A10" s="169" t="s">
+    <row r="10" spans="1:20" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="173" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="177"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="73">
@@ -17745,15 +17751,15 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="1:20" ht="50.25" customHeight="1">
-      <c r="A11" s="170"/>
-      <c r="B11" s="131" t="s">
+    <row r="11" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="174"/>
+      <c r="B11" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="168"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="74">
@@ -17781,13 +17787,13 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="1:20" ht="50.25" customHeight="1">
-      <c r="A12" s="170"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="175" t="s">
+    <row r="12" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="174"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="176"/>
+      <c r="D12" s="168"/>
       <c r="E12" s="13"/>
       <c r="F12" s="14"/>
       <c r="G12" s="74">
@@ -17815,13 +17821,13 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="1:20" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A13" s="170"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="175" t="s">
+    <row r="13" spans="1:20" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="174"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="176"/>
+      <c r="D13" s="168"/>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
       <c r="G13" s="74">
@@ -17849,15 +17855,15 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="1:20" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A14" s="170"/>
+    <row r="14" spans="1:20" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="174"/>
       <c r="B14" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="167" t="s">
+      <c r="C14" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="168"/>
+      <c r="D14" s="172"/>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
       <c r="G14" s="74">
@@ -17885,8 +17891,8 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="1:20" ht="50.25" customHeight="1">
-      <c r="A15" s="170"/>
+    <row r="15" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="174"/>
       <c r="B15" s="86"/>
       <c r="C15" s="1"/>
       <c r="D15" s="87"/>
@@ -17907,8 +17913,8 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:20" ht="50.25" customHeight="1">
-      <c r="A16" s="170"/>
+    <row r="16" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="174"/>
       <c r="B16" s="86"/>
       <c r="C16" s="1"/>
       <c r="D16" s="87"/>
@@ -17935,8 +17941,8 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="1:20" ht="50.25" customHeight="1">
-      <c r="A17" s="170"/>
+    <row r="17" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="174"/>
       <c r="B17" s="86"/>
       <c r="C17" s="1"/>
       <c r="D17" s="87"/>
@@ -17963,8 +17969,8 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="1:20" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A18" s="171"/>
+    <row r="18" spans="1:20" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="175"/>
       <c r="B18" s="88"/>
       <c r="C18" s="89"/>
       <c r="D18" s="90"/>
@@ -17991,11 +17997,11 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A19" s="172" t="s">
+    <row r="19" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="134" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="91" t="s">
@@ -18033,9 +18039,9 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A20" s="173"/>
-      <c r="B20" s="111"/>
+    <row r="20" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="177"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="92" t="s">
         <v>79</v>
       </c>
@@ -18069,9 +18075,9 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A21" s="173"/>
-      <c r="B21" s="112"/>
+    <row r="21" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="177"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="55" t="s">
         <v>76</v>
       </c>
@@ -18105,9 +18111,9 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A22" s="173"/>
-      <c r="B22" s="110" t="s">
+    <row r="22" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="177"/>
+      <c r="B22" s="134" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="91" t="s">
@@ -18145,9 +18151,9 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A23" s="173"/>
-      <c r="B23" s="111"/>
+    <row r="23" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="177"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="92" t="s">
         <v>79</v>
       </c>
@@ -18181,9 +18187,9 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A24" s="173"/>
-      <c r="B24" s="112"/>
+    <row r="24" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="177"/>
+      <c r="B24" s="136"/>
       <c r="C24" s="55" t="s">
         <v>76</v>
       </c>
@@ -18217,9 +18223,9 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A25" s="173"/>
-      <c r="B25" s="110" t="s">
+    <row r="25" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="177"/>
+      <c r="B25" s="134" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="91" t="s">
@@ -18257,9 +18263,9 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A26" s="173"/>
-      <c r="B26" s="111"/>
+    <row r="26" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="177"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="92" t="s">
         <v>79</v>
       </c>
@@ -18293,9 +18299,9 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A27" s="173"/>
-      <c r="B27" s="112"/>
+    <row r="27" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="177"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="55" t="s">
         <v>76</v>
       </c>
@@ -18329,9 +18335,9 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A28" s="173"/>
-      <c r="B28" s="110" t="s">
+    <row r="28" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="177"/>
+      <c r="B28" s="134" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="91" t="s">
@@ -18369,9 +18375,9 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A29" s="173"/>
-      <c r="B29" s="111"/>
+    <row r="29" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="177"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="92" t="s">
         <v>79</v>
       </c>
@@ -18405,9 +18411,9 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A30" s="173"/>
-      <c r="B30" s="112"/>
+    <row r="30" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="177"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="55" t="s">
         <v>76</v>
       </c>
@@ -18441,9 +18447,9 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A31" s="173"/>
-      <c r="B31" s="110" t="s">
+    <row r="31" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="177"/>
+      <c r="B31" s="134" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="91" t="s">
@@ -18481,9 +18487,9 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A32" s="173"/>
-      <c r="B32" s="111"/>
+    <row r="32" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="177"/>
+      <c r="B32" s="135"/>
       <c r="C32" s="92" t="s">
         <v>79</v>
       </c>
@@ -18517,9 +18523,9 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A33" s="173"/>
-      <c r="B33" s="112"/>
+    <row r="33" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="177"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="55" t="s">
         <v>76</v>
       </c>
@@ -18553,9 +18559,9 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A34" s="173"/>
-      <c r="B34" s="110" t="s">
+    <row r="34" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="177"/>
+      <c r="B34" s="134" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="91" t="s">
@@ -18593,9 +18599,9 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A35" s="173"/>
-      <c r="B35" s="111"/>
+    <row r="35" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="177"/>
+      <c r="B35" s="135"/>
       <c r="C35" s="92" t="s">
         <v>79</v>
       </c>
@@ -18629,9 +18635,9 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A36" s="173"/>
-      <c r="B36" s="112"/>
+    <row r="36" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="177"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="55" t="s">
         <v>76</v>
       </c>
@@ -18665,9 +18671,9 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A37" s="173"/>
-      <c r="B37" s="110" t="s">
+    <row r="37" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="177"/>
+      <c r="B37" s="134" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="91" t="s">
@@ -18705,9 +18711,9 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="1:20" ht="56.25" customHeight="1">
-      <c r="A38" s="173"/>
-      <c r="B38" s="111"/>
+    <row r="38" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="177"/>
+      <c r="B38" s="135"/>
       <c r="C38" s="92" t="s">
         <v>90</v>
       </c>
@@ -18741,9 +18747,9 @@
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
     </row>
-    <row r="39" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A39" s="174"/>
-      <c r="B39" s="112"/>
+    <row r="39" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="178"/>
+      <c r="B39" s="136"/>
       <c r="C39" s="55" t="s">
         <v>76</v>
       </c>
@@ -18777,11 +18783,11 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
     </row>
-    <row r="40" spans="1:20" ht="40.5" customHeight="1">
-      <c r="A40" s="116" t="s">
+    <row r="40" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="134" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="54" t="s">
@@ -18805,9 +18811,9 @@
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
     </row>
-    <row r="41" spans="1:20" ht="40.5" customHeight="1">
-      <c r="A41" s="117"/>
-      <c r="B41" s="111"/>
+    <row r="41" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="141"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="95" t="s">
         <v>54</v>
       </c>
@@ -18829,9 +18835,9 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
     </row>
-    <row r="42" spans="1:20" ht="40.5" customHeight="1">
-      <c r="A42" s="117"/>
-      <c r="B42" s="111"/>
+    <row r="42" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="141"/>
+      <c r="B42" s="135"/>
       <c r="C42" s="95" t="s">
         <v>55</v>
       </c>
@@ -18853,9 +18859,9 @@
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
     </row>
-    <row r="43" spans="1:20" ht="40.5" customHeight="1">
-      <c r="A43" s="117"/>
-      <c r="B43" s="111"/>
+    <row r="43" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="141"/>
+      <c r="B43" s="135"/>
       <c r="C43" s="95" t="s">
         <v>56</v>
       </c>
@@ -18877,9 +18883,9 @@
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
     </row>
-    <row r="44" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A44" s="118"/>
-      <c r="B44" s="112"/>
+    <row r="44" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="142"/>
+      <c r="B44" s="136"/>
       <c r="C44" s="95" t="s">
         <v>57</v>
       </c>
@@ -18901,7 +18907,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
     </row>
-    <row r="45" spans="1:20" ht="27" customHeight="1">
+    <row r="45" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="60"/>
       <c r="C45" s="46"/>
       <c r="D45" s="61"/>
@@ -18922,7 +18928,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="1:20" ht="27" customHeight="1">
+    <row r="46" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="12"/>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
@@ -18943,7 +18949,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
     </row>
-    <row r="47" spans="1:20" ht="27" customHeight="1">
+    <row r="47" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="12"/>
       <c r="C47" s="61"/>
       <c r="D47" s="61"/>
@@ -18964,7 +18970,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="18"/>
     </row>
-    <row r="48" spans="1:20" ht="27" customHeight="1">
+    <row r="48" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
       <c r="D48" s="61"/>
@@ -18985,7 +18991,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="18"/>
     </row>
-    <row r="49" spans="2:20" ht="27" customHeight="1">
+    <row r="49" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -19006,7 +19012,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="18"/>
     </row>
-    <row r="50" spans="2:20" ht="27" customHeight="1">
+    <row r="50" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -19027,7 +19033,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="18"/>
     </row>
-    <row r="51" spans="2:20" ht="27" customHeight="1">
+    <row r="51" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -19048,7 +19054,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="18"/>
     </row>
-    <row r="52" spans="2:20" ht="27" customHeight="1">
+    <row r="52" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -19069,7 +19075,7 @@
       <c r="S52" s="18"/>
       <c r="T52" s="18"/>
     </row>
-    <row r="53" spans="2:20" ht="27" customHeight="1">
+    <row r="53" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -19090,7 +19096,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
     </row>
-    <row r="54" spans="2:20" ht="27" customHeight="1">
+    <row r="54" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -19111,7 +19117,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="18"/>
     </row>
-    <row r="55" spans="2:20" ht="27" customHeight="1">
+    <row r="55" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -19132,7 +19138,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="18"/>
     </row>
-    <row r="56" spans="2:20" ht="27" customHeight="1">
+    <row r="56" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -19153,7 +19159,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
     </row>
-    <row r="57" spans="2:20" ht="27" customHeight="1">
+    <row r="57" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -19174,7 +19180,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="18"/>
     </row>
-    <row r="58" spans="2:20" ht="27" customHeight="1">
+    <row r="58" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12">
         <f>ROW()-ROW(№列)</f>
         <v>49</v>
@@ -19198,7 +19204,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="18"/>
     </row>
-    <row r="59" spans="2:20" ht="27" customHeight="1">
+    <row r="59" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="19">
         <f>ROW()-ROW(№列)</f>
         <v>50</v>
@@ -19229,23 +19235,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="32">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="M5:M8"/>
     <mergeCell ref="C14:D14"/>
@@ -19261,6 +19250,23 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K5:L8 K10:L11 K12:T32 K38:T59">
@@ -19354,11 +19360,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
